--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/Bot separado 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="114_{0ACF4529-15C7-42C3-8F18-2C35F1B366A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD6EF7F-74AC-4356-8A4F-D89E0DB93A61}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="114_{0ACF4529-15C7-42C3-8F18-2C35F1B366A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8466C9A3-8AC4-49BC-8733-131406DE91E6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1380" yWindow="885" windowWidth="13485" windowHeight="12735" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="1725" yWindow="1230" windowWidth="13485" windowHeight="12735" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +408,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -430,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -439,6 +446,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930ADA1-3FB7-43B9-8124-A0626A05BB44}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <v>-1002023819899</v>
+        <v>-1002002230427</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2171,15 +2181,15 @@
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>-1001987602366</v>
+        <v>-1001956367839</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
-        <v>-1002120180361</v>
+      <c r="B4" s="6">
+        <v>-1002139886828</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2187,7 +2197,7 @@
         <v>110</v>
       </c>
       <c r="B5" s="5">
-        <v>-1002131916769</v>
+        <v>-1002054332150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcire\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="114_{0ACF4529-15C7-42C3-8F18-2C35F1B366A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8466C9A3-8AC4-49BC-8733-131406DE91E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1230" windowWidth="13485" windowHeight="12735" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="120">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Frosty</t>
   </si>
   <si>
-    <t>Cristian</t>
-  </si>
-  <si>
     <t>Chapito</t>
   </si>
   <si>
@@ -370,6 +367,36 @@
   </si>
   <si>
     <t>Alta Efectividad</t>
+  </si>
+  <si>
+    <t>Revista Reyes</t>
+  </si>
+  <si>
+    <t>Lara Basado</t>
+  </si>
+  <si>
+    <t>Niño Picks</t>
+  </si>
+  <si>
+    <t>Cristian Rey APP</t>
+  </si>
+  <si>
+    <t>Cristian Rey mensual</t>
+  </si>
+  <si>
+    <t>Cristian Rey Anual</t>
+  </si>
+  <si>
+    <t>Oscar Rey</t>
+  </si>
+  <si>
+    <t>Consejo Abuelo</t>
+  </si>
+  <si>
+    <t>Marco Rey APP</t>
+  </si>
+  <si>
+    <t>NFL Stats</t>
   </si>
 </sst>
 </file>
@@ -437,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -451,6 +478,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,13 +531,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H99" totalsRowShown="0">
-  <autoFilter ref="A1:H99" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H108" totalsRowShown="0">
+  <autoFilter ref="A1:H108" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="4"/>
@@ -850,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,10 +894,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -894,132 +920,123 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>10000</v>
       </c>
       <c r="D2" s="2">
-        <v>20000</v>
+        <v>10306</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>10000</v>
       </c>
       <c r="D3" s="2">
-        <v>-9000</v>
+        <v>4570</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G3" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9339</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>37000</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6</v>
-      </c>
       <c r="G4" s="3">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>10000</v>
       </c>
       <c r="D5" s="2">
-        <v>50000</v>
+        <v>5260</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3">
-        <v>80</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>10000</v>
       </c>
       <c r="D6" s="2">
-        <v>-9000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30</v>
+        <v>12000</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,58 +1044,99 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10000</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9400</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9800</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11619</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10000</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
@@ -1087,1056 +1145,2074 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13590</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>83</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9956</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5030</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>11413</v>
+      </c>
+      <c r="E15">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3544</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10000</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10000</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>11250</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10086</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10732</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9840</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9150</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10000</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12200</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>80</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10000</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10000</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10000</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10000</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10055</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10000</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10000</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10000</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>11020</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>11297</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>80</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10048</v>
+      </c>
+      <c r="E37">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3">
+        <v>8</v>
+      </c>
+      <c r="G37" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9360</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4</v>
+      </c>
+      <c r="G38" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>10000</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9370</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9006</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="2">
+        <v>100000</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10000</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="2">
+        <v>9700</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9874</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45" s="3">
+        <v>9</v>
+      </c>
+      <c r="G45" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>10045</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>11702</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10000</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>10000</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>11290</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D51" s="2">
+        <v>9800</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10186</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>64</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>10040</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5</v>
+      </c>
+      <c r="G53" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10000</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>9680</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D56" s="2">
+        <v>10092</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>10100</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D58" s="2">
+        <v>9590</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3">
+        <v>75</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D59" s="2">
+        <v>10232</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D60" s="2">
+        <v>10810</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9067</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3">
+        <v>6</v>
+      </c>
+      <c r="G61" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D62" s="2">
+        <v>9773</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D63" s="2">
+        <v>10975</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>67</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D64" s="2">
+        <v>11540</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D65" s="2">
+        <v>6900</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D66" s="2">
+        <v>11004</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>75</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C67" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D67" s="2">
+        <v>10000</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D68" s="2">
+        <v>10000</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D69" s="2">
+        <v>9400</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D70" s="2">
+        <v>10789</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3">
+        <v>60</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1000</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D72" s="2">
+        <v>11560</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D73" s="2">
+        <v>10100</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D74" s="2">
+        <v>5240</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>3</v>
+      </c>
+      <c r="G74" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D75" s="2">
+        <v>10820</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D76" s="2">
+        <v>10000</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D77" s="2">
+        <v>10480</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3">
+        <v>67</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D78" s="2">
+        <v>9293</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78" s="3">
+        <v>6</v>
+      </c>
+      <c r="G78" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D79" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C80" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D80" s="2">
+        <v>10000</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D81" s="2">
+        <v>10810</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>80</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D82" s="2">
+        <v>8080</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8600</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9670</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3">
+        <v>3</v>
+      </c>
+      <c r="G84" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10170</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3">
+        <v>67</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D86" s="2">
+        <v>10000</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C87" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D87" s="2">
+        <v>10000</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C88" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D88" s="2">
+        <v>10000</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C89" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D89" s="2">
+        <v>10000</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C90" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D90" s="2">
+        <v>9500</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C91" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D91" s="2">
+        <v>9100</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D92" s="2">
+        <v>10000</v>
+      </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C93" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D93" s="2">
+        <v>10980</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>75</v>
+      </c>
+      <c r="H93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D94" s="2">
+        <v>9840</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C95" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D95" s="2">
+        <v>10000</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C96" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D96" s="2">
+        <v>10000</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D97" s="2">
+        <v>10650</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C98" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D98" s="2">
+        <v>9110</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3">
+        <v>50</v>
+      </c>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>108</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5070</v>
+      </c>
+      <c r="E99" s="3">
+        <v>4</v>
+      </c>
+      <c r="F99" s="3">
+        <v>15</v>
+      </c>
+      <c r="G99" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D100" s="2">
+        <v>8511</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>9</v>
+      </c>
+      <c r="G100" s="3">
+        <v>35</v>
+      </c>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D101" s="2">
+        <v>11358</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <v>3</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2150,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930ADA1-3FB7-43B9-8124-A0626A05BB44}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,15 +3238,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>-1002002230427</v>
@@ -2178,7 +3254,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
         <v>-1001956367839</v>
@@ -2186,7 +3262,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6">
         <v>-1002139886828</v>
@@ -2194,7 +3270,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5">
         <v>-1002054332150</v>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcire\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D73B158-D3F7-405C-A3D2-8596CC04E6BB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>NFL Stats</t>
+  </si>
+  <si>
+    <t>Oscar Marquez</t>
   </si>
 </sst>
 </file>
@@ -531,9 +534,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H108" totalsRowShown="0">
-  <autoFilter ref="A1:H108" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H109" totalsRowShown="0">
+  <autoFilter ref="A1:H109" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="4"/>
@@ -876,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,6 +897,7 @@
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,6 +3221,20 @@
       <c r="D108" s="2"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D73B158-D3F7-405C-A3D2-8596CC04E6BB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29E9FE1-BD9A-4D3C-A468-E8F04F4A3923}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="3135" yWindow="1110" windowWidth="13485" windowHeight="12735" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -532,10 +532,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -3246,9 +3242,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930ADA1-3FB7-43B9-8124-A0626A05BB44}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3258,7 +3254,7 @@
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +3262,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3274,7 +3270,7 @@
         <v>-1002002230427</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -3282,7 +3278,7 @@
         <v>-1001956367839</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3290,7 +3286,7 @@
         <v>-1002139886828</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -3298,8 +3294,9 @@
         <v>-1002054332150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29E9FE1-BD9A-4D3C-A468-E8F04F4A3923}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AAB58A6-985B-4B28-A90D-2B1727E345DC}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1110" windowWidth="13485" windowHeight="12735" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="124">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>Oscar Marquez</t>
+  </si>
+  <si>
+    <t>Dbets</t>
+  </si>
+  <si>
+    <t>Gallito Parlays Exoticos</t>
+  </si>
+  <si>
+    <t>Hassido</t>
   </si>
 </sst>
 </file>
@@ -534,9 +543,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H109" totalsRowShown="0">
-  <autoFilter ref="A1:H109" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H112" totalsRowShown="0">
+  <autoFilter ref="A1:H112" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="4"/>
@@ -879,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,30 +2383,21 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D69" s="2">
-        <v>9400</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>50</v>
-      </c>
+      <c r="C69" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -2402,24 +2406,21 @@
         <v>10000</v>
       </c>
       <c r="D70" s="2">
-        <v>10789</v>
+        <v>9400</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="3">
-        <v>60</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>13</v>
@@ -2428,14 +2429,24 @@
         <v>10000</v>
       </c>
       <c r="D71" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+        <v>10789</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3">
+        <v>60</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>13</v>
@@ -2444,24 +2455,14 @@
         <v>10000</v>
       </c>
       <c r="D72" s="2">
-        <v>11560</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>100</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>13</v>
@@ -2470,21 +2471,24 @@
         <v>10000</v>
       </c>
       <c r="D73" s="2">
-        <v>10100</v>
+        <v>11560</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="3">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>13</v>
@@ -2493,21 +2497,21 @@
         <v>10000</v>
       </c>
       <c r="D74" s="2">
-        <v>5240</v>
+        <v>10100</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>13</v>
@@ -2516,24 +2520,21 @@
         <v>10000</v>
       </c>
       <c r="D75" s="2">
-        <v>10820</v>
+        <v>5240</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G75" s="3">
-        <v>100</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>13</v>
@@ -2542,14 +2543,24 @@
         <v>10000</v>
       </c>
       <c r="D76" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+        <v>10820</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>13</v>
@@ -2558,24 +2569,14 @@
         <v>10000</v>
       </c>
       <c r="D77" s="2">
-        <v>10480</v>
-      </c>
-      <c r="E77">
-        <v>4</v>
-      </c>
-      <c r="F77" s="3">
-        <v>2</v>
-      </c>
-      <c r="G77" s="3">
-        <v>67</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>13</v>
@@ -2584,21 +2585,24 @@
         <v>10000</v>
       </c>
       <c r="D78" s="2">
-        <v>9293</v>
+        <v>10480</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G78" s="3">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>13</v>
@@ -2607,24 +2611,21 @@
         <v>10000</v>
       </c>
       <c r="D79" s="2">
-        <v>11000</v>
+        <v>9293</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F79" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G79" s="3">
-        <v>100</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>13</v>
@@ -2633,14 +2634,24 @@
         <v>10000</v>
       </c>
       <c r="D80" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+        <v>11000</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>13</v>
@@ -2649,24 +2660,14 @@
         <v>10000</v>
       </c>
       <c r="D81" s="2">
-        <v>10810</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3">
-        <v>80</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>13</v>
@@ -2675,21 +2676,24 @@
         <v>10000</v>
       </c>
       <c r="D82" s="2">
-        <v>8080</v>
+        <v>10810</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F82" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>13</v>
@@ -2698,21 +2702,21 @@
         <v>10000</v>
       </c>
       <c r="D83" s="2">
-        <v>8600</v>
+        <v>8080</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>13</v>
@@ -2721,21 +2725,21 @@
         <v>10000</v>
       </c>
       <c r="D84" s="2">
-        <v>9670</v>
+        <v>8600</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F84" s="3">
         <v>3</v>
       </c>
       <c r="G84" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>13</v>
@@ -2744,24 +2748,21 @@
         <v>10000</v>
       </c>
       <c r="D85" s="2">
-        <v>10170</v>
+        <v>9670</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" s="3">
-        <v>67</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>13</v>
@@ -2770,14 +2771,24 @@
         <v>10000</v>
       </c>
       <c r="D86" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+        <v>10170</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3">
+        <v>67</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>13</v>
@@ -2793,7 +2804,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>13</v>
@@ -2809,7 +2820,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>13</v>
@@ -2825,7 +2836,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>13</v>
@@ -2834,24 +2845,14 @@
         <v>10000</v>
       </c>
       <c r="D90" s="2">
-        <v>9500</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3">
-        <v>50</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>13</v>
@@ -2860,21 +2861,24 @@
         <v>10000</v>
       </c>
       <c r="D91" s="2">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F91" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" s="3">
         <v>50</v>
       </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>13</v>
@@ -2883,14 +2887,21 @@
         <v>10000</v>
       </c>
       <c r="D92" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+        <v>9100</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" s="3">
+        <v>3</v>
+      </c>
+      <c r="G92" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>13</v>
@@ -2899,24 +2910,14 @@
         <v>10000</v>
       </c>
       <c r="D93" s="2">
-        <v>10980</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3">
-        <v>75</v>
-      </c>
-      <c r="H93" s="8">
-        <v>1</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>13</v>
@@ -2925,21 +2926,24 @@
         <v>10000</v>
       </c>
       <c r="D94" s="2">
-        <v>9840</v>
+        <v>10980</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>13</v>
@@ -2948,14 +2952,21 @@
         <v>10000</v>
       </c>
       <c r="D95" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+        <v>9840</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>3</v>
+      </c>
+      <c r="G95" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>13</v>
@@ -2971,7 +2982,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>13</v>
@@ -2980,24 +2991,14 @@
         <v>10000</v>
       </c>
       <c r="D97" s="2">
-        <v>10650</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
-        <v>100</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>13</v>
@@ -3006,45 +3007,48 @@
         <v>10000</v>
       </c>
       <c r="D98" s="2">
-        <v>9110</v>
+        <v>10650</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98" s="3">
-        <v>50</v>
-      </c>
-      <c r="H98" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>110</v>
-      </c>
-      <c r="B99" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C99" s="2">
         <v>10000</v>
       </c>
       <c r="D99" s="2">
-        <v>5070</v>
-      </c>
-      <c r="E99" s="3">
-        <v>4</v>
+        <v>9110</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
       </c>
       <c r="F99" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G99" s="3">
-        <v>33</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3053,22 +3057,21 @@
         <v>10000</v>
       </c>
       <c r="D100" s="2">
-        <v>8511</v>
+        <v>5070</v>
       </c>
       <c r="E100" s="3">
         <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G100" s="3">
-        <v>35</v>
-      </c>
-      <c r="H100" s="3"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3077,24 +3080,22 @@
         <v>10000</v>
       </c>
       <c r="D101" s="2">
-        <v>11358</v>
+        <v>8511</v>
       </c>
       <c r="E101" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>2</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3102,13 +3103,25 @@
       <c r="C102" s="2">
         <v>10000</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="D102" s="2">
+        <v>11358</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3117,19 +3130,12 @@
         <v>10000</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
-        <v>2</v>
-      </c>
-      <c r="G103" s="3">
-        <v>0</v>
-      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3137,13 +3143,20 @@
       <c r="C104" s="2">
         <v>10000</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+      <c r="D104" s="2"/>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <v>2</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3151,20 +3164,13 @@
       <c r="C105" s="2">
         <v>10000</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
-        <v>3</v>
-      </c>
-      <c r="G105" s="3">
-        <v>0</v>
-      </c>
+      <c r="D105" s="9"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3174,18 +3180,18 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F106" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3195,18 +3201,18 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F107" s="3">
         <v>1</v>
       </c>
       <c r="G107" s="3">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3215,12 +3221,19 @@
         <v>10000</v>
       </c>
       <c r="D108" s="2"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3">
+        <v>67</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -3228,9 +3241,43 @@
       <c r="C109" s="2">
         <v>10000</v>
       </c>
-      <c r="D109" s="9"/>
+      <c r="D109" s="2"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3244,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930ADA1-3FB7-43B9-8124-A0626A05BB44}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AAB58A6-985B-4B28-A90D-2B1727E345DC}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6DF6091-3D4F-4C1D-BD5E-5BC54D33551F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="13695" yWindow="240" windowWidth="13485" windowHeight="12735" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,6 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,19 +947,16 @@
         <v>10000</v>
       </c>
       <c r="D2" s="2">
-        <v>10306</v>
+        <v>10272</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -972,16 +970,16 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2">
-        <v>4570</v>
+        <v>5895</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,16 +993,16 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2">
-        <v>9339</v>
+        <v>9440</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1018,16 +1016,16 @@
         <v>10000</v>
       </c>
       <c r="D5" s="2">
-        <v>5260</v>
+        <v>5560</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1083,13 +1081,13 @@
         <v>10000</v>
       </c>
       <c r="D8" s="2">
-        <v>9400</v>
+        <v>9349</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1106,15 +1104,15 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1129,16 +1127,19 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2">
-        <v>11619</v>
+        <v>12049</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1168,19 +1169,16 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2">
-        <v>13590</v>
+        <v>12990</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>83</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,16 +1192,16 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2">
-        <v>9956</v>
+        <v>10196</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1217,16 +1215,16 @@
         <v>10000</v>
       </c>
       <c r="D14" s="2">
-        <v>5030</v>
+        <v>5560</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,19 +1238,19 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2">
-        <v>11413</v>
+        <v>11940</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3">
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1266,19 +1264,16 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2">
-        <v>3544</v>
+        <v>6783</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
-        <v>38</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1292,10 +1287,20 @@
         <v>10000</v>
       </c>
       <c r="D17" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>10190</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1347,16 +1352,16 @@
         <v>10000</v>
       </c>
       <c r="D20" s="2">
-        <v>10086</v>
+        <v>9786</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,19 +1375,19 @@
         <v>10000</v>
       </c>
       <c r="D21" s="2">
-        <v>10732</v>
+        <v>11231</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1395,17 +1400,17 @@
       <c r="C22" s="2">
         <v>10000</v>
       </c>
-      <c r="D22" s="2">
-        <v>9840</v>
+      <c r="D22" s="9">
+        <v>7540</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="3">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1419,13 +1424,13 @@
         <v>10000</v>
       </c>
       <c r="D23" s="2">
-        <v>9150</v>
+        <v>8780</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1441,7 +1446,7 @@
       <c r="C24" s="2">
         <v>10000</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="9">
         <v>10000</v>
       </c>
       <c r="F24" s="3"/>
@@ -1458,19 +1463,16 @@
         <v>10000</v>
       </c>
       <c r="D25" s="2">
-        <v>12200</v>
+        <v>12070</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3">
-        <v>80</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,19 +1550,16 @@
         <v>10000</v>
       </c>
       <c r="D30" s="2">
-        <v>10055</v>
+        <v>10340</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1574,10 +1573,20 @@
         <v>10000</v>
       </c>
       <c r="D31" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+        <v>10149</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>75</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1590,10 +1599,17 @@
         <v>10000</v>
       </c>
       <c r="D32" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+        <v>7600</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1606,10 +1622,20 @@
         <v>10000</v>
       </c>
       <c r="D33" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+        <v>11220</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1645,16 +1671,16 @@
         <v>10000</v>
       </c>
       <c r="D35" s="2">
-        <v>11020</v>
+        <v>10170</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F35" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G35" s="3">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,19 +1694,19 @@
         <v>10000</v>
       </c>
       <c r="D36" s="2">
-        <v>11297</v>
+        <v>12942</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1694,16 +1720,16 @@
         <v>10000</v>
       </c>
       <c r="D37" s="2">
-        <v>10048</v>
+        <v>10198</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F37" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1717,16 +1743,16 @@
         <v>10000</v>
       </c>
       <c r="D38" s="2">
-        <v>9360</v>
+        <v>13340</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F38" s="3">
         <v>4</v>
       </c>
       <c r="G38" s="3">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,16 +1782,16 @@
         <v>10000</v>
       </c>
       <c r="D40" s="2">
-        <v>9370</v>
+        <v>9770</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="3">
         <v>3</v>
       </c>
       <c r="G40" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,16 +1805,16 @@
         <v>10000</v>
       </c>
       <c r="D41" s="2">
-        <v>9006</v>
+        <v>9408</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3">
         <v>7</v>
       </c>
       <c r="G41" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1880,16 +1906,16 @@
         <v>10000</v>
       </c>
       <c r="D46" s="2">
-        <v>10045</v>
+        <v>9995</v>
       </c>
       <c r="E46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1903,10 +1929,10 @@
         <v>10000</v>
       </c>
       <c r="D47" s="2">
-        <v>11702</v>
+        <v>12522</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F47" s="3">
         <v>4</v>
@@ -2033,16 +2059,16 @@
         <v>10000</v>
       </c>
       <c r="D53" s="2">
-        <v>10040</v>
+        <v>10177</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F53" s="3">
         <v>5</v>
       </c>
       <c r="G53" s="3">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2072,16 +2098,16 @@
         <v>10000</v>
       </c>
       <c r="D55" s="2">
-        <v>9680</v>
+        <v>8680</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,16 +2121,16 @@
         <v>10000</v>
       </c>
       <c r="D56" s="2">
-        <v>10092</v>
+        <v>10552</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F56" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56" s="3">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2141,19 +2167,16 @@
         <v>10000</v>
       </c>
       <c r="D58" s="2">
-        <v>9590</v>
+        <v>8960</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F58" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G58" s="3">
-        <v>75</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,16 +2190,16 @@
         <v>10000</v>
       </c>
       <c r="D59" s="2">
-        <v>10232</v>
+        <v>11345</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2190,10 +2213,10 @@
         <v>10000</v>
       </c>
       <c r="D60" s="2">
-        <v>10810</v>
+        <v>11254</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2202,7 +2225,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2216,13 +2239,13 @@
         <v>10000</v>
       </c>
       <c r="D61" s="2">
-        <v>9067</v>
+        <v>8267</v>
       </c>
       <c r="E61">
         <v>4</v>
       </c>
       <c r="F61" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" s="3">
         <v>40</v>
@@ -2262,19 +2285,16 @@
         <v>10000</v>
       </c>
       <c r="D63" s="2">
-        <v>10975</v>
+        <v>10575</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" s="3">
-        <v>67</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2288,16 +2308,16 @@
         <v>10000</v>
       </c>
       <c r="D64" s="2">
-        <v>11540</v>
+        <v>10540</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2311,16 +2331,19 @@
         <v>10000</v>
       </c>
       <c r="D65" s="2">
-        <v>6900</v>
+        <v>9000</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
       </c>
       <c r="G65" s="3">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2334,19 +2357,16 @@
         <v>10000</v>
       </c>
       <c r="D66" s="2">
-        <v>11004</v>
+        <v>10104</v>
       </c>
       <c r="E66">
         <v>3</v>
       </c>
       <c r="F66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="3">
-        <v>75</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6DF6091-3D4F-4C1D-BD5E-5BC54D33551F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ECB060E-0E08-42DE-ABB1-571495C7A438}"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="240" windowWidth="13485" windowHeight="12735" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="135" yWindow="525" windowWidth="13485" windowHeight="12735" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Hassido</t>
+  </si>
+  <si>
+    <t>Revista Sharp</t>
   </si>
 </sst>
 </file>
@@ -549,8 +552,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H112" totalsRowShown="0">
-  <autoFilter ref="A1:H112" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H113" totalsRowShown="0">
+  <autoFilter ref="A1:H113" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="4"/>
@@ -893,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,8 +3286,12 @@
       <c r="A111" t="s">
         <v>121</v>
       </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="2">
+        <v>10000</v>
+      </c>
       <c r="D111" s="2"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -3293,11 +3300,29 @@
       <c r="A112" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="2">
+        <v>10000</v>
+      </c>
       <c r="D112" s="2"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9820F18A-667B-427B-8D34-B9E868EE0DC8}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B5B5EB-D408-480C-8908-2D965108B6CA}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="1815" yWindow="2130" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -520,11 +520,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -944,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -986,2842 +982,2744 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="C2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="C4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="5">
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>8</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>43</v>
       </c>
-      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>4</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>50</v>
       </c>
-      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="5">
         <v>11</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>69</v>
       </c>
-      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="C7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="C8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>16</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>24</v>
       </c>
-      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2">
         <v>6845</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>21</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>22</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>49</v>
       </c>
-      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="C10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
         <v>50</v>
       </c>
-      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2">
         <v>10072</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>60</v>
       </c>
-      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2">
         <v>7365</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>8</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="6">
         <v>43</v>
       </c>
-      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2">
         <v>12055</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
         <v>75</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6"/>
+      <c r="C14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2">
         <v>8577</v>
       </c>
-      <c r="E15" s="9">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
         <v>14</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <v>42</v>
       </c>
-      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2">
         <v>7300</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="1">
         <v>7</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <v>9</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="5">
         <v>44</v>
       </c>
-      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2">
         <v>12000</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>100</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D18" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
+      <c r="C18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2">
         <v>9217</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>5</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>38</v>
       </c>
-      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2">
         <v>9700</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <v>3</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2">
         <v>10281</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <v>3</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <v>70</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>106</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="C22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="8">
         <v>8623</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <v>21</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="5">
         <v>19</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="5">
         <v>53</v>
       </c>
-      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2">
         <v>10018</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>17</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <v>11</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="5">
         <v>61</v>
       </c>
-      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>117</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
+      <c r="C24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D25" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="2">
         <v>10600</v>
       </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
         <v>100</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2">
         <v>15400</v>
       </c>
-      <c r="E27" s="6">
-        <v>10</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <v>67</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D28" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
+      <c r="C28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="2">
         <v>13140</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <v>6</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
         <v>100</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="2">
         <v>10631</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="5">
         <v>2</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="5">
         <v>71</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D31" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
+      <c r="C31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="2">
         <v>1586</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32">
         <v>7</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="5">
         <v>15</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="5">
         <v>32</v>
       </c>
-      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>123</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D33" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="6"/>
+      <c r="C33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="2">
         <v>12480</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <v>16</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="5">
         <v>8</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="5">
         <v>67</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="2">
         <v>1804</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35">
         <v>9</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="5">
         <v>14</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="5">
         <v>35</v>
       </c>
-      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>124</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D36" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
+      <c r="C36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="2">
         <v>10610</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37">
         <v>3</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="5">
         <v>2</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="5">
         <v>60</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D38" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="6"/>
+      <c r="C38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="2">
         <v>11250</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="5">
         <v>2</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="5">
         <v>60</v>
       </c>
-      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="2">
         <v>9652</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>6</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="5">
         <v>6</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="5">
         <v>50</v>
       </c>
-      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="C41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="2">
         <v>11559</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <v>12</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="5">
         <v>4</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="5">
         <v>75</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>125</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="2">
         <v>8780</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="5">
         <v>3</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="C43" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="2">
         <v>7945</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43">
         <v>4</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="5">
         <v>5</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="5">
         <v>44</v>
       </c>
-      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D44" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="6"/>
+      <c r="C44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>126</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="C45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="2">
         <v>14040</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="5">
         <v>3</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="5">
         <v>73</v>
       </c>
-      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="C46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D46" s="2">
         <v>10120</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
         <v>67</v>
       </c>
-      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D47" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>127</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D48" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="6"/>
+      <c r="C48" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>32</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D49" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="6"/>
+      <c r="C49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="C50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="2">
         <v>8870</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50">
         <v>5</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="5">
         <v>6</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="5">
         <v>56</v>
       </c>
-      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D51" s="7">
+      <c r="C51" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D51" s="2">
         <v>7600</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="5">
         <v>2</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="5">
         <v>0</v>
       </c>
-      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="C52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="2">
         <v>13910</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="5">
         <v>11</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="5">
         <v>5</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="5">
         <v>69</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" t="s">
         <v>128</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D53" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E53" s="8">
-        <v>1</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8">
+      <c r="C53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
         <v>100</v>
       </c>
-      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" t="s">
         <v>129</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D54" s="7">
+      <c r="C54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D54" s="2">
         <v>11220</v>
       </c>
-      <c r="E54" s="8">
-        <v>1</v>
-      </c>
-      <c r="F54" s="8">
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
         <v>0</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="5">
         <v>100</v>
       </c>
-      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D55" s="7">
+      <c r="C55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2">
         <v>7000</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="5">
         <v>0</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="5">
         <v>3</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="5">
         <v>0</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D56" s="7">
+      <c r="C56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D56" s="2">
         <v>12995</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="5">
         <v>24</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="5">
         <v>16</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="5">
         <v>60</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" t="s">
         <v>37</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D57" s="7">
+      <c r="C57" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D57" s="2">
         <v>13142</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="5">
         <v>9</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="5">
         <v>3</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="5">
         <v>75</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" t="s">
         <v>38</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="C58" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D58" s="2">
         <v>10283</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="5">
         <v>22</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="5">
         <v>12</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="5">
         <v>65</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" t="s">
         <v>103</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D59" s="7">
+      <c r="C59" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D59" s="2">
         <v>5649</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="5">
         <v>23</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="5">
         <v>22</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="5">
         <v>51</v>
       </c>
-      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" t="s">
         <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D60" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+      <c r="C60" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D60" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D61" s="7">
+      <c r="C61" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D61" s="2">
         <v>9760</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="5">
         <v>7</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="5">
         <v>5</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="5">
         <v>58</v>
       </c>
-      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D62" s="7">
+      <c r="C62" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D62" s="2">
         <v>9806</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="5">
         <v>3</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="5">
         <v>7</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="5">
         <v>30</v>
       </c>
-      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" t="s">
         <v>130</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D63" s="7">
+      <c r="C63" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D63" s="2">
         <v>12065</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="5">
         <v>6</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="5">
         <v>2</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="5">
         <v>75</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" t="s">
         <v>99</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D64" s="7">
+      <c r="C64" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D64" s="2">
         <v>9743</v>
       </c>
-      <c r="E64" s="8">
-        <v>10</v>
-      </c>
-      <c r="F64" s="8">
-        <v>13</v>
-      </c>
-      <c r="G64" s="8">
+      <c r="E64" s="5">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5">
+        <v>13</v>
+      </c>
+      <c r="G64" s="5">
         <v>59</v>
       </c>
-      <c r="H64" s="8"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" t="s">
         <v>43</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="C65" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D65" s="2">
         <v>12320</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="5">
         <v>5</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="5">
         <v>2</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="5">
         <v>71</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" t="s">
         <v>44</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C66" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D66" s="2">
         <v>9940</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="5">
         <v>25</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="5">
         <v>18</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="5">
         <v>58</v>
       </c>
-      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" t="s">
         <v>45</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D67" s="7">
+      <c r="C67" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D67" s="2">
         <v>9957</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="5">
         <v>24</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="5">
         <v>18</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="5">
         <v>57</v>
       </c>
-      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" t="s">
         <v>46</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D68" s="7">
+      <c r="C68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D68" s="2">
         <v>11972</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="5">
         <v>15</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="5">
         <v>8</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="5">
         <v>65</v>
       </c>
-      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" t="s">
         <v>47</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D69" s="7">
+      <c r="C69" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D69" s="2">
         <v>11360</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="5">
         <v>2</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5">
         <v>100</v>
       </c>
-      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" t="s">
         <v>48</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D70" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="6"/>
+      <c r="C70" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D70" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" t="s">
         <v>49</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D71" s="7">
+      <c r="C71" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D71" s="2">
         <v>9290</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="5">
         <v>2</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="5">
         <v>2</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="5">
         <v>50</v>
       </c>
-      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" t="s">
         <v>50</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D72" s="7">
+      <c r="C72" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D72" s="2">
         <v>8800</v>
       </c>
-      <c r="E72" s="8">
-        <v>1</v>
-      </c>
-      <c r="F72" s="8">
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
         <v>2</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="5">
         <v>33</v>
       </c>
-      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" t="s">
         <v>51</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D73" s="7">
+      <c r="C73" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D73" s="2">
         <v>8986</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="5">
         <v>9</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="5">
         <v>7</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="5">
         <v>56</v>
       </c>
-      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" t="s">
         <v>52</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D74" s="7">
+      <c r="C74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D74" s="2">
         <v>10489</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="5">
         <v>14</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="5">
         <v>6</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="5">
         <v>70</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" t="s">
         <v>53</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D75" s="7">
+      <c r="C75" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D75" s="2">
         <v>10400</v>
       </c>
-      <c r="E75" s="8">
-        <v>1</v>
-      </c>
-      <c r="F75" s="8">
-        <v>1</v>
-      </c>
-      <c r="G75" s="8">
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5">
         <v>50</v>
       </c>
-      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" t="s">
         <v>54</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D76" s="7">
+      <c r="C76" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D76" s="2">
         <v>10170</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="5">
         <v>4</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="5">
         <v>3</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="5">
         <v>57</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" t="s">
         <v>55</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D77" s="7">
+      <c r="C77" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D77" s="2">
         <v>10306</v>
       </c>
-      <c r="E77" s="8">
-        <v>13</v>
-      </c>
-      <c r="F77" s="8">
+      <c r="E77" s="5">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5">
         <v>9</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="5">
         <v>59</v>
       </c>
-      <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" t="s">
         <v>57</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D78" s="7">
+      <c r="C78" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D78" s="2">
         <v>9297</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="5">
         <v>14</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="5">
         <v>7</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="5">
         <v>67</v>
       </c>
-      <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" t="s">
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D79" s="7">
+      <c r="C79" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D79" s="2">
         <v>8960</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="5">
         <v>7</v>
       </c>
-      <c r="F79" s="8">
-        <v>10</v>
-      </c>
-      <c r="G79" s="8">
+      <c r="F79" s="5">
+        <v>10</v>
+      </c>
+      <c r="G79" s="5">
         <v>38</v>
       </c>
-      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" t="s">
         <v>60</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D80" s="7">
+      <c r="C80" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D80" s="2">
         <v>11345</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="5">
         <v>11</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="5">
         <v>5</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="5">
         <v>69</v>
       </c>
-      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D81" s="7">
+      <c r="C81" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D81" s="2">
         <v>9773</v>
       </c>
-      <c r="E81" s="8">
-        <v>1</v>
-      </c>
-      <c r="F81" s="8">
+      <c r="E81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
         <v>2</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="5">
         <v>33</v>
       </c>
-      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D82" s="7">
+      <c r="B82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D82" s="2">
         <v>10100</v>
       </c>
-      <c r="E82" s="8">
-        <v>1</v>
-      </c>
-      <c r="F82" s="8">
-        <v>1</v>
-      </c>
-      <c r="G82" s="8">
+      <c r="E82" s="5">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5">
         <v>50</v>
       </c>
-      <c r="H82" s="11"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="B83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D83" s="2">
         <v>11240</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="5">
         <v>8</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="5">
         <v>3</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="5">
         <v>73</v>
       </c>
-      <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D84" s="7">
+      <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D84" s="2">
         <v>11180</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="5">
         <v>4</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="5">
         <v>4</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="5">
         <v>100</v>
       </c>
-      <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D85" s="7">
+      <c r="B85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D85" s="2">
         <v>13170</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="5">
         <v>4</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="5">
         <v>2</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="5">
         <v>67</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D86" s="7">
+      <c r="B86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D86" s="2">
         <v>8000</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="5">
         <v>2</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="5">
         <v>3</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="5">
         <v>40</v>
       </c>
-      <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D87" s="7">
+      <c r="B87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D87" s="2">
         <v>10104</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="5">
         <v>4</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="5">
         <v>2</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="5">
         <v>67</v>
       </c>
-      <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" t="s">
         <v>66</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D88" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="6"/>
+      <c r="B88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D88" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D89" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="6"/>
+      <c r="B89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D89" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D90" s="7">
+      <c r="B90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D90" s="2">
         <v>7200</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="5">
         <v>3</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F90" s="5">
         <v>5</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="5">
         <v>38</v>
       </c>
-      <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D91" s="7">
+      <c r="B91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D91" s="2">
         <v>16500</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="5">
         <v>3</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="5">
         <v>3</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="5">
         <v>50</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" t="s">
         <v>69</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D92" s="7">
+      <c r="B92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D92" s="2">
         <v>10789</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="5">
         <v>3</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="5">
         <v>2</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="5">
         <v>60</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D93" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="6"/>
+      <c r="B93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D93" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" t="s">
         <v>71</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D94" s="7">
+      <c r="B94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D94" s="2">
         <v>9560</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="5">
         <v>2</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="5">
         <v>2</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="5">
         <v>50</v>
       </c>
-      <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D95" s="7">
+      <c r="B95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D95" s="2">
         <v>10010</v>
       </c>
-      <c r="E95" s="8">
-        <v>1</v>
-      </c>
-      <c r="F95" s="8">
-        <v>1</v>
-      </c>
-      <c r="G95" s="8">
+      <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+      <c r="G95" s="5">
         <v>50</v>
       </c>
-      <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" t="s">
         <v>73</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D96" s="7">
+      <c r="B96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D96" s="2">
         <v>7460</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="5">
         <v>2</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="5">
         <v>3</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="5">
         <v>40</v>
       </c>
-      <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" t="s">
         <v>74</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D97" s="7">
+      <c r="B97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D97" s="2">
         <v>12900</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="5">
         <v>3</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5">
         <v>100</v>
       </c>
-      <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" t="s">
         <v>75</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D98" s="7">
+      <c r="B98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D98" s="2">
         <v>9000</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8">
-        <v>1</v>
-      </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="6"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <v>1</v>
+      </c>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" t="s">
         <v>76</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D99" s="7">
+      <c r="B99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D99" s="2">
         <v>10352</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="5">
         <v>9</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F99" s="5">
         <v>5</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99" s="5">
         <v>64</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D100" s="7">
+      <c r="B100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D100" s="2">
         <v>9165</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="5">
         <v>9</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="5">
         <v>9</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="5">
         <v>50</v>
       </c>
-      <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" t="s">
         <v>78</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D101" s="7">
+      <c r="B101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D101" s="2">
         <v>11000</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="5">
         <v>2</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8">
+      <c r="F101" s="5"/>
+      <c r="G101" s="5">
         <v>100</v>
       </c>
-      <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D102" s="7">
+      <c r="B102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D102" s="2">
         <v>10600</v>
       </c>
-      <c r="E102" s="8">
-        <v>1</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8">
+      <c r="E102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5">
         <v>100</v>
       </c>
-      <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D103" s="7">
+      <c r="B103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D103" s="2">
         <v>10250</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="5">
         <v>2</v>
       </c>
-      <c r="F103" s="8">
-        <v>1</v>
-      </c>
-      <c r="G103" s="8">
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5">
         <v>67</v>
       </c>
-      <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D104" s="7">
+      <c r="B104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D104" s="2">
         <v>13238</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="5">
         <v>11</v>
       </c>
-      <c r="F104" s="8">
+      <c r="F104" s="5">
         <v>4</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="5">
         <v>73</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" t="s">
         <v>80</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D105" s="7">
+      <c r="B105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D105" s="2">
         <v>4330</v>
       </c>
-      <c r="E105" s="8">
-        <v>1</v>
-      </c>
-      <c r="F105" s="8">
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
         <v>4</v>
       </c>
-      <c r="G105" s="8">
+      <c r="G105" s="5">
         <v>20</v>
       </c>
-      <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="A106" t="s">
         <v>81</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D106" s="7">
+      <c r="B106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D106" s="2">
         <v>6790</v>
       </c>
-      <c r="E106" s="8">
-        <v>1</v>
-      </c>
-      <c r="F106" s="8">
+      <c r="E106" s="5">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5">
         <v>4</v>
       </c>
-      <c r="G106" s="8">
+      <c r="G106" s="5">
         <v>20</v>
       </c>
-      <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D107" s="7">
+      <c r="B107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D107" s="2">
         <v>8670</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="5">
         <v>3</v>
       </c>
-      <c r="F107" s="8">
+      <c r="F107" s="5">
         <v>4</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="5">
         <v>43</v>
       </c>
-      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" t="s">
         <v>83</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D108" s="7">
+      <c r="B108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D108" s="2">
         <v>11350</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E108" s="5">
         <v>4</v>
       </c>
-      <c r="F108" s="8">
-        <v>1</v>
-      </c>
-      <c r="G108" s="8">
+      <c r="F108" s="5">
+        <v>1</v>
+      </c>
+      <c r="G108" s="5">
         <v>80</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H108">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="A109" t="s">
         <v>84</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D109" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="6"/>
+      <c r="B109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D109" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="A110" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D110" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="6"/>
+      <c r="B110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D110" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="A111" t="s">
         <v>86</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D111" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="6"/>
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D111" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="A112" t="s">
         <v>87</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D112" s="7">
+      <c r="B112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D112" s="2">
         <v>9500</v>
       </c>
-      <c r="E112" s="8">
-        <v>1</v>
-      </c>
-      <c r="F112" s="8">
-        <v>1</v>
-      </c>
-      <c r="G112" s="8">
+      <c r="E112" s="5">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
+      <c r="G112" s="5">
         <v>50</v>
       </c>
-      <c r="H112" s="6">
+      <c r="H112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D113" s="7">
+      <c r="B113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D113" s="2">
         <v>8820</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="5">
         <v>5</v>
       </c>
-      <c r="F113" s="8">
+      <c r="F113" s="5">
         <v>5</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="5">
         <v>50</v>
       </c>
-      <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" t="s">
         <v>89</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D114" s="7">
+      <c r="B114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D114" s="2">
         <v>9000</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="6"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="A115" t="s">
         <v>90</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D115" s="7">
+      <c r="B115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D115" s="2">
         <v>9980</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="5">
         <v>3</v>
       </c>
-      <c r="F115" s="8">
+      <c r="F115" s="5">
         <v>2</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G115" s="5">
         <v>60</v>
       </c>
-      <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="A116" t="s">
         <v>91</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D116" s="7">
+      <c r="B116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D116" s="2">
         <v>7370</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="5">
         <v>2</v>
       </c>
-      <c r="F116" s="8">
+      <c r="F116" s="5">
         <v>6</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="5">
         <v>25</v>
       </c>
-      <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="A117" t="s">
         <v>92</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D117" s="7">
+      <c r="B117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D117" s="2">
         <v>5670</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="5">
         <v>2</v>
       </c>
-      <c r="F117" s="8">
+      <c r="F117" s="5">
         <v>6</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="5">
         <v>25</v>
       </c>
-      <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" t="s">
         <v>93</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D118" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="11"/>
+      <c r="B118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D118" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" t="s">
         <v>94</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D119" s="7">
+      <c r="B119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D119" s="2">
         <v>11270</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E119" s="5">
         <v>2</v>
       </c>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8">
+      <c r="F119" s="5"/>
+      <c r="G119" s="5">
         <v>100</v>
       </c>
-      <c r="H119" s="6">
+      <c r="H119">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D120" s="7">
+      <c r="B120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D120" s="2">
         <v>9910</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E120" s="5">
         <v>2</v>
       </c>
-      <c r="F120" s="8">
+      <c r="F120" s="5">
         <v>2</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120" s="5">
         <v>50</v>
       </c>
-      <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="A121" t="s">
         <v>104</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D121" s="7">
+      <c r="B121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D121" s="2">
         <v>9110</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="5">
         <v>5</v>
       </c>
-      <c r="F121" s="8">
+      <c r="F121" s="5">
         <v>2</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="5">
         <v>3</v>
       </c>
-      <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+      <c r="A122" t="s">
         <v>133</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D122" s="7">
+      <c r="B122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D122" s="2">
         <v>10070</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E122" s="5">
         <v>5</v>
       </c>
-      <c r="F122" s="8">
+      <c r="F122" s="5">
         <v>3</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="5">
         <v>63</v>
       </c>
-      <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+      <c r="A123" t="s">
         <v>134</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D123" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="6"/>
+      <c r="B123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D123" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+      <c r="A124" t="s">
         <v>135</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D124" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="11"/>
+      <c r="B124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D124" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" t="s">
         <v>136</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D125" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
+      <c r="B125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D125" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3835,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930ADA1-3FB7-43B9-8124-A0626A05BB44}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,11 +3776,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="14">
-        <v>1002116542537</v>
+      <c r="B5" s="10">
+        <v>-1002116542537</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B5B5EB-D408-480C-8908-2D965108B6CA}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0726139-D637-491F-B448-203C29F25982}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="2130" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="1815" yWindow="2130" windowWidth="16515" windowHeight="12345" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Los Rey APP</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -598,12 +620,12 @@
   <autoFilter ref="A1:H125" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
-    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
     <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -611,11 +633,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}" name="Tabla3" displayName="Tabla3" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}" name="Tabla3" displayName="Tabla3" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{346C6369-3CA9-4479-A4F6-C3213A94BE47}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -940,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3731,16 +3754,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930ADA1-3FB7-43B9-8124-A0626A05BB44}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,12 +3774,18 @@
       <c r="B1" t="s">
         <v>96</v>
       </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4">
+        <v>-1002002230427</v>
+      </c>
+      <c r="C2" s="4">
         <v>-1002297812775</v>
       </c>
     </row>
@@ -3764,6 +3794,9 @@
         <v>11</v>
       </c>
       <c r="B3" s="4">
+        <v>-1001956367839</v>
+      </c>
+      <c r="C3" s="4">
         <v>-1002475543778</v>
       </c>
     </row>
@@ -3772,6 +3805,9 @@
         <v>13</v>
       </c>
       <c r="B4" s="4">
+        <v>-1002139886828</v>
+      </c>
+      <c r="C4" s="4">
         <v>-1002359449640</v>
       </c>
     </row>
@@ -3782,15 +3818,24 @@
       <c r="B5" s="10">
         <v>-1002116542537</v>
       </c>
+      <c r="C5" s="10">
+        <v>-1002116542537</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="4">
+        <v>-1002054332150</v>
+      </c>
+      <c r="C6" s="4">
         <v>-1002469182222</v>
       </c>
       <c r="F6" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0726139-D637-491F-B448-203C29F25982}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D05AC6-9332-4A4F-B331-58D791881B11}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="2130" windowWidth="16515" windowHeight="12345" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="11835" yWindow="2325" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Columna1</t>
+  </si>
+  <si>
+    <t>Verdeando</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,54 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -568,34 +618,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
   </dxfs>
@@ -611,21 +633,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H125" totalsRowShown="0">
-  <autoFilter ref="A1:H125" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H126" totalsRowShown="0">
+  <autoFilter ref="A1:H126" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
-    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="0" dataCellStyle="Porcentaje"/>
     <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -637,8 +655,8 @@
   <autoFilter ref="A1:C6" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{346C6369-3CA9-4479-A4F6-C3213A94BE47}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -961,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,10 +1097,10 @@
         <v>10000</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5">
         <v>50</v>
@@ -1105,10 +1123,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1168,16 +1186,16 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2">
-        <v>6845</v>
+        <v>4700</v>
       </c>
       <c r="E9" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,13 +1209,13 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2">
-        <v>10000</v>
+        <v>9450</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="5">
         <v>50</v>
@@ -1237,16 +1255,16 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2">
-        <v>7365</v>
+        <v>8402</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,19 +1278,16 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2">
-        <v>12055</v>
+        <v>9295</v>
       </c>
       <c r="E13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6">
-        <v>75</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1303,16 +1318,16 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2">
-        <v>8577</v>
+        <v>8377</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
       <c r="F15" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,16 +1341,16 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2">
-        <v>7300</v>
+        <v>8790</v>
       </c>
       <c r="E16" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,16 +1404,16 @@
         <v>10000</v>
       </c>
       <c r="D19" s="2">
-        <v>9217</v>
+        <v>8563</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G19" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,10 +1427,10 @@
         <v>10000</v>
       </c>
       <c r="D20" s="2">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="F20" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -1456,16 +1471,19 @@
         <v>10000</v>
       </c>
       <c r="D22" s="8">
-        <v>8623</v>
+        <v>8973</v>
       </c>
       <c r="E22" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F22" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" s="5">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,16 +1497,19 @@
         <v>10000</v>
       </c>
       <c r="D23" s="2">
-        <v>10018</v>
+        <v>13028</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F23" s="5">
         <v>11</v>
       </c>
       <c r="G23" s="5">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1603,17 +1624,19 @@
         <v>10000</v>
       </c>
       <c r="D29" s="2">
-        <v>13140</v>
+        <v>11880</v>
       </c>
       <c r="E29" s="5">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
       <c r="G29" s="5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,16 +1693,16 @@
         <v>10000</v>
       </c>
       <c r="D32" s="2">
-        <v>1586</v>
+        <v>3274</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="5">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1710,19 +1733,19 @@
         <v>10000</v>
       </c>
       <c r="D34" s="2">
-        <v>12480</v>
+        <v>13840</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" s="5">
         <v>8</v>
       </c>
       <c r="G34" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1736,16 +1759,16 @@
         <v>10000</v>
       </c>
       <c r="D35" s="2">
-        <v>1804</v>
+        <v>2298</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="5">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1759,11 +1782,17 @@
         <v>10000</v>
       </c>
       <c r="D36" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+        <v>8200</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>33</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1776,19 +1805,19 @@
         <v>10000</v>
       </c>
       <c r="D37" s="2">
-        <v>10610</v>
+        <v>11149</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" s="5">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,16 +1870,16 @@
         <v>10000</v>
       </c>
       <c r="D40" s="2">
-        <v>9652</v>
+        <v>9638</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="5">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1864,19 +1893,16 @@
         <v>10000</v>
       </c>
       <c r="D41" s="2">
-        <v>11559</v>
+        <v>11259</v>
       </c>
       <c r="E41">
         <v>12</v>
       </c>
       <c r="F41" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="5">
-        <v>75</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1950,16 +1976,16 @@
         <v>10000</v>
       </c>
       <c r="D45" s="2">
-        <v>14040</v>
+        <v>13730</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="5">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1973,16 +1999,16 @@
         <v>10000</v>
       </c>
       <c r="D46" s="2">
-        <v>10120</v>
+        <v>9920</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="5">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2067,16 +2093,16 @@
         <v>10000</v>
       </c>
       <c r="D51" s="2">
-        <v>7600</v>
+        <v>9375</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="5">
         <v>2</v>
       </c>
       <c r="G51" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2090,19 +2116,16 @@
         <v>10000</v>
       </c>
       <c r="D52" s="2">
-        <v>13910</v>
+        <v>10910</v>
       </c>
       <c r="E52" s="5">
         <v>11</v>
       </c>
       <c r="F52" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G52" s="5">
-        <v>69</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2186,19 +2209,19 @@
         <v>10000</v>
       </c>
       <c r="D56" s="2">
-        <v>12995</v>
+        <v>14295</v>
       </c>
       <c r="E56" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F56" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G56" s="5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2212,19 +2235,19 @@
         <v>10000</v>
       </c>
       <c r="D57" s="2">
-        <v>13142</v>
+        <v>13762</v>
       </c>
       <c r="E57" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F57" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" s="5">
         <v>75</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2238,19 +2261,19 @@
         <v>10000</v>
       </c>
       <c r="D58" s="2">
-        <v>10283</v>
+        <v>10336</v>
       </c>
       <c r="E58" s="5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F58" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G58" s="5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2264,16 +2287,19 @@
         <v>10000</v>
       </c>
       <c r="D59" s="2">
-        <v>5649</v>
+        <v>7664</v>
       </c>
       <c r="E59" s="5">
+        <v>27</v>
+      </c>
+      <c r="F59" s="5">
         <v>23</v>
       </c>
-      <c r="F59" s="5">
-        <v>22</v>
-      </c>
       <c r="G59" s="5">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2305,16 +2331,16 @@
         <v>10000</v>
       </c>
       <c r="D61" s="2">
-        <v>9760</v>
+        <v>7700</v>
       </c>
       <c r="E61" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F61" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G61" s="5">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2328,16 +2354,16 @@
         <v>10000</v>
       </c>
       <c r="D62" s="2">
-        <v>9806</v>
+        <v>8912</v>
       </c>
       <c r="E62" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G62" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2351,19 +2377,16 @@
         <v>10000</v>
       </c>
       <c r="D63" s="2">
-        <v>12065</v>
+        <v>11415</v>
       </c>
       <c r="E63" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F63" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G63" s="5">
-        <v>75</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2377,16 +2400,16 @@
         <v>10000</v>
       </c>
       <c r="D64" s="2">
-        <v>9743</v>
+        <v>8528</v>
       </c>
       <c r="E64" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G64" s="5">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H64" s="5"/>
     </row>
@@ -2407,13 +2430,10 @@
         <v>5</v>
       </c>
       <c r="F65" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="5">
-        <v>71</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,16 +2447,16 @@
         <v>10000</v>
       </c>
       <c r="D66" s="2">
-        <v>9940</v>
+        <v>9683</v>
       </c>
       <c r="E66" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F66" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G66" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,16 +2493,16 @@
         <v>10000</v>
       </c>
       <c r="D68" s="2">
-        <v>11972</v>
+        <v>12382</v>
       </c>
       <c r="E68" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F68" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" s="5">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2534,16 +2554,19 @@
         <v>10000</v>
       </c>
       <c r="D71" s="2">
-        <v>9290</v>
+        <v>9990</v>
       </c>
       <c r="E71" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="5">
         <v>2</v>
       </c>
       <c r="G71" s="5">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2580,16 +2603,16 @@
         <v>10000</v>
       </c>
       <c r="D73" s="2">
-        <v>8986</v>
+        <v>7280</v>
       </c>
       <c r="E73" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G73" s="5">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2603,19 +2626,19 @@
         <v>10000</v>
       </c>
       <c r="D74" s="2">
-        <v>10489</v>
+        <v>10545</v>
       </c>
       <c r="E74" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F74" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G74" s="5">
         <v>70</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,19 +2675,16 @@
         <v>10000</v>
       </c>
       <c r="D76" s="2">
-        <v>10170</v>
+        <v>9170</v>
       </c>
       <c r="E76" s="5">
         <v>4</v>
       </c>
       <c r="F76" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76" s="5">
-        <v>57</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,16 +2698,16 @@
         <v>10000</v>
       </c>
       <c r="D77" s="2">
-        <v>10306</v>
+        <v>9706</v>
       </c>
       <c r="E77" s="5">
         <v>13</v>
       </c>
       <c r="F77" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G77" s="5">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2701,16 +2721,16 @@
         <v>10000</v>
       </c>
       <c r="D78" s="2">
-        <v>9297</v>
+        <v>9757</v>
       </c>
       <c r="E78" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F78" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G78" s="5">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2724,16 +2744,16 @@
         <v>10000</v>
       </c>
       <c r="D79" s="2">
-        <v>8960</v>
+        <v>9761</v>
       </c>
       <c r="E79" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F79" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G79" s="5">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,16 +2767,16 @@
         <v>10000</v>
       </c>
       <c r="D80" s="2">
-        <v>11345</v>
+        <v>9284</v>
       </c>
       <c r="E80" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F80" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G80" s="5">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,13 +2813,13 @@
         <v>10000</v>
       </c>
       <c r="D82" s="2">
-        <v>10100</v>
+        <v>9725</v>
       </c>
       <c r="E82" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" s="5">
         <v>50</v>
@@ -2840,16 +2860,16 @@
         <v>10000</v>
       </c>
       <c r="D84" s="2">
-        <v>11180</v>
+        <v>10680</v>
       </c>
       <c r="E84" s="5">
         <v>4</v>
       </c>
       <c r="F84" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G84" s="5">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2863,19 +2883,19 @@
         <v>10000</v>
       </c>
       <c r="D85" s="2">
-        <v>13170</v>
+        <v>14170</v>
       </c>
       <c r="E85" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F85" s="5">
         <v>2</v>
       </c>
       <c r="G85" s="5">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H85" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2912,16 +2932,16 @@
         <v>10000</v>
       </c>
       <c r="D87" s="2">
-        <v>10104</v>
+        <v>9832</v>
       </c>
       <c r="E87" s="5">
         <v>4</v>
       </c>
       <c r="F87" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="5">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,16 +2989,16 @@
         <v>10000</v>
       </c>
       <c r="D90" s="2">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="E90" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" s="5">
         <v>5</v>
       </c>
       <c r="G90" s="5">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,19 +3012,19 @@
         <v>10000</v>
       </c>
       <c r="D91" s="2">
-        <v>16500</v>
+        <v>21250</v>
       </c>
       <c r="E91" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" s="5">
         <v>3</v>
       </c>
       <c r="G91" s="5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3130,15 +3150,18 @@
         <v>10000</v>
       </c>
       <c r="D97" s="2">
-        <v>12900</v>
+        <v>13620</v>
       </c>
       <c r="E97" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5">
         <v>100</v>
       </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -3151,7 +3174,7 @@
         <v>10000</v>
       </c>
       <c r="D98" s="2">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5">
@@ -3170,19 +3193,19 @@
         <v>10000</v>
       </c>
       <c r="D99" s="2">
-        <v>10352</v>
+        <v>10846</v>
       </c>
       <c r="E99" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F99" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G99" s="5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3210,7 +3233,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>13</v>
@@ -3218,20 +3241,14 @@
       <c r="C101" s="2">
         <v>10000</v>
       </c>
-      <c r="D101" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E101" s="5">
-        <v>2</v>
-      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="5">
-        <v>100</v>
-      </c>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>13</v>
@@ -3240,10 +3257,10 @@
         <v>10000</v>
       </c>
       <c r="D102" s="2">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="E102" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5">
@@ -3252,7 +3269,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>13</v>
@@ -3261,21 +3278,19 @@
         <v>10000</v>
       </c>
       <c r="D103" s="2">
-        <v>10250</v>
+        <v>10600</v>
       </c>
       <c r="E103" s="5">
-        <v>2</v>
-      </c>
-      <c r="F103" s="5">
         <v>1</v>
       </c>
+      <c r="F103" s="5"/>
       <c r="G103" s="5">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>13</v>
@@ -3284,24 +3299,21 @@
         <v>10000</v>
       </c>
       <c r="D104" s="2">
-        <v>13238</v>
+        <v>10210</v>
       </c>
       <c r="E104" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F104" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G104" s="5">
-        <v>73</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>13</v>
@@ -3310,21 +3322,21 @@
         <v>10000</v>
       </c>
       <c r="D105" s="2">
-        <v>4330</v>
+        <v>13418</v>
       </c>
       <c r="E105" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F105" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G105" s="5">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>13</v>
@@ -3333,7 +3345,7 @@
         <v>10000</v>
       </c>
       <c r="D106" s="2">
-        <v>6790</v>
+        <v>4330</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
@@ -3347,7 +3359,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>13</v>
@@ -3356,21 +3368,21 @@
         <v>10000</v>
       </c>
       <c r="D107" s="2">
-        <v>8670</v>
+        <v>6790</v>
       </c>
       <c r="E107" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107" s="5">
         <v>4</v>
       </c>
       <c r="G107" s="5">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
@@ -3379,24 +3391,24 @@
         <v>10000</v>
       </c>
       <c r="D108" s="2">
-        <v>11350</v>
+        <v>9540</v>
       </c>
       <c r="E108" s="5">
         <v>4</v>
       </c>
       <c r="F108" s="5">
+        <v>4</v>
+      </c>
+      <c r="G108" s="5">
+        <v>50</v>
+      </c>
+      <c r="H108">
         <v>1</v>
-      </c>
-      <c r="G108" s="5">
-        <v>80</v>
-      </c>
-      <c r="H108">
-        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>13</v>
@@ -3405,15 +3417,24 @@
         <v>10000</v>
       </c>
       <c r="D109" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
+        <v>11350</v>
+      </c>
+      <c r="E109" s="5">
+        <v>4</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+      <c r="G109" s="5">
+        <v>80</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>13</v>
@@ -3430,7 +3451,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>13</v>
@@ -3447,7 +3468,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>13</v>
@@ -3456,24 +3477,15 @@
         <v>10000</v>
       </c>
       <c r="D112" s="2">
-        <v>9500</v>
-      </c>
-      <c r="E112" s="5">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5">
-        <v>1</v>
-      </c>
-      <c r="G112" s="5">
-        <v>50</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>13</v>
@@ -3482,21 +3494,24 @@
         <v>10000</v>
       </c>
       <c r="D113" s="2">
-        <v>8820</v>
+        <v>9500</v>
       </c>
       <c r="E113" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F113" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G113" s="5">
         <v>50</v>
       </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>13</v>
@@ -3505,15 +3520,21 @@
         <v>10000</v>
       </c>
       <c r="D114" s="2">
-        <v>9000</v>
-      </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
+        <v>8820</v>
+      </c>
+      <c r="E114" s="5">
+        <v>5</v>
+      </c>
+      <c r="F114" s="5">
+        <v>5</v>
+      </c>
+      <c r="G114" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>13</v>
@@ -3522,21 +3543,15 @@
         <v>10000</v>
       </c>
       <c r="D115" s="2">
-        <v>9980</v>
-      </c>
-      <c r="E115" s="5">
-        <v>3</v>
-      </c>
-      <c r="F115" s="5">
-        <v>2</v>
-      </c>
-      <c r="G115" s="5">
-        <v>60</v>
-      </c>
+        <v>9000</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>13</v>
@@ -3545,21 +3560,21 @@
         <v>10000</v>
       </c>
       <c r="D116" s="2">
-        <v>7370</v>
+        <v>9980</v>
       </c>
       <c r="E116" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G116" s="5">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>13</v>
@@ -3568,7 +3583,7 @@
         <v>10000</v>
       </c>
       <c r="D117" s="2">
-        <v>5670</v>
+        <v>7370</v>
       </c>
       <c r="E117" s="5">
         <v>2</v>
@@ -3582,7 +3597,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>13</v>
@@ -3591,16 +3606,21 @@
         <v>10000</v>
       </c>
       <c r="D118" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="7"/>
+        <v>5670</v>
+      </c>
+      <c r="E118" s="5">
+        <v>2</v>
+      </c>
+      <c r="F118" s="5">
+        <v>6</v>
+      </c>
+      <c r="G118" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>13</v>
@@ -3609,22 +3629,16 @@
         <v>10000</v>
       </c>
       <c r="D119" s="2">
-        <v>11270</v>
-      </c>
-      <c r="E119" s="5">
-        <v>2</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="5">
-        <v>100</v>
-      </c>
-      <c r="H119">
-        <v>2</v>
-      </c>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>13</v>
@@ -3633,21 +3647,22 @@
         <v>10000</v>
       </c>
       <c r="D120" s="2">
-        <v>9910</v>
+        <v>11270</v>
       </c>
       <c r="E120" s="5">
         <v>2</v>
       </c>
-      <c r="F120" s="5">
-        <v>2</v>
-      </c>
+      <c r="F120" s="5"/>
       <c r="G120" s="5">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>13</v>
@@ -3656,21 +3671,21 @@
         <v>10000</v>
       </c>
       <c r="D121" s="2">
-        <v>9110</v>
+        <v>9910</v>
       </c>
       <c r="E121" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F121" s="5">
         <v>2</v>
       </c>
       <c r="G121" s="5">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>13</v>
@@ -3679,21 +3694,21 @@
         <v>10000</v>
       </c>
       <c r="D122" s="2">
-        <v>10070</v>
+        <v>9110</v>
       </c>
       <c r="E122" s="5">
         <v>5</v>
       </c>
       <c r="F122" s="5">
+        <v>2</v>
+      </c>
+      <c r="G122" s="5">
         <v>3</v>
-      </c>
-      <c r="G122" s="5">
-        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>13</v>
@@ -3702,15 +3717,21 @@
         <v>10000</v>
       </c>
       <c r="D123" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
+        <v>10070</v>
+      </c>
+      <c r="E123" s="5">
+        <v>5</v>
+      </c>
+      <c r="F123" s="5">
+        <v>3</v>
+      </c>
+      <c r="G123" s="5">
+        <v>63</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>13</v>
@@ -3724,11 +3745,10 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
-      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>13</v>
@@ -3742,7 +3762,25 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D126" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3756,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F930ADA1-3FB7-43B9-8124-A0626A05BB44}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D05AC6-9332-4A4F-B331-58D791881B11}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A74A336-EF0A-4D1E-A4B2-8394BFD43799}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="2325" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -456,7 +456,10 @@
     <t>Columna1</t>
   </si>
   <si>
-    <t>Verdeando</t>
+    <t>Ruben Picks</t>
+  </si>
+  <si>
+    <t>Verdeando Club</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -529,15 +532,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -586,6 +609,9 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -617,9 +643,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -633,18 +656,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H126" totalsRowShown="0">
-  <autoFilter ref="A1:H126" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H127" totalsRowShown="0">
+  <autoFilter ref="A1:H127" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
-    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="1" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="0" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha"/>
+    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="0" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,8 +682,8 @@
   <autoFilter ref="A1:C6" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{346C6369-3CA9-4479-A4F6-C3213A94BE47}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,10 +1104,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1100,10 +1127,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1120,13 +1147,16 @@
         <v>10000</v>
       </c>
       <c r="E6" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5">
         <v>6</v>
       </c>
       <c r="G6" s="5">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,16 +1216,19 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2">
-        <v>4700</v>
+        <v>8675</v>
       </c>
       <c r="E9" s="5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5">
         <v>28</v>
       </c>
       <c r="G9" s="5">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,16 +1242,16 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2">
-        <v>9450</v>
+        <v>8450</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,16 +1288,16 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2">
-        <v>8402</v>
+        <v>9434</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5">
         <v>11</v>
       </c>
       <c r="G12" s="6">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1278,16 +1311,19 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2">
-        <v>9295</v>
+        <v>10447</v>
       </c>
       <c r="E13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
       </c>
       <c r="G13" s="6">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1318,16 +1354,16 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2">
-        <v>8377</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
+        <v>7947</v>
+      </c>
+      <c r="E15" s="11">
+        <v>11</v>
       </c>
       <c r="F15" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G15" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1341,16 +1377,19 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2">
-        <v>8790</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9</v>
+        <v>9803</v>
+      </c>
+      <c r="E16" s="11">
+        <v>10</v>
       </c>
       <c r="F16" s="5">
         <v>10</v>
       </c>
       <c r="G16" s="5">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,16 +1443,16 @@
         <v>10000</v>
       </c>
       <c r="D19" s="2">
-        <v>8563</v>
+        <v>8512</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,12 +1466,12 @@
         <v>10000</v>
       </c>
       <c r="D20" s="2">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F20" s="5">
-        <v>5</v>
-      </c>
-      <c r="G20" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1445,19 +1484,19 @@
         <v>10000</v>
       </c>
       <c r="D21" s="2">
-        <v>10281</v>
+        <v>11627</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,7 +1509,7 @@
       <c r="C22" s="2">
         <v>10000</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <v>8973</v>
       </c>
       <c r="E22" s="5">
@@ -1497,19 +1536,19 @@
         <v>10000</v>
       </c>
       <c r="D23" s="2">
-        <v>13028</v>
+        <v>15207</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1624,19 +1663,16 @@
         <v>10000</v>
       </c>
       <c r="D29" s="2">
-        <v>11880</v>
+        <v>10250</v>
       </c>
       <c r="E29" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G29" s="5">
-        <v>75</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1650,19 +1686,16 @@
         <v>10000</v>
       </c>
       <c r="D30" s="2">
-        <v>10631</v>
+        <v>10431</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="5">
-        <v>71</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,16 +1726,16 @@
         <v>10000</v>
       </c>
       <c r="D32" s="2">
-        <v>3274</v>
+        <v>4220</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1716,11 +1749,17 @@
         <v>10000</v>
       </c>
       <c r="D33" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+        <v>8000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1759,16 +1798,16 @@
         <v>10000</v>
       </c>
       <c r="D35" s="2">
-        <v>2298</v>
+        <v>1976</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="F35" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" s="5">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1870,16 +1909,16 @@
         <v>10000</v>
       </c>
       <c r="D40" s="2">
-        <v>9638</v>
+        <v>9488</v>
       </c>
       <c r="E40">
         <v>8</v>
       </c>
       <c r="F40" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="5">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,16 +1932,19 @@
         <v>10000</v>
       </c>
       <c r="D41" s="2">
-        <v>11259</v>
+        <v>11948</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F41" s="5">
         <v>5</v>
       </c>
       <c r="G41" s="5">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1916,13 +1958,13 @@
         <v>10000</v>
       </c>
       <c r="D42" s="2">
-        <v>8780</v>
+        <v>8500</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -2070,16 +2112,19 @@
         <v>10000</v>
       </c>
       <c r="D50" s="2">
-        <v>8870</v>
+        <v>9233</v>
       </c>
       <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5">
         <v>5</v>
       </c>
-      <c r="F50" s="5">
-        <v>6</v>
-      </c>
       <c r="G50" s="5">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,16 +2161,16 @@
         <v>10000</v>
       </c>
       <c r="D52" s="2">
-        <v>10910</v>
+        <v>8910</v>
       </c>
       <c r="E52" s="5">
         <v>11</v>
       </c>
       <c r="F52" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="5">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2209,19 +2254,16 @@
         <v>10000</v>
       </c>
       <c r="D56" s="2">
-        <v>14295</v>
+        <v>13762</v>
       </c>
       <c r="E56" s="5">
         <v>28</v>
       </c>
       <c r="F56" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" s="5">
-        <v>62</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2261,19 +2303,19 @@
         <v>10000</v>
       </c>
       <c r="D58" s="2">
-        <v>10336</v>
+        <v>10597</v>
       </c>
       <c r="E58" s="5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F58" s="5">
         <v>15</v>
       </c>
       <c r="G58" s="5">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2287,19 +2329,16 @@
         <v>10000</v>
       </c>
       <c r="D59" s="2">
-        <v>7664</v>
+        <v>7844</v>
       </c>
       <c r="E59" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F59" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G59" s="5">
         <v>54</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2331,16 +2370,16 @@
         <v>10000</v>
       </c>
       <c r="D61" s="2">
-        <v>7700</v>
+        <v>8875</v>
       </c>
       <c r="E61" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" s="5">
         <v>10</v>
       </c>
       <c r="G61" s="5">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2354,16 +2393,16 @@
         <v>10000</v>
       </c>
       <c r="D62" s="2">
-        <v>8912</v>
+        <v>8488</v>
       </c>
       <c r="E62" s="5">
         <v>4</v>
       </c>
       <c r="F62" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2377,16 +2416,16 @@
         <v>10000</v>
       </c>
       <c r="D63" s="2">
-        <v>11415</v>
+        <v>10915</v>
       </c>
       <c r="E63" s="5">
         <v>8</v>
       </c>
       <c r="F63" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" s="5">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2400,18 +2439,20 @@
         <v>10000</v>
       </c>
       <c r="D64" s="2">
-        <v>8528</v>
+        <v>8883</v>
       </c>
       <c r="E64" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" s="5">
         <v>16</v>
       </c>
       <c r="G64" s="5">
-        <v>41</v>
-      </c>
-      <c r="H64" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2424,16 +2465,16 @@
         <v>10000</v>
       </c>
       <c r="D65" s="2">
-        <v>12320</v>
+        <v>10320</v>
       </c>
       <c r="E65" s="5">
         <v>5</v>
       </c>
       <c r="F65" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" s="5">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,16 +2488,16 @@
         <v>10000</v>
       </c>
       <c r="D66" s="2">
-        <v>9683</v>
+        <v>9459</v>
       </c>
       <c r="E66" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66" s="5">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G66" s="5">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2470,16 +2511,16 @@
         <v>10000</v>
       </c>
       <c r="D67" s="2">
-        <v>9957</v>
+        <v>10058</v>
       </c>
       <c r="E67" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F67" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G67" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2493,16 +2534,16 @@
         <v>10000</v>
       </c>
       <c r="D68" s="2">
-        <v>12382</v>
+        <v>115820</v>
       </c>
       <c r="E68" s="5">
         <v>18</v>
       </c>
       <c r="F68" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G68" s="5">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2554,19 +2595,16 @@
         <v>10000</v>
       </c>
       <c r="D71" s="2">
-        <v>9990</v>
+        <v>8990</v>
       </c>
       <c r="E71" s="5">
         <v>3</v>
       </c>
       <c r="F71" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="5">
-        <v>60</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2580,16 +2618,16 @@
         <v>10000</v>
       </c>
       <c r="D72" s="2">
-        <v>8800</v>
+        <v>7800</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
       <c r="F72" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" s="5">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2603,16 +2641,16 @@
         <v>10000</v>
       </c>
       <c r="D73" s="2">
-        <v>7280</v>
+        <v>6780</v>
       </c>
       <c r="E73" s="5">
         <v>10</v>
       </c>
       <c r="F73" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G73" s="5">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2626,19 +2664,16 @@
         <v>10000</v>
       </c>
       <c r="D74" s="2">
-        <v>10545</v>
+        <v>10604</v>
       </c>
       <c r="E74" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F74" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G74" s="5">
-        <v>70</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,16 +2710,16 @@
         <v>10000</v>
       </c>
       <c r="D76" s="2">
-        <v>9170</v>
+        <v>8170</v>
       </c>
       <c r="E76" s="5">
         <v>4</v>
       </c>
       <c r="F76" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" s="5">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2698,16 +2733,16 @@
         <v>10000</v>
       </c>
       <c r="D77" s="2">
-        <v>9706</v>
+        <v>9506</v>
       </c>
       <c r="E77" s="5">
         <v>13</v>
       </c>
       <c r="F77" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G77" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,16 +2756,19 @@
         <v>10000</v>
       </c>
       <c r="D78" s="2">
-        <v>9757</v>
+        <v>10870</v>
       </c>
       <c r="E78" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F78" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G78" s="5">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,16 +2782,16 @@
         <v>10000</v>
       </c>
       <c r="D79" s="2">
-        <v>9761</v>
+        <v>9357</v>
       </c>
       <c r="E79" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F79" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G79" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2837,16 +2875,19 @@
         <v>10000</v>
       </c>
       <c r="D83" s="2">
-        <v>11240</v>
+        <v>11477</v>
       </c>
       <c r="E83" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F83" s="5">
         <v>3</v>
       </c>
       <c r="G83" s="5">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2860,16 +2901,19 @@
         <v>10000</v>
       </c>
       <c r="D84" s="2">
-        <v>10680</v>
+        <v>11525</v>
       </c>
       <c r="E84" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" s="5">
         <v>5</v>
       </c>
       <c r="G84" s="5">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2909,16 +2953,19 @@
         <v>10000</v>
       </c>
       <c r="D86" s="2">
-        <v>8000</v>
+        <v>9260</v>
       </c>
       <c r="E86" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" s="5">
         <v>3</v>
       </c>
       <c r="G86" s="5">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2932,16 +2979,16 @@
         <v>10000</v>
       </c>
       <c r="D87" s="2">
-        <v>9832</v>
+        <v>8982</v>
       </c>
       <c r="E87" s="5">
         <v>4</v>
       </c>
       <c r="F87" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87" s="5">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2989,16 +3036,19 @@
         <v>10000</v>
       </c>
       <c r="D90" s="2">
-        <v>7900</v>
+        <v>8700</v>
       </c>
       <c r="E90" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F90" s="5">
         <v>5</v>
       </c>
       <c r="G90" s="5">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,19 +3062,19 @@
         <v>10000</v>
       </c>
       <c r="D91" s="2">
-        <v>21250</v>
+        <v>25400</v>
       </c>
       <c r="E91" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F91" s="5">
         <v>3</v>
       </c>
       <c r="G91" s="5">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3127,16 +3177,16 @@
         <v>10000</v>
       </c>
       <c r="D96" s="2">
-        <v>7460</v>
+        <v>3960</v>
       </c>
       <c r="E96" s="5">
         <v>2</v>
       </c>
       <c r="F96" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G96" s="5">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3174,7 +3224,7 @@
         <v>10000</v>
       </c>
       <c r="D98" s="2">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5">
@@ -3233,7 +3283,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>13</v>
@@ -3241,14 +3291,22 @@
       <c r="C101" s="2">
         <v>10000</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
+      <c r="D101" s="2">
+        <v>10870</v>
+      </c>
+      <c r="E101" s="5">
+        <v>4</v>
+      </c>
+      <c r="F101" s="5">
+        <v>2</v>
+      </c>
+      <c r="G101" s="5">
+        <v>67</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>13</v>
@@ -3257,10 +3315,10 @@
         <v>10000</v>
       </c>
       <c r="D102" s="2">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="E102" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5">
@@ -3269,7 +3327,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>13</v>
@@ -3278,19 +3336,21 @@
         <v>10000</v>
       </c>
       <c r="D103" s="2">
-        <v>10600</v>
+        <v>10210</v>
       </c>
       <c r="E103" s="5">
-        <v>1</v>
-      </c>
-      <c r="F103" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="F103" s="5">
+        <v>2</v>
+      </c>
       <c r="G103" s="5">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>13</v>
@@ -3299,21 +3359,24 @@
         <v>10000</v>
       </c>
       <c r="D104" s="2">
-        <v>10210</v>
+        <v>14654</v>
       </c>
       <c r="E104" s="5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F104" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G104" s="5">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>13</v>
@@ -3322,21 +3385,21 @@
         <v>10000</v>
       </c>
       <c r="D105" s="2">
-        <v>13418</v>
+        <v>4250</v>
       </c>
       <c r="E105" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F105" s="5">
         <v>5</v>
       </c>
       <c r="G105" s="5">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>13</v>
@@ -3345,7 +3408,7 @@
         <v>10000</v>
       </c>
       <c r="D106" s="2">
-        <v>4330</v>
+        <v>6790</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
@@ -3359,7 +3422,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>13</v>
@@ -3368,21 +3431,24 @@
         <v>10000</v>
       </c>
       <c r="D107" s="2">
-        <v>6790</v>
+        <v>9540</v>
       </c>
       <c r="E107" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F107" s="5">
         <v>4</v>
       </c>
       <c r="G107" s="5">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
@@ -3391,24 +3457,24 @@
         <v>10000</v>
       </c>
       <c r="D108" s="2">
-        <v>9540</v>
+        <v>11350</v>
       </c>
       <c r="E108" s="5">
         <v>4</v>
       </c>
       <c r="F108" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G108" s="5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>13</v>
@@ -3417,24 +3483,15 @@
         <v>10000</v>
       </c>
       <c r="D109" s="2">
-        <v>11350</v>
-      </c>
-      <c r="E109" s="5">
-        <v>4</v>
-      </c>
-      <c r="F109" s="5">
-        <v>1</v>
-      </c>
-      <c r="G109" s="5">
-        <v>80</v>
-      </c>
-      <c r="H109">
-        <v>3</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>13</v>
@@ -3451,7 +3508,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>13</v>
@@ -3468,7 +3525,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>13</v>
@@ -3477,15 +3534,24 @@
         <v>10000</v>
       </c>
       <c r="D112" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+        <v>10110</v>
+      </c>
+      <c r="E112" s="5">
+        <v>2</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
+      <c r="G112" s="5">
+        <v>67</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>13</v>
@@ -3494,24 +3560,21 @@
         <v>10000</v>
       </c>
       <c r="D113" s="2">
-        <v>9500</v>
+        <v>8820</v>
       </c>
       <c r="E113" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F113" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G113" s="5">
         <v>50</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>13</v>
@@ -3520,21 +3583,15 @@
         <v>10000</v>
       </c>
       <c r="D114" s="2">
-        <v>8820</v>
-      </c>
-      <c r="E114" s="5">
-        <v>5</v>
-      </c>
-      <c r="F114" s="5">
-        <v>5</v>
-      </c>
-      <c r="G114" s="5">
-        <v>50</v>
-      </c>
+        <v>9000</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>13</v>
@@ -3543,15 +3600,24 @@
         <v>10000</v>
       </c>
       <c r="D115" s="2">
-        <v>9000</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
+        <v>10780</v>
+      </c>
+      <c r="E115" s="5">
+        <v>4</v>
+      </c>
+      <c r="F115" s="5">
+        <v>2</v>
+      </c>
+      <c r="G115" s="5">
+        <v>67</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>13</v>
@@ -3560,21 +3626,21 @@
         <v>10000</v>
       </c>
       <c r="D116" s="2">
-        <v>9980</v>
+        <v>7890</v>
       </c>
       <c r="E116" s="5">
         <v>3</v>
       </c>
       <c r="F116" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G116" s="5">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>13</v>
@@ -3583,7 +3649,7 @@
         <v>10000</v>
       </c>
       <c r="D117" s="2">
-        <v>7370</v>
+        <v>5670</v>
       </c>
       <c r="E117" s="5">
         <v>2</v>
@@ -3597,7 +3663,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>13</v>
@@ -3606,21 +3672,16 @@
         <v>10000</v>
       </c>
       <c r="D118" s="2">
-        <v>5670</v>
-      </c>
-      <c r="E118" s="5">
-        <v>2</v>
-      </c>
-      <c r="F118" s="5">
-        <v>6</v>
-      </c>
-      <c r="G118" s="5">
-        <v>25</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>13</v>
@@ -3629,16 +3690,22 @@
         <v>10000</v>
       </c>
       <c r="D119" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E119" s="5"/>
+        <v>11270</v>
+      </c>
+      <c r="E119" s="5">
+        <v>2</v>
+      </c>
       <c r="F119" s="5"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="7"/>
+      <c r="G119" s="5">
+        <v>100</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>13</v>
@@ -3647,22 +3714,21 @@
         <v>10000</v>
       </c>
       <c r="D120" s="2">
-        <v>11270</v>
+        <v>9910</v>
       </c>
       <c r="E120" s="5">
         <v>2</v>
       </c>
-      <c r="F120" s="5"/>
+      <c r="F120" s="5">
+        <v>2</v>
+      </c>
       <c r="G120" s="5">
-        <v>100</v>
-      </c>
-      <c r="H120">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>13</v>
@@ -3671,21 +3737,21 @@
         <v>10000</v>
       </c>
       <c r="D121" s="2">
-        <v>9910</v>
+        <v>9110</v>
       </c>
       <c r="E121" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F121" s="5">
         <v>2</v>
       </c>
       <c r="G121" s="5">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>13</v>
@@ -3694,21 +3760,21 @@
         <v>10000</v>
       </c>
       <c r="D122" s="2">
-        <v>9110</v>
+        <v>10070</v>
       </c>
       <c r="E122" s="5">
         <v>5</v>
       </c>
       <c r="F122" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G122" s="5">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>13</v>
@@ -3717,21 +3783,22 @@
         <v>10000</v>
       </c>
       <c r="D123" s="2">
-        <v>10070</v>
+        <v>10365</v>
       </c>
       <c r="E123" s="5">
-        <v>5</v>
-      </c>
-      <c r="F123" s="5">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="5">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>13</v>
@@ -3745,10 +3812,11 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>13</v>
@@ -3762,11 +3830,11 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="7"/>
+      <c r="H125" s="5"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>13</v>
@@ -3775,12 +3843,40 @@
         <v>10000</v>
       </c>
       <c r="D126" s="2">
-        <v>10000</v>
+        <v>8300</v>
       </c>
       <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
+      <c r="F126" s="5">
+        <v>3</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D127" s="2">
+        <v>10735</v>
+      </c>
+      <c r="E127" s="5">
+        <v>4</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1</v>
+      </c>
+      <c r="G127" s="5">
+        <v>80</v>
+      </c>
+      <c r="H127" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3853,10 +3949,10 @@
       <c r="A5" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-1002116542537</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>-1002116542537</v>
       </c>
     </row>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A74A336-EF0A-4D1E-A4B2-8394BFD43799}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1079DFA0-0BD2-4FBA-A4CA-79BD8E9E58CA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="148">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Dr Apuesta</t>
   </si>
   <si>
-    <t>BestBet</t>
-  </si>
-  <si>
     <t>CashItBaby</t>
   </si>
   <si>
@@ -460,6 +457,30 @@
   </si>
   <si>
     <t>Verdeando Club</t>
+  </si>
+  <si>
+    <t>Doctor Apuesta</t>
+  </si>
+  <si>
+    <t>I. A. Bet</t>
+  </si>
+  <si>
+    <t>P. PR. T.S. Apuestas</t>
+  </si>
+  <si>
+    <t>Stakazo Oro Verde</t>
+  </si>
+  <si>
+    <t>Ex Teenista Profesional</t>
+  </si>
+  <si>
+    <t>Oro VIP</t>
+  </si>
+  <si>
+    <t>MainPlay</t>
+  </si>
+  <si>
+    <t>DaniPicks stakes</t>
   </si>
 </sst>
 </file>
@@ -534,8 +555,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,12 +627,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -643,6 +658,12 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -661,12 +682,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H127" totalsRowShown="0">
-  <autoFilter ref="A1:H127" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H134" totalsRowShown="0">
+  <autoFilter ref="A1:H134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
-    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
     <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
@@ -682,8 +703,8 @@
   <autoFilter ref="A1:C6" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{346C6369-3CA9-4479-A4F6-C3213A94BE47}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1006,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1072,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -1072,7 +1093,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1089,10 +1110,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2">
         <v>10000</v>
@@ -1101,21 +1122,24 @@
         <v>10000</v>
       </c>
       <c r="E4" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2">
         <v>10000</v>
@@ -1124,21 +1148,24 @@
         <v>10000</v>
       </c>
       <c r="E5" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2">
         <v>10000</v>
@@ -1147,13 +1174,13 @@
         <v>10000</v>
       </c>
       <c r="E6" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6" s="5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1161,10 +1188,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2">
         <v>10000</v>
@@ -1173,21 +1200,24 @@
         <v>10000</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2">
         <v>10000</v>
@@ -1196,44 +1226,44 @@
         <v>10000</v>
       </c>
       <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
-        <v>16</v>
-      </c>
       <c r="G8" s="5">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2">
         <v>10000</v>
       </c>
       <c r="D9" s="2">
-        <v>8675</v>
+        <v>7504</v>
       </c>
       <c r="E9" s="5">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5">
         <v>51</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -1242,16 +1272,16 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2">
-        <v>8450</v>
+        <v>10450</v>
       </c>
       <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="5">
-        <v>3</v>
-      </c>
       <c r="G10" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,16 +1295,16 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2">
-        <v>10072</v>
+        <v>9682</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" s="5">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1288,21 +1318,21 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2">
-        <v>9434</v>
+        <v>8932</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G12" s="6">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -1314,21 +1344,18 @@
         <v>10447</v>
       </c>
       <c r="E13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
       </c>
       <c r="G13" s="6">
-        <v>60</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -1354,16 +1381,16 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2">
-        <v>7947</v>
-      </c>
-      <c r="E15" s="11">
-        <v>11</v>
+        <v>8427</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14</v>
       </c>
       <c r="F15" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" s="5">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1377,24 +1404,21 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2">
-        <v>9803</v>
-      </c>
-      <c r="E16" s="11">
-        <v>10</v>
+        <v>9753</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
       </c>
       <c r="F16" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="5">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -1403,17 +1427,16 @@
         <v>10000</v>
       </c>
       <c r="D17" s="2">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
       <c r="G17" s="5">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,21 +1466,21 @@
         <v>10000</v>
       </c>
       <c r="D19" s="2">
-        <v>8512</v>
+        <v>7912</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="5">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -1475,7 +1498,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -1484,16 +1507,16 @@
         <v>10000</v>
       </c>
       <c r="D21" s="2">
-        <v>11627</v>
+        <v>11032</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1501,7 +1524,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -1509,20 +1532,17 @@
       <c r="C22" s="2">
         <v>10000</v>
       </c>
-      <c r="D22" s="10">
-        <v>8973</v>
+      <c r="D22" s="11">
+        <v>8176</v>
       </c>
       <c r="E22" s="5">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G22" s="5">
-        <v>55</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,24 +1556,24 @@
         <v>10000</v>
       </c>
       <c r="D23" s="2">
-        <v>15207</v>
+        <v>20609</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F23" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="5">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -1565,12 +1585,14 @@
         <v>10000</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
@@ -1596,22 +1618,21 @@
         <v>10000</v>
       </c>
       <c r="D26" s="2">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>2</v>
+      </c>
       <c r="G26" s="5">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
@@ -1620,24 +1641,21 @@
         <v>10000</v>
       </c>
       <c r="D27" s="2">
-        <v>15400</v>
+        <v>13404</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F27" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="5">
-        <v>67</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -1648,13 +1666,19 @@
       <c r="D28" s="2">
         <v>10000</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -1666,13 +1690,13 @@
         <v>10250</v>
       </c>
       <c r="E29" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" s="5">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1686,21 +1710,24 @@
         <v>10000</v>
       </c>
       <c r="D30" s="2">
-        <v>10431</v>
+        <v>10740</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="5">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
@@ -1726,21 +1753,21 @@
         <v>10000</v>
       </c>
       <c r="D32" s="2">
-        <v>4220</v>
+        <v>8450</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F32" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" s="5">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
@@ -1749,16 +1776,19 @@
         <v>10000</v>
       </c>
       <c r="D33" s="2">
-        <v>8000</v>
+        <v>10705</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="5">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>50</v>
+      </c>
+      <c r="H33">
         <v>2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,13 +1805,13 @@
         <v>13840</v>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F34" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G34" s="5">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -1798,21 +1828,21 @@
         <v>10000</v>
       </c>
       <c r="D35" s="2">
-        <v>1976</v>
+        <v>5620</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F35" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="5">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
@@ -1821,16 +1851,16 @@
         <v>10000</v>
       </c>
       <c r="D36" s="2">
-        <v>8200</v>
+        <v>6500</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
       </c>
       <c r="F36" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="5">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1844,19 +1874,16 @@
         <v>10000</v>
       </c>
       <c r="D37" s="2">
-        <v>11149</v>
+        <v>10205</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F37" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G37" s="5">
-        <v>63</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,13 +1916,13 @@
         <v>11250</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" s="5">
         <v>2</v>
       </c>
       <c r="G39" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,16 +1936,19 @@
         <v>10000</v>
       </c>
       <c r="D40" s="2">
-        <v>9488</v>
+        <v>10348</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F40" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G40" s="5">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1932,24 +1962,21 @@
         <v>10000</v>
       </c>
       <c r="D41" s="2">
-        <v>11948</v>
+        <v>12060</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F41" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G41" s="5">
-        <v>75</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>10</v>
@@ -1961,12 +1988,14 @@
         <v>8500</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="5">
         <v>4</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" s="5">
+        <v>33</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1979,16 +2008,19 @@
         <v>10000</v>
       </c>
       <c r="D43" s="2">
-        <v>7945</v>
+        <v>9585</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F43" s="5">
         <v>5</v>
       </c>
       <c r="G43" s="5">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,7 +2041,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -2018,16 +2050,19 @@
         <v>10000</v>
       </c>
       <c r="D45" s="2">
-        <v>13730</v>
+        <v>15990</v>
       </c>
       <c r="E45">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F45" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="5">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2071,7 +2106,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>10</v>
@@ -2112,19 +2147,19 @@
         <v>10000</v>
       </c>
       <c r="D50" s="2">
-        <v>9233</v>
+        <v>10780</v>
       </c>
       <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50" s="5">
         <v>6</v>
       </c>
-      <c r="F50" s="5">
-        <v>5</v>
-      </c>
       <c r="G50" s="5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2161,21 +2196,24 @@
         <v>10000</v>
       </c>
       <c r="D52" s="2">
-        <v>8910</v>
+        <v>8344</v>
       </c>
       <c r="E52" s="5">
+        <v>14</v>
+      </c>
+      <c r="F52" s="5">
         <v>11</v>
       </c>
-      <c r="F52" s="5">
-        <v>10</v>
-      </c>
       <c r="G52" s="5">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>10</v>
@@ -2196,7 +2234,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>10</v>
@@ -2205,17 +2243,11 @@
         <v>10000</v>
       </c>
       <c r="D54" s="2">
-        <v>11220</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5">
-        <v>100</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2254,16 +2286,16 @@
         <v>10000</v>
       </c>
       <c r="D56" s="2">
-        <v>13762</v>
+        <v>11495</v>
       </c>
       <c r="E56" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F56" s="5">
         <v>19</v>
       </c>
       <c r="G56" s="5">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2280,13 +2312,13 @@
         <v>13762</v>
       </c>
       <c r="E57" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F57" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G57" s="5">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -2303,24 +2335,24 @@
         <v>10000</v>
       </c>
       <c r="D58" s="2">
-        <v>10597</v>
+        <v>10823</v>
       </c>
       <c r="E58" s="5">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F58" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G58" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>10</v>
@@ -2329,16 +2361,16 @@
         <v>10000</v>
       </c>
       <c r="D59" s="2">
-        <v>7844</v>
+        <v>8934</v>
       </c>
       <c r="E59" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59" s="5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G59" s="5">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2370,16 +2402,16 @@
         <v>10000</v>
       </c>
       <c r="D61" s="2">
-        <v>8875</v>
+        <v>10130</v>
       </c>
       <c r="E61" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F61" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G61" s="5">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2407,7 +2439,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>10</v>
@@ -2416,21 +2448,24 @@
         <v>10000</v>
       </c>
       <c r="D63" s="2">
-        <v>10915</v>
+        <v>11075</v>
       </c>
       <c r="E63" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" s="5">
         <v>6</v>
       </c>
       <c r="G63" s="5">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -2439,24 +2474,22 @@
         <v>10000</v>
       </c>
       <c r="D64" s="2">
-        <v>8883</v>
+        <v>9100</v>
       </c>
       <c r="E64" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F64" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G64" s="5">
-        <v>43</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>11</v>
@@ -2468,18 +2501,18 @@
         <v>10320</v>
       </c>
       <c r="E65" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G65" s="5">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>44</v>
+      <c r="A66" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>11</v>
@@ -2488,21 +2521,21 @@
         <v>10000</v>
       </c>
       <c r="D66" s="2">
-        <v>9459</v>
+        <v>9620</v>
       </c>
       <c r="E66" s="5">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F66" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G66" s="5">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>11</v>
@@ -2525,7 +2558,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>11</v>
@@ -2534,21 +2567,21 @@
         <v>10000</v>
       </c>
       <c r="D68" s="2">
-        <v>115820</v>
+        <v>11302</v>
       </c>
       <c r="E68" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F68" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G68" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>11</v>
@@ -2560,7 +2593,7 @@
         <v>11360</v>
       </c>
       <c r="E69" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5">
@@ -2569,7 +2602,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>11</v>
@@ -2586,7 +2619,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>11</v>
@@ -2595,21 +2628,21 @@
         <v>10000</v>
       </c>
       <c r="D71" s="2">
-        <v>8990</v>
+        <v>10360</v>
       </c>
       <c r="E71" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F71" s="5">
         <v>3</v>
       </c>
       <c r="G71" s="5">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>11</v>
@@ -2618,21 +2651,21 @@
         <v>10000</v>
       </c>
       <c r="D72" s="2">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
       <c r="F72" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G72" s="5">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>11</v>
@@ -2641,21 +2674,21 @@
         <v>10000</v>
       </c>
       <c r="D73" s="2">
-        <v>6780</v>
+        <v>6580</v>
       </c>
       <c r="E73" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>11</v>
@@ -2664,21 +2697,24 @@
         <v>10000</v>
       </c>
       <c r="D74" s="2">
-        <v>10604</v>
+        <v>10523</v>
       </c>
       <c r="E74" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F74" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G74" s="5">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>11</v>
@@ -2701,7 +2737,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>11</v>
@@ -2716,15 +2752,15 @@
         <v>4</v>
       </c>
       <c r="F76" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76" s="5">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>11</v>
@@ -2733,21 +2769,21 @@
         <v>10000</v>
       </c>
       <c r="D77" s="2">
-        <v>9506</v>
+        <v>9655</v>
       </c>
       <c r="E77" s="5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F77" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G77" s="5">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>11</v>
@@ -2756,24 +2792,24 @@
         <v>10000</v>
       </c>
       <c r="D78" s="2">
-        <v>10870</v>
+        <v>10944</v>
       </c>
       <c r="E78" s="5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F78" s="5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G78" s="5">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>11</v>
@@ -2782,21 +2818,21 @@
         <v>10000</v>
       </c>
       <c r="D79" s="2">
-        <v>9357</v>
+        <v>7857</v>
       </c>
       <c r="E79" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F79" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G79" s="5">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>11</v>
@@ -2805,21 +2841,24 @@
         <v>10000</v>
       </c>
       <c r="D80" s="2">
-        <v>9284</v>
+        <v>8781</v>
       </c>
       <c r="E80" s="5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F80" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G80" s="5">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>11</v>
@@ -2842,7 +2881,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>13</v>
@@ -2866,7 +2905,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>13</v>
@@ -2875,24 +2914,24 @@
         <v>10000</v>
       </c>
       <c r="D83" s="2">
-        <v>11477</v>
+        <v>11564</v>
       </c>
       <c r="E83" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F83" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>13</v>
@@ -2901,24 +2940,21 @@
         <v>10000</v>
       </c>
       <c r="D84" s="2">
-        <v>11525</v>
+        <v>10525</v>
       </c>
       <c r="E84" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G84" s="5">
         <v>50</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>13</v>
@@ -2927,16 +2963,16 @@
         <v>10000</v>
       </c>
       <c r="D85" s="2">
-        <v>14170</v>
+        <v>15670</v>
       </c>
       <c r="E85" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="5">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H85" s="7">
         <v>2</v>
@@ -2944,7 +2980,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>13</v>
@@ -2953,24 +2989,24 @@
         <v>10000</v>
       </c>
       <c r="D86" s="2">
-        <v>9260</v>
+        <v>17710</v>
       </c>
       <c r="E86" s="5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F86" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" s="5">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>13</v>
@@ -2979,13 +3015,13 @@
         <v>10000</v>
       </c>
       <c r="D87" s="2">
-        <v>8982</v>
+        <v>9930</v>
       </c>
       <c r="E87" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F87" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G87" s="5">
         <v>50</v>
@@ -2993,7 +3029,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>13</v>
@@ -3010,7 +3046,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>13</v>
@@ -3027,7 +3063,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>13</v>
@@ -3053,7 +3089,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>13</v>
@@ -3062,24 +3098,21 @@
         <v>10000</v>
       </c>
       <c r="D91" s="2">
-        <v>25400</v>
+        <v>19650</v>
       </c>
       <c r="E91" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F91" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G91" s="5">
-        <v>63</v>
-      </c>
-      <c r="H91">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>13</v>
@@ -3088,24 +3121,21 @@
         <v>10000</v>
       </c>
       <c r="D92" s="2">
-        <v>10789</v>
+        <v>11789</v>
       </c>
       <c r="E92" s="5">
+        <v>5</v>
+      </c>
+      <c r="F92" s="5">
         <v>3</v>
       </c>
-      <c r="F92" s="5">
-        <v>2</v>
-      </c>
       <c r="G92" s="5">
-        <v>60</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>13</v>
@@ -3122,7 +3152,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>13</v>
@@ -3145,7 +3175,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>13</v>
@@ -3154,21 +3184,21 @@
         <v>10000</v>
       </c>
       <c r="D95" s="2">
-        <v>10010</v>
+        <v>10290</v>
       </c>
       <c r="E95" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="5">
         <v>1</v>
       </c>
       <c r="G95" s="5">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>13</v>
@@ -3180,18 +3210,18 @@
         <v>3960</v>
       </c>
       <c r="E96" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96" s="5">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>13</v>
@@ -3200,22 +3230,21 @@
         <v>10000</v>
       </c>
       <c r="D97" s="2">
-        <v>13620</v>
+        <v>10879</v>
       </c>
       <c r="E97" s="5">
-        <v>4</v>
-      </c>
-      <c r="F97" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
       <c r="G97" s="5">
-        <v>100</v>
-      </c>
-      <c r="H97">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>13</v>
@@ -3224,17 +3253,21 @@
         <v>10000</v>
       </c>
       <c r="D98" s="2">
-        <v>9000</v>
-      </c>
-      <c r="E98" s="5"/>
+        <v>8900</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1</v>
+      </c>
       <c r="F98" s="5">
-        <v>1</v>
-      </c>
-      <c r="G98" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="G98" s="5">
+        <v>33</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>13</v>
@@ -3243,24 +3276,24 @@
         <v>10000</v>
       </c>
       <c r="D99" s="2">
-        <v>10846</v>
+        <v>12149</v>
       </c>
       <c r="E99" s="5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F99" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G99" s="5">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>13</v>
@@ -3269,21 +3302,21 @@
         <v>10000</v>
       </c>
       <c r="D100" s="2">
-        <v>9165</v>
+        <v>8856</v>
       </c>
       <c r="E100" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F100" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G100" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>13</v>
@@ -3292,13 +3325,13 @@
         <v>10000</v>
       </c>
       <c r="D101" s="2">
-        <v>10870</v>
+        <v>10470</v>
       </c>
       <c r="E101" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F101" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" s="5">
         <v>67</v>
@@ -3306,7 +3339,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>13</v>
@@ -3315,19 +3348,21 @@
         <v>10000</v>
       </c>
       <c r="D102" s="2">
-        <v>10600</v>
+        <v>9600</v>
       </c>
       <c r="E102" s="5">
         <v>1</v>
       </c>
-      <c r="F102" s="5"/>
+      <c r="F102" s="5">
+        <v>1</v>
+      </c>
       <c r="G102" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>13</v>
@@ -3336,21 +3371,24 @@
         <v>10000</v>
       </c>
       <c r="D103" s="2">
-        <v>10210</v>
+        <v>10350</v>
       </c>
       <c r="E103" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F103" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G103" s="5">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>13</v>
@@ -3376,7 +3414,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>13</v>
@@ -3388,18 +3426,18 @@
         <v>4250</v>
       </c>
       <c r="E105" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F105" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G105" s="5">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>13</v>
@@ -3422,7 +3460,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>13</v>
@@ -3431,24 +3469,21 @@
         <v>10000</v>
       </c>
       <c r="D107" s="2">
-        <v>9540</v>
+        <v>8540</v>
       </c>
       <c r="E107" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F107" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G107" s="5">
-        <v>50</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
@@ -3457,24 +3492,21 @@
         <v>10000</v>
       </c>
       <c r="D108" s="2">
-        <v>11350</v>
+        <v>9450</v>
       </c>
       <c r="E108" s="5">
         <v>4</v>
       </c>
       <c r="F108" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108" s="5">
-        <v>80</v>
-      </c>
-      <c r="H108">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>13</v>
@@ -3491,7 +3523,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>13</v>
@@ -3508,7 +3540,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>13</v>
@@ -3525,7 +3557,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>13</v>
@@ -3537,21 +3569,18 @@
         <v>10110</v>
       </c>
       <c r="E112" s="5">
+        <v>3</v>
+      </c>
+      <c r="F112" s="5">
         <v>2</v>
       </c>
-      <c r="F112" s="5">
-        <v>1</v>
-      </c>
       <c r="G112" s="5">
-        <v>67</v>
-      </c>
-      <c r="H112">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>13</v>
@@ -3574,7 +3603,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>13</v>
@@ -3591,7 +3620,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>13</v>
@@ -3603,21 +3632,18 @@
         <v>10780</v>
       </c>
       <c r="E115" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F115" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G115" s="5">
-        <v>67</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>13</v>
@@ -3626,13 +3652,13 @@
         <v>10000</v>
       </c>
       <c r="D116" s="2">
-        <v>7890</v>
+        <v>7430</v>
       </c>
       <c r="E116" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F116" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G116" s="5">
         <v>33</v>
@@ -3640,7 +3666,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>13</v>
@@ -3652,18 +3678,18 @@
         <v>5670</v>
       </c>
       <c r="E117" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G117" s="5">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>13</v>
@@ -3681,7 +3707,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>13</v>
@@ -3690,22 +3716,21 @@
         <v>10000</v>
       </c>
       <c r="D119" s="2">
-        <v>11270</v>
+        <v>9270</v>
       </c>
       <c r="E119" s="5">
         <v>2</v>
       </c>
-      <c r="F119" s="5"/>
+      <c r="F119" s="5">
+        <v>2</v>
+      </c>
       <c r="G119" s="5">
-        <v>100</v>
-      </c>
-      <c r="H119">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>13</v>
@@ -3728,7 +3753,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>13</v>
@@ -3737,21 +3762,21 @@
         <v>10000</v>
       </c>
       <c r="D121" s="2">
-        <v>9110</v>
+        <v>9923</v>
       </c>
       <c r="E121" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F121" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G121" s="5">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>13</v>
@@ -3774,7 +3799,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>13</v>
@@ -3786,11 +3811,13 @@
         <v>10365</v>
       </c>
       <c r="E123" s="5">
-        <v>1</v>
-      </c>
-      <c r="F123" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="F123" s="5">
+        <v>2</v>
+      </c>
       <c r="G123" s="5">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -3798,7 +3825,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>13</v>
@@ -3807,16 +3834,22 @@
         <v>10000</v>
       </c>
       <c r="D124" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+        <v>9764</v>
+      </c>
+      <c r="E124" s="5">
+        <v>2</v>
+      </c>
+      <c r="F124" s="5">
+        <v>5</v>
+      </c>
+      <c r="G124" s="5">
+        <v>29</v>
+      </c>
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>13</v>
@@ -3834,7 +3867,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>13</v>
@@ -3843,18 +3876,24 @@
         <v>10000</v>
       </c>
       <c r="D126" s="2">
-        <v>8300</v>
-      </c>
-      <c r="E126" s="5"/>
+        <v>8830</v>
+      </c>
+      <c r="E126" s="5">
+        <v>1</v>
+      </c>
       <c r="F126" s="5">
-        <v>3</v>
-      </c>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="G126" s="5">
+        <v>20</v>
+      </c>
+      <c r="H126" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>13</v>
@@ -3877,6 +3916,156 @@
       <c r="H127" s="5">
         <v>1</v>
       </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D128" s="2">
+        <v>8485</v>
+      </c>
+      <c r="E128" s="5">
+        <v>4</v>
+      </c>
+      <c r="F128" s="5">
+        <v>13</v>
+      </c>
+      <c r="G128" s="5">
+        <v>24</v>
+      </c>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D129" s="2">
+        <v>11400</v>
+      </c>
+      <c r="E129" s="5">
+        <v>2</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D130" s="2">
+        <v>11439</v>
+      </c>
+      <c r="E130" s="5">
+        <v>2</v>
+      </c>
+      <c r="F130" s="5">
+        <v>1</v>
+      </c>
+      <c r="G130" s="5">
+        <v>67</v>
+      </c>
+      <c r="H130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D131" s="2">
+        <v>10876</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5">
+        <v>100</v>
+      </c>
+      <c r="H131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D132" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
+        <v>1</v>
+      </c>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D133" s="2">
+        <v>9650</v>
+      </c>
+      <c r="E133" s="5">
+        <v>1</v>
+      </c>
+      <c r="F133" s="5">
+        <v>2</v>
+      </c>
+      <c r="G133" s="5">
+        <v>33</v>
+      </c>
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3906,10 +4095,10 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3947,7 +4136,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="9">
         <v>-1002116542537</v>
@@ -3958,7 +4147,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4">
         <v>-1002054332150</v>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1079DFA0-0BD2-4FBA-A4CA-79BD8E9E58CA}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774CAA15-A4DC-410E-8239-4BDFF3E90F76}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="148">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -57,57 +57,345 @@
     <t>Dias en racha</t>
   </si>
   <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Tipster Nacionales 🇲🇽</t>
+  </si>
+  <si>
+    <t>Tipsters Americanos 🇺🇸</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Tipsters Europeos eu</t>
+  </si>
+  <si>
+    <t>CashItBaby</t>
+  </si>
+  <si>
+    <t>CodyCovers</t>
+  </si>
+  <si>
+    <t>FiveStar</t>
+  </si>
+  <si>
+    <t>ParlayPaul</t>
+  </si>
+  <si>
+    <t>Parlay Safari</t>
+  </si>
+  <si>
+    <t>Parlay Travy</t>
+  </si>
+  <si>
+    <t>Sports made easy</t>
+  </si>
+  <si>
+    <t>Trust my system</t>
+  </si>
+  <si>
+    <t>Daily Capper</t>
+  </si>
+  <si>
+    <t>UFC vegas</t>
+  </si>
+  <si>
+    <t>VegasMiraBet</t>
+  </si>
+  <si>
+    <t>Pardon my pick</t>
+  </si>
+  <si>
+    <t>Alpha picks</t>
+  </si>
+  <si>
+    <t>JaCavalier</t>
+  </si>
+  <si>
+    <t>Zachs Bets</t>
+  </si>
+  <si>
+    <t>Dan Apuestas</t>
+  </si>
+  <si>
+    <t>Hammering Hank</t>
+  </si>
+  <si>
+    <t>Fredo</t>
+  </si>
+  <si>
+    <t>Danipicks</t>
+  </si>
+  <si>
+    <t>HugoEsports</t>
+  </si>
+  <si>
+    <t>Juan Apuestas</t>
+  </si>
+  <si>
+    <t>Kin Apuestas</t>
+  </si>
+  <si>
+    <t>KingBets</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>MatiasBets</t>
+  </si>
+  <si>
+    <t>NDO Bets</t>
+  </si>
+  <si>
+    <t>TrujiPicks</t>
+  </si>
+  <si>
+    <t>Tu comvi</t>
+  </si>
+  <si>
+    <t>Sebastian Reyes</t>
+  </si>
+  <si>
+    <t>Señor Apuestas</t>
+  </si>
+  <si>
+    <t>SportsApuestas</t>
+  </si>
+  <si>
+    <t>SportsBets</t>
+  </si>
+  <si>
+    <t>Apuestas peru</t>
+  </si>
+  <si>
+    <t>Crack de las apuestas</t>
+  </si>
+  <si>
+    <t>Ingeniero de las apuestas</t>
+  </si>
+  <si>
+    <t>Las fijas de BYR</t>
+  </si>
+  <si>
+    <t>Neo Apuestas</t>
+  </si>
+  <si>
+    <t>Pharaon</t>
+  </si>
+  <si>
+    <t>ProAnalyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La suca </t>
+  </si>
+  <si>
+    <t>PronosVIP</t>
+  </si>
+  <si>
+    <t>El Mago</t>
+  </si>
+  <si>
+    <t>Loco de las Apuestas</t>
+  </si>
+  <si>
+    <t>Einstein Analistas</t>
+  </si>
+  <si>
+    <t>SITO</t>
+  </si>
+  <si>
+    <t>Rey Analista</t>
+  </si>
+  <si>
+    <t>Tenis 10 VIP</t>
+  </si>
+  <si>
+    <t>Daily4Tips</t>
+  </si>
+  <si>
+    <t>JJAnalistas</t>
+  </si>
+  <si>
+    <t>Inversiones Deportivas</t>
+  </si>
+  <si>
+    <t>Thunder bets</t>
+  </si>
+  <si>
+    <t>Miss Winner</t>
+  </si>
+  <si>
+    <t>Canal_ID</t>
+  </si>
+  <si>
+    <t>Alta Efectividad</t>
+  </si>
+  <si>
+    <t>Dbets</t>
+  </si>
+  <si>
+    <t>Hassido</t>
+  </si>
+  <si>
+    <t>el profe stakes</t>
+  </si>
+  <si>
+    <t>El profe VIP</t>
+  </si>
+  <si>
+    <t>Winner Apuestas</t>
+  </si>
+  <si>
+    <t>Sports peru</t>
+  </si>
+  <si>
+    <t>Cabezas premium</t>
+  </si>
+  <si>
+    <t>KinPicks</t>
+  </si>
+  <si>
+    <t>Los Rey APP</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Ruben Picks</t>
+  </si>
+  <si>
+    <t>Verdeando Club</t>
+  </si>
+  <si>
+    <t>Doctor Apuesta</t>
+  </si>
+  <si>
+    <t>I. A. Bet</t>
+  </si>
+  <si>
+    <t>P. PR. T.S. Apuestas</t>
+  </si>
+  <si>
+    <t>Stakazo Oro Verde</t>
+  </si>
+  <si>
+    <t>Ex Teenista Profesional</t>
+  </si>
+  <si>
+    <t>Oro VIP</t>
+  </si>
+  <si>
+    <t>DaniPicks stakes</t>
+  </si>
+  <si>
+    <t>Cristian rey mensual</t>
+  </si>
+  <si>
+    <t>Anual cristian rey</t>
+  </si>
+  <si>
+    <t>Cristian Rey APP</t>
+  </si>
+  <si>
+    <t>Marco Rey APP</t>
+  </si>
+  <si>
+    <t>Consejo Abuelo APP</t>
+  </si>
+  <si>
+    <t>Oscar Rey APP</t>
+  </si>
+  <si>
+    <t>Roberto Rey APP</t>
+  </si>
+  <si>
+    <t>Revista Reyes</t>
+  </si>
+  <si>
+    <t>NFL Stats</t>
+  </si>
+  <si>
+    <t>Big Manny</t>
+  </si>
+  <si>
+    <t>Chapito</t>
+  </si>
+  <si>
+    <t>chapito NFL</t>
+  </si>
+  <si>
+    <t>Retos chapito</t>
+  </si>
+  <si>
+    <t>CobraVIP</t>
+  </si>
+  <si>
     <t>Diego Palafox</t>
   </si>
   <si>
+    <t>Garantizado diego palafox</t>
+  </si>
+  <si>
+    <t>Faraon</t>
+  </si>
+  <si>
     <t>Frosty</t>
   </si>
   <si>
-    <t>Chapito</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Tipster Nacionales 🇲🇽</t>
-  </si>
-  <si>
-    <t>Tipsters Americanos 🇺🇸</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Tipsters Europeos eu</t>
-  </si>
-  <si>
-    <t>Big Manny</t>
-  </si>
-  <si>
-    <t>CobraVIP</t>
-  </si>
-  <si>
-    <t>Faraon</t>
+    <t>FrostyParlays</t>
+  </si>
+  <si>
+    <t>FrostyEsports</t>
+  </si>
+  <si>
+    <t>Revista Sharp</t>
   </si>
   <si>
     <t>HugoWx</t>
   </si>
   <si>
+    <t>hugo wx garantizado</t>
+  </si>
+  <si>
+    <t>Retos hugowx</t>
+  </si>
+  <si>
     <t>IanStar</t>
   </si>
   <si>
+    <t>Iluminati</t>
+  </si>
+  <si>
+    <t>Garantizado iluminati</t>
+  </si>
+  <si>
+    <t>NFL iluminati</t>
+  </si>
+  <si>
     <t>Japo</t>
   </si>
   <si>
+    <t>Retos japo</t>
+  </si>
+  <si>
     <t>La mera fiera</t>
   </si>
   <si>
+    <t>Asegurado mera fiera</t>
+  </si>
+  <si>
     <t>Licenciado</t>
   </si>
   <si>
     <t>Los picks del gordo</t>
   </si>
   <si>
+    <t>Garantizado los picks del gordo</t>
+  </si>
+  <si>
     <t>Lucky Masked</t>
   </si>
   <si>
@@ -123,18 +411,27 @@
     <t>PirruPicks</t>
   </si>
   <si>
+    <t>LMB pirrupicks</t>
+  </si>
+  <si>
     <t>Picks de polo</t>
   </si>
   <si>
     <t>Prince</t>
   </si>
   <si>
+    <t>RevovlerBets</t>
+  </si>
+  <si>
     <t>Ruy Cepeda</t>
   </si>
   <si>
     <t>Tercer ojo</t>
   </si>
   <si>
+    <t>Vikingo Negro</t>
+  </si>
+  <si>
     <t>Eminite</t>
   </si>
   <si>
@@ -144,6 +441,15 @@
     <t>Rey Apostador</t>
   </si>
   <si>
+    <t>GallitoVIP</t>
+  </si>
+  <si>
+    <t>Parlays Exoticos gallitovip</t>
+  </si>
+  <si>
+    <t>bombas gallitovip</t>
+  </si>
+  <si>
     <t>Werevertumorro</t>
   </si>
   <si>
@@ -156,7 +462,7 @@
     <t>Zeus Picks</t>
   </si>
   <si>
-    <t>GallitoVIP</t>
+    <t>Oscar Marquez</t>
   </si>
   <si>
     <t>ZorritoVIP</t>
@@ -168,319 +474,13 @@
     <t>Dr Apuesta</t>
   </si>
   <si>
-    <t>CashItBaby</t>
-  </si>
-  <si>
-    <t>CodyCovers</t>
-  </si>
-  <si>
-    <t>FiveStar</t>
-  </si>
-  <si>
-    <t>ParlayPaul</t>
-  </si>
-  <si>
-    <t>Parlay Safari</t>
-  </si>
-  <si>
-    <t>Parlay Travy</t>
-  </si>
-  <si>
-    <t>Sports made easy</t>
-  </si>
-  <si>
-    <t>Trust my system</t>
-  </si>
-  <si>
-    <t>Daily Capper</t>
-  </si>
-  <si>
-    <t>UFC vegas</t>
-  </si>
-  <si>
-    <t>VegasMiraBet</t>
-  </si>
-  <si>
-    <t>Pardon my pick</t>
-  </si>
-  <si>
-    <t>Alpha picks</t>
-  </si>
-  <si>
-    <t>JaCavalier</t>
-  </si>
-  <si>
-    <t>Zachs Bets</t>
-  </si>
-  <si>
-    <t>Dan Apuestas</t>
-  </si>
-  <si>
-    <t>Hammering Hank</t>
-  </si>
-  <si>
-    <t>Fredo</t>
-  </si>
-  <si>
-    <t>Danipicks</t>
-  </si>
-  <si>
-    <t>HugoEsports</t>
-  </si>
-  <si>
-    <t>Juan Apuestas</t>
-  </si>
-  <si>
-    <t>Kin Apuestas</t>
-  </si>
-  <si>
-    <t>KingBets</t>
-  </si>
-  <si>
-    <t>Lobo</t>
-  </si>
-  <si>
-    <t>MatiasBets</t>
-  </si>
-  <si>
-    <t>NDO Bets</t>
-  </si>
-  <si>
-    <t>TrujiPicks</t>
-  </si>
-  <si>
-    <t>Tu comvi</t>
-  </si>
-  <si>
-    <t>Sebastian Reyes</t>
-  </si>
-  <si>
-    <t>Señor Apuestas</t>
-  </si>
-  <si>
-    <t>SportsApuestas</t>
-  </si>
-  <si>
-    <t>SportsBets</t>
-  </si>
-  <si>
-    <t>Apuestas peru</t>
-  </si>
-  <si>
-    <t>Crack de las apuestas</t>
-  </si>
-  <si>
-    <t>Ingeniero de las apuestas</t>
-  </si>
-  <si>
-    <t>Las fijas de BYR</t>
-  </si>
-  <si>
-    <t>Neo Apuestas</t>
-  </si>
-  <si>
-    <t>Pharaon</t>
-  </si>
-  <si>
-    <t>ProAnalyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La suca </t>
-  </si>
-  <si>
-    <t>PronosVIP</t>
-  </si>
-  <si>
-    <t>El Mago</t>
-  </si>
-  <si>
-    <t>Loco de las Apuestas</t>
-  </si>
-  <si>
-    <t>Einstein Analistas</t>
-  </si>
-  <si>
-    <t>SITO</t>
-  </si>
-  <si>
-    <t>Rey Analista</t>
-  </si>
-  <si>
-    <t>Tenis 10 VIP</t>
-  </si>
-  <si>
-    <t>Daily4Tips</t>
-  </si>
-  <si>
-    <t>JJAnalistas</t>
-  </si>
-  <si>
-    <t>Inversiones Deportivas</t>
-  </si>
-  <si>
-    <t>Thunder bets</t>
-  </si>
-  <si>
-    <t>Miss Winner</t>
-  </si>
-  <si>
-    <t>Canal_ID</t>
-  </si>
-  <si>
-    <t>Alta Efectividad</t>
-  </si>
-  <si>
-    <t>Revista Reyes</t>
+    <t>Niño picks</t>
   </si>
   <si>
     <t>Lara Basado</t>
   </si>
   <si>
-    <t>Cristian Rey APP</t>
-  </si>
-  <si>
-    <t>Marco Rey APP</t>
-  </si>
-  <si>
-    <t>NFL Stats</t>
-  </si>
-  <si>
-    <t>Oscar Marquez</t>
-  </si>
-  <si>
-    <t>Dbets</t>
-  </si>
-  <si>
-    <t>Hassido</t>
-  </si>
-  <si>
-    <t>Revista Sharp</t>
-  </si>
-  <si>
-    <t>Cristian rey mensual</t>
-  </si>
-  <si>
-    <t>Anual cristian rey</t>
-  </si>
-  <si>
-    <t>Consejo Abuelo APP</t>
-  </si>
-  <si>
-    <t>Oscar Rey APP</t>
-  </si>
-  <si>
-    <t>Roberto Rey APP</t>
-  </si>
-  <si>
-    <t>chapito NFL</t>
-  </si>
-  <si>
-    <t>Retos chapito</t>
-  </si>
-  <si>
-    <t>Garantizado diego palafox</t>
-  </si>
-  <si>
-    <t>FrostyParlays</t>
-  </si>
-  <si>
-    <t>FrostyEsports</t>
-  </si>
-  <si>
-    <t>hugo wx garantizado</t>
-  </si>
-  <si>
-    <t>Retos hugowx</t>
-  </si>
-  <si>
-    <t>Iluminati</t>
-  </si>
-  <si>
-    <t>Garantizado iluminati</t>
-  </si>
-  <si>
-    <t>NFL iluminati</t>
-  </si>
-  <si>
-    <t>Retos japo</t>
-  </si>
-  <si>
-    <t>Asegurado mera fiera</t>
-  </si>
-  <si>
-    <t>Garantizado los picks del gordo</t>
-  </si>
-  <si>
-    <t>LMB pirrupicks</t>
-  </si>
-  <si>
-    <t>RevovlerBets</t>
-  </si>
-  <si>
-    <t>Vikingo Negro</t>
-  </si>
-  <si>
-    <t>Parlays Exoticos gallitovip</t>
-  </si>
-  <si>
-    <t>bombas gallitovip</t>
-  </si>
-  <si>
-    <t>Niño picks</t>
-  </si>
-  <si>
-    <t>el profe stakes</t>
-  </si>
-  <si>
-    <t>El profe VIP</t>
-  </si>
-  <si>
-    <t>Winner Apuestas</t>
-  </si>
-  <si>
-    <t>Sports peru</t>
-  </si>
-  <si>
-    <t>Cabezas premium</t>
-  </si>
-  <si>
-    <t>KinPicks</t>
-  </si>
-  <si>
-    <t>Los Rey APP</t>
-  </si>
-  <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Ruben Picks</t>
-  </si>
-  <si>
-    <t>Verdeando Club</t>
-  </si>
-  <si>
-    <t>Doctor Apuesta</t>
-  </si>
-  <si>
-    <t>I. A. Bet</t>
-  </si>
-  <si>
-    <t>P. PR. T.S. Apuestas</t>
-  </si>
-  <si>
-    <t>Stakazo Oro Verde</t>
-  </si>
-  <si>
-    <t>Ex Teenista Profesional</t>
-  </si>
-  <si>
-    <t>Oro VIP</t>
-  </si>
-  <si>
-    <t>MainPlay</t>
-  </si>
-  <si>
-    <t>DaniPicks stakes</t>
+    <t>BestBet</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -556,13 +556,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -627,38 +658,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
@@ -688,11 +687,11 @@
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="2" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -703,8 +702,8 @@
   <autoFilter ref="A1:C6" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{346C6369-3CA9-4479-A4F6-C3213A94BE47}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1029,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,10 +1045,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1072,10 +1071,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>10000</v>
@@ -1093,10 +1092,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>10000</v>
@@ -1110,10 +1109,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>10000</v>
@@ -1136,10 +1135,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2">
         <v>10000</v>
@@ -1162,10 +1161,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2">
         <v>10000</v>
@@ -1188,10 +1187,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2">
         <v>10000</v>
@@ -1214,10 +1213,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2">
         <v>10000</v>
@@ -1240,10 +1239,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2">
         <v>10000</v>
@@ -1263,10 +1262,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>10000</v>
@@ -1286,10 +1285,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
         <v>10000</v>
@@ -1309,10 +1308,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>10000</v>
@@ -1332,10 +1331,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <v>10000</v>
@@ -1355,10 +1354,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>10000</v>
@@ -1372,10 +1371,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>10000</v>
@@ -1383,7 +1382,7 @@
       <c r="D15" s="2">
         <v>8427</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" s="5">
@@ -1395,10 +1394,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>10000</v>
@@ -1406,7 +1405,7 @@
       <c r="D16" s="2">
         <v>9753</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>13</v>
       </c>
       <c r="F16" s="5">
@@ -1418,10 +1417,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <v>10000</v>
@@ -1441,10 +1440,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
         <v>10000</v>
@@ -1457,10 +1456,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
         <v>10000</v>
@@ -1480,10 +1479,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
         <v>10000</v>
@@ -1498,10 +1497,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>10000</v>
@@ -1524,15 +1523,15 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
         <v>10000</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="2">
         <v>8176</v>
       </c>
       <c r="E22" s="5">
@@ -1547,10 +1546,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
         <v>10000</v>
@@ -1573,10 +1572,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
         <v>10000</v>
@@ -1592,10 +1591,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
         <v>10000</v>
@@ -1609,10 +1608,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
         <v>10000</v>
@@ -1632,10 +1631,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2">
         <v>10000</v>
@@ -1655,10 +1654,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
         <v>10000</v>
@@ -1678,10 +1677,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
         <v>10000</v>
@@ -1701,10 +1700,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
         <v>10000</v>
@@ -1727,10 +1726,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
         <v>10000</v>
@@ -1744,10 +1743,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2">
         <v>10000</v>
@@ -1767,10 +1766,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2">
         <v>10000</v>
@@ -1793,10 +1792,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2">
         <v>10000</v>
@@ -1819,10 +1818,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2">
         <v>10000</v>
@@ -1842,10 +1841,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
         <v>10000</v>
@@ -1865,10 +1864,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2">
         <v>10000</v>
@@ -1888,10 +1887,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2">
         <v>10000</v>
@@ -1904,10 +1903,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
         <v>10000</v>
@@ -1927,10 +1926,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2">
         <v>10000</v>
@@ -1953,10 +1952,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
         <v>10000</v>
@@ -1979,7 +1978,7 @@
         <v>124</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2">
         <v>10000</v>
@@ -1999,10 +1998,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
         <v>10000</v>
@@ -2025,10 +2024,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2">
         <v>10000</v>
@@ -2041,10 +2040,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2">
         <v>10000</v>
@@ -2067,10 +2066,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2">
         <v>10000</v>
@@ -2090,10 +2089,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2">
         <v>10000</v>
@@ -2106,10 +2105,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2">
         <v>10000</v>
@@ -2122,10 +2121,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2">
         <v>10000</v>
@@ -2138,10 +2137,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2">
         <v>10000</v>
@@ -2164,10 +2163,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C51" s="2">
         <v>10000</v>
@@ -2187,10 +2186,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2">
         <v>10000</v>
@@ -2213,10 +2212,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2">
         <v>10000</v>
@@ -2234,10 +2233,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2">
         <v>10000</v>
@@ -2251,10 +2250,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2">
         <v>10000</v>
@@ -2277,10 +2276,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2">
         <v>10000</v>
@@ -2300,10 +2299,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2">
         <v>10000</v>
@@ -2326,10 +2325,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2">
         <v>10000</v>
@@ -2352,10 +2351,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C59" s="2">
         <v>10000</v>
@@ -2375,10 +2374,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C60" s="2">
         <v>10000</v>
@@ -2393,10 +2392,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2">
         <v>10000</v>
@@ -2416,10 +2415,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2">
         <v>10000</v>
@@ -2439,10 +2438,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C63" s="2">
         <v>10000</v>
@@ -2465,10 +2464,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2">
         <v>10000</v>
@@ -2489,10 +2488,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2">
         <v>10000</v>
@@ -2511,11 +2510,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>43</v>
+      <c r="A66" t="s">
+        <v>11</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C66" s="2">
         <v>10000</v>
@@ -2535,10 +2534,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C67" s="2">
         <v>10000</v>
@@ -2558,10 +2557,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2">
         <v>10000</v>
@@ -2581,10 +2580,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C69" s="2">
         <v>10000</v>
@@ -2602,10 +2601,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C70" s="2">
         <v>10000</v>
@@ -2619,10 +2618,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C71" s="2">
         <v>10000</v>
@@ -2642,10 +2641,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2">
         <v>10000</v>
@@ -2665,10 +2664,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2">
         <v>10000</v>
@@ -2688,10 +2687,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C74" s="2">
         <v>10000</v>
@@ -2714,10 +2713,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2">
         <v>10000</v>
@@ -2737,10 +2736,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C76" s="2">
         <v>10000</v>
@@ -2760,10 +2759,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2">
         <v>10000</v>
@@ -2783,10 +2782,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C78" s="2">
         <v>10000</v>
@@ -2809,10 +2808,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2">
         <v>10000</v>
@@ -2832,10 +2831,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C80" s="2">
         <v>10000</v>
@@ -2858,10 +2857,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C81" s="2">
         <v>10000</v>
@@ -2881,10 +2880,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2">
         <v>10000</v>
@@ -2905,10 +2904,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83" s="2">
         <v>10000</v>
@@ -2931,10 +2930,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2">
         <v>10000</v>
@@ -2954,10 +2953,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2">
         <v>10000</v>
@@ -2980,10 +2979,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2">
         <v>10000</v>
@@ -3006,10 +3005,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2">
         <v>10000</v>
@@ -3029,10 +3028,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C88" s="2">
         <v>10000</v>
@@ -3046,10 +3045,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C89" s="2">
         <v>10000</v>
@@ -3063,10 +3062,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C90" s="2">
         <v>10000</v>
@@ -3089,10 +3088,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C91" s="2">
         <v>10000</v>
@@ -3112,10 +3111,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C92" s="2">
         <v>10000</v>
@@ -3135,10 +3134,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C93" s="2">
         <v>10000</v>
@@ -3152,10 +3151,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C94" s="2">
         <v>10000</v>
@@ -3175,10 +3174,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2">
         <v>10000</v>
@@ -3198,10 +3197,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C96" s="2">
         <v>10000</v>
@@ -3221,10 +3220,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C97" s="2">
         <v>10000</v>
@@ -3244,10 +3243,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C98" s="2">
         <v>10000</v>
@@ -3267,10 +3266,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C99" s="2">
         <v>10000</v>
@@ -3293,10 +3292,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2">
         <v>10000</v>
@@ -3316,10 +3315,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C101" s="2">
         <v>10000</v>
@@ -3339,10 +3338,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C102" s="2">
         <v>10000</v>
@@ -3362,10 +3361,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C103" s="2">
         <v>10000</v>
@@ -3388,10 +3387,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C104" s="2">
         <v>10000</v>
@@ -3414,10 +3413,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C105" s="2">
         <v>10000</v>
@@ -3437,10 +3436,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C106" s="2">
         <v>10000</v>
@@ -3460,10 +3459,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C107" s="2">
         <v>10000</v>
@@ -3483,10 +3482,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C108" s="2">
         <v>10000</v>
@@ -3506,10 +3505,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C109" s="2">
         <v>10000</v>
@@ -3523,10 +3522,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2">
         <v>10000</v>
@@ -3540,10 +3539,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C111" s="2">
         <v>10000</v>
@@ -3557,10 +3556,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C112" s="2">
         <v>10000</v>
@@ -3580,10 +3579,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C113" s="2">
         <v>10000</v>
@@ -3603,10 +3602,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C114" s="2">
         <v>10000</v>
@@ -3620,10 +3619,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C115" s="2">
         <v>10000</v>
@@ -3643,10 +3642,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C116" s="2">
         <v>10000</v>
@@ -3666,10 +3665,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C117" s="2">
         <v>10000</v>
@@ -3689,10 +3688,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C118" s="2">
         <v>10000</v>
@@ -3707,10 +3706,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C119" s="2">
         <v>10000</v>
@@ -3730,10 +3729,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C120" s="2">
         <v>10000</v>
@@ -3753,10 +3752,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C121" s="2">
         <v>10000</v>
@@ -3776,10 +3775,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C122" s="2">
         <v>10000</v>
@@ -3799,10 +3798,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C123" s="2">
         <v>10000</v>
@@ -3825,10 +3824,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C124" s="2">
         <v>10000</v>
@@ -3849,10 +3848,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C125" s="2">
         <v>10000</v>
@@ -3867,10 +3866,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C126" s="2">
         <v>10000</v>
@@ -3893,10 +3892,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>139</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C127" s="2">
         <v>10000</v>
@@ -3919,9 +3918,9 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>140</v>
-      </c>
-      <c r="B128" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="2">
@@ -3943,10 +3942,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C129" s="2">
         <v>10000</v>
@@ -3963,10 +3962,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C130" s="2">
         <v>10000</v>
@@ -3989,10 +3988,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C131" s="2">
         <v>10000</v>
@@ -4013,10 +4012,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C132" s="2">
         <v>10000</v>
@@ -4033,10 +4032,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C133" s="2">
         <v>10000</v>
@@ -4057,10 +4056,14 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>147</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="2">
+        <v>10000</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -4092,18 +4095,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>-1002002230427</v>
@@ -4114,7 +4117,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>-1001956367839</v>
@@ -4125,7 +4128,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>-1002139886828</v>
@@ -4136,7 +4139,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="B5" s="9">
         <v>-1002116542537</v>
@@ -4147,7 +4150,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4">
         <v>-1002054332150</v>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774CAA15-A4DC-410E-8239-4BDFF3E90F76}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{963CD2F3-5D50-4F6E-801C-F9FACB93DCEB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
     <t>Lara Basado</t>
   </si>
   <si>
-    <t>BestBet</t>
+    <t>Main Play</t>
   </si>
 </sst>
 </file>
@@ -574,38 +574,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
@@ -658,6 +626,38 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
@@ -676,10 +676,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H134" totalsRowShown="0">
   <autoFilter ref="A1:H134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
@@ -687,11 +683,11 @@
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="5" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="0" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,8 +698,8 @@
   <autoFilter ref="A1:C6" xr:uid="{4A30C160-4B81-4A74-828B-01A356B23AC2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{346C6369-3CA9-4479-A4F6-C3213A94BE47}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5B6830F4-6925-4F16-AA6D-AB1BF73D43C3}" name="Canal_ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7842CDC1-496D-41B8-8E53-6AFDEA47B882}" name="Columna1" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1028,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,16 +1117,13 @@
         <v>10000</v>
       </c>
       <c r="E4" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,13 +1143,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
-        <v>56</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1173,16 +1163,13 @@
         <v>10000</v>
       </c>
       <c r="E6" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" s="5">
-        <v>65</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,16 +1212,13 @@
         <v>10000</v>
       </c>
       <c r="E8" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="5">
-        <v>55</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,16 +1232,16 @@
         <v>10000</v>
       </c>
       <c r="D9" s="2">
-        <v>7504</v>
+        <v>8775</v>
       </c>
       <c r="E9" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,16 +1278,16 @@
         <v>10000</v>
       </c>
       <c r="D11" s="2">
-        <v>9682</v>
+        <v>8774</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1317,16 +1301,16 @@
         <v>10000</v>
       </c>
       <c r="D12" s="2">
-        <v>8932</v>
+        <v>10072</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1380,16 +1364,16 @@
         <v>10000</v>
       </c>
       <c r="D15" s="2">
-        <v>8427</v>
+        <v>8327</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,16 +1387,16 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2">
-        <v>9753</v>
+        <v>6544</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F16" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G16" s="5">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1426,16 +1410,19 @@
         <v>10000</v>
       </c>
       <c r="D17" s="2">
-        <v>11000</v>
+        <v>12250</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="5">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,16 +1452,19 @@
         <v>10000</v>
       </c>
       <c r="D19" s="2">
-        <v>7912</v>
+        <v>8422</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="5">
         <v>12</v>
       </c>
       <c r="G19" s="5">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,10 +1478,10 @@
         <v>10000</v>
       </c>
       <c r="D20" s="2">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="F20" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -1506,19 +1496,19 @@
         <v>10000</v>
       </c>
       <c r="D21" s="2">
-        <v>11032</v>
+        <v>11239</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
       </c>
       <c r="G21" s="5">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,19 +1545,16 @@
         <v>10000</v>
       </c>
       <c r="D23" s="2">
-        <v>20609</v>
+        <v>14433</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G23" s="5">
-        <v>68</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1640,16 +1627,19 @@
         <v>10000</v>
       </c>
       <c r="D27" s="2">
-        <v>13404</v>
+        <v>17890</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F27" s="5">
         <v>8</v>
       </c>
       <c r="G27" s="5">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,19 +1699,16 @@
         <v>10000</v>
       </c>
       <c r="D30" s="2">
-        <v>10740</v>
+        <v>10308</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F30" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G30" s="5">
-        <v>67</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1752,16 +1739,16 @@
         <v>10000</v>
       </c>
       <c r="D32" s="2">
-        <v>8450</v>
+        <v>9270</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G32" s="5">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,19 +1762,19 @@
         <v>10000</v>
       </c>
       <c r="D33" s="2">
-        <v>10705</v>
+        <v>11430</v>
       </c>
       <c r="E33" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="5">
         <v>3</v>
       </c>
       <c r="G33" s="5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1830,13 +1817,13 @@
         <v>5620</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F35" s="5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G35" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,19 +1922,16 @@
         <v>10000</v>
       </c>
       <c r="D40" s="2">
-        <v>10348</v>
+        <v>10408</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="5">
-        <v>67</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,16 +1945,16 @@
         <v>10000</v>
       </c>
       <c r="D41" s="2">
-        <v>12060</v>
+        <v>11635</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F41" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" s="5">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2007,19 +1991,19 @@
         <v>10000</v>
       </c>
       <c r="D43" s="2">
-        <v>9585</v>
+        <v>13305</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F43" s="5">
         <v>5</v>
       </c>
       <c r="G43" s="5">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2049,16 +2033,16 @@
         <v>10000</v>
       </c>
       <c r="D45" s="2">
-        <v>15990</v>
+        <v>16770</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" s="5">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -2075,16 +2059,16 @@
         <v>10000</v>
       </c>
       <c r="D46" s="2">
-        <v>9920</v>
+        <v>10160</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="5">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,19 +2130,16 @@
         <v>10000</v>
       </c>
       <c r="D50" s="2">
-        <v>10780</v>
+        <v>11406</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F50" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G50" s="5">
-        <v>60</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2195,13 +2176,13 @@
         <v>10000</v>
       </c>
       <c r="D52" s="2">
-        <v>8344</v>
+        <v>11154</v>
       </c>
       <c r="E52" s="5">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5">
         <v>14</v>
-      </c>
-      <c r="F52" s="5">
-        <v>11</v>
       </c>
       <c r="G52" s="5">
         <v>56</v>
@@ -2285,16 +2266,16 @@
         <v>10000</v>
       </c>
       <c r="D56" s="2">
-        <v>11495</v>
+        <v>10457</v>
       </c>
       <c r="E56" s="5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F56" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G56" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2308,19 +2289,16 @@
         <v>10000</v>
       </c>
       <c r="D57" s="2">
-        <v>13762</v>
+        <v>14512</v>
       </c>
       <c r="E57" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F57" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57" s="5">
-        <v>88</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2334,19 +2312,19 @@
         <v>10000</v>
       </c>
       <c r="D58" s="2">
-        <v>10823</v>
+        <v>11358</v>
       </c>
       <c r="E58" s="5">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F58" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" s="5">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2401,16 +2379,16 @@
         <v>10000</v>
       </c>
       <c r="D61" s="2">
-        <v>10130</v>
+        <v>9785</v>
       </c>
       <c r="E61" s="5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F61" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G61" s="5">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2424,16 +2402,16 @@
         <v>10000</v>
       </c>
       <c r="D62" s="2">
-        <v>8488</v>
+        <v>7966</v>
       </c>
       <c r="E62" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F62" s="5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G62" s="5">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,19 +2425,16 @@
         <v>10000</v>
       </c>
       <c r="D63" s="2">
-        <v>11075</v>
+        <v>10775</v>
       </c>
       <c r="E63" s="5">
         <v>9</v>
       </c>
       <c r="F63" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G63" s="5">
-        <v>60</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,16 +2448,16 @@
         <v>10000</v>
       </c>
       <c r="D64" s="2">
-        <v>9100</v>
+        <v>9580</v>
       </c>
       <c r="E64" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F64" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G64" s="5">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H64" s="5"/>
     </row>
@@ -2497,16 +2472,16 @@
         <v>10000</v>
       </c>
       <c r="D65" s="2">
-        <v>10320</v>
+        <v>6320</v>
       </c>
       <c r="E65" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G65" s="5">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2520,16 +2495,16 @@
         <v>10000</v>
       </c>
       <c r="D66" s="2">
-        <v>9620</v>
+        <v>9351</v>
       </c>
       <c r="E66" s="5">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F66" s="5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G66" s="5">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2566,16 +2541,19 @@
         <v>10000</v>
       </c>
       <c r="D68" s="2">
-        <v>11302</v>
+        <v>13634</v>
       </c>
       <c r="E68" s="5">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F68" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G68" s="5">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2589,15 +2567,18 @@
         <v>10000</v>
       </c>
       <c r="D69" s="2">
-        <v>11360</v>
+        <v>12690</v>
       </c>
       <c r="E69" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5">
         <v>100</v>
       </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -2627,16 +2608,16 @@
         <v>10000</v>
       </c>
       <c r="D71" s="2">
-        <v>10360</v>
+        <v>9360</v>
       </c>
       <c r="E71" s="5">
         <v>5</v>
       </c>
       <c r="F71" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G71" s="5">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2673,16 +2654,16 @@
         <v>10000</v>
       </c>
       <c r="D73" s="2">
-        <v>6580</v>
+        <v>6735</v>
       </c>
       <c r="E73" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F73" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G73" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2696,16 +2677,16 @@
         <v>10000</v>
       </c>
       <c r="D74" s="2">
-        <v>10523</v>
+        <v>10604</v>
       </c>
       <c r="E74" s="5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F74" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G74" s="5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -2722,16 +2703,16 @@
         <v>10000</v>
       </c>
       <c r="D75" s="2">
-        <v>10400</v>
+        <v>11800</v>
       </c>
       <c r="E75" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="5">
         <v>1</v>
       </c>
       <c r="G75" s="5">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2745,16 +2726,16 @@
         <v>10000</v>
       </c>
       <c r="D76" s="2">
-        <v>8170</v>
+        <v>7170</v>
       </c>
       <c r="E76" s="5">
         <v>4</v>
       </c>
       <c r="F76" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" s="5">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2768,16 +2749,16 @@
         <v>10000</v>
       </c>
       <c r="D77" s="2">
-        <v>9655</v>
+        <v>8072</v>
       </c>
       <c r="E77" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F77" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G77" s="5">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2791,19 +2772,19 @@
         <v>10000</v>
       </c>
       <c r="D78" s="2">
-        <v>10944</v>
+        <v>10878</v>
       </c>
       <c r="E78" s="5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F78" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" s="5">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2817,16 +2798,16 @@
         <v>10000</v>
       </c>
       <c r="D79" s="2">
-        <v>7857</v>
+        <v>9061</v>
       </c>
       <c r="E79" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2840,19 +2821,16 @@
         <v>10000</v>
       </c>
       <c r="D80" s="2">
-        <v>8781</v>
+        <v>8281</v>
       </c>
       <c r="E80" s="5">
         <v>16</v>
       </c>
       <c r="F80" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" s="5">
-        <v>55</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2866,16 +2844,19 @@
         <v>10000</v>
       </c>
       <c r="D81" s="2">
-        <v>9773</v>
+        <v>10763</v>
       </c>
       <c r="E81" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" s="5">
         <v>2</v>
       </c>
       <c r="G81" s="5">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2889,18 +2870,20 @@
         <v>10000</v>
       </c>
       <c r="D82" s="2">
-        <v>9725</v>
+        <v>10425</v>
       </c>
       <c r="E82" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82" s="5">
         <v>2</v>
       </c>
       <c r="G82" s="5">
-        <v>50</v>
-      </c>
-      <c r="H82" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2913,19 +2896,16 @@
         <v>10000</v>
       </c>
       <c r="D83" s="2">
-        <v>11564</v>
+        <v>11246</v>
       </c>
       <c r="E83" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G83" s="5">
-        <v>75</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2939,16 +2919,16 @@
         <v>10000</v>
       </c>
       <c r="D84" s="2">
-        <v>10525</v>
+        <v>9625</v>
       </c>
       <c r="E84" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G84" s="5">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2962,20 +2942,18 @@
         <v>10000</v>
       </c>
       <c r="D85" s="2">
-        <v>15670</v>
+        <v>11950</v>
       </c>
       <c r="E85" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F85" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G85" s="5">
-        <v>80</v>
-      </c>
-      <c r="H85" s="7">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -2988,19 +2966,19 @@
         <v>10000</v>
       </c>
       <c r="D86" s="2">
-        <v>17710</v>
+        <v>12460</v>
       </c>
       <c r="E86" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F86" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G86" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,16 +2992,19 @@
         <v>10000</v>
       </c>
       <c r="D87" s="2">
-        <v>9930</v>
+        <v>8658</v>
       </c>
       <c r="E87" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F87" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G87" s="5">
         <v>50</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3071,19 +3052,19 @@
         <v>10000</v>
       </c>
       <c r="D90" s="2">
-        <v>8700</v>
+        <v>10070</v>
       </c>
       <c r="E90" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F90" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G90" s="5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3097,16 +3078,19 @@
         <v>10000</v>
       </c>
       <c r="D91" s="2">
-        <v>19650</v>
+        <v>33300</v>
       </c>
       <c r="E91" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F91" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G91" s="5">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3206,16 +3190,16 @@
         <v>10000</v>
       </c>
       <c r="D96" s="2">
-        <v>3960</v>
+        <v>12940</v>
       </c>
       <c r="E96" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F96" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G96" s="5">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3229,16 +3213,19 @@
         <v>10000</v>
       </c>
       <c r="D97" s="2">
-        <v>10879</v>
+        <v>12302</v>
       </c>
       <c r="E97" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97" s="5">
         <v>1</v>
       </c>
       <c r="G97" s="5">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3252,16 +3239,16 @@
         <v>10000</v>
       </c>
       <c r="D98" s="2">
-        <v>8900</v>
+        <v>8720</v>
       </c>
       <c r="E98" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G98" s="5">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3275,19 +3262,16 @@
         <v>10000</v>
       </c>
       <c r="D99" s="2">
-        <v>12149</v>
+        <v>11895</v>
       </c>
       <c r="E99" s="5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F99" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G99" s="5">
-        <v>73</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3301,13 +3285,13 @@
         <v>10000</v>
       </c>
       <c r="D100" s="2">
-        <v>8856</v>
+        <v>8476</v>
       </c>
       <c r="E100" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F100" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G100" s="5">
         <v>52</v>
@@ -3324,16 +3308,19 @@
         <v>10000</v>
       </c>
       <c r="D101" s="2">
-        <v>10470</v>
+        <v>10910</v>
       </c>
       <c r="E101" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F101" s="5">
+        <v>5</v>
+      </c>
+      <c r="G101" s="5">
+        <v>64</v>
+      </c>
+      <c r="H101">
         <v>1</v>
-      </c>
-      <c r="G101" s="5">
-        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3370,19 +3357,19 @@
         <v>10000</v>
       </c>
       <c r="D103" s="2">
-        <v>10350</v>
+        <v>11180</v>
       </c>
       <c r="E103" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F103" s="5">
         <v>4</v>
       </c>
       <c r="G103" s="5">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3396,19 +3383,19 @@
         <v>10000</v>
       </c>
       <c r="D104" s="2">
-        <v>14654</v>
+        <v>15659</v>
       </c>
       <c r="E104" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F104" s="5">
         <v>5</v>
       </c>
       <c r="G104" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3445,16 +3432,16 @@
         <v>10000</v>
       </c>
       <c r="D106" s="2">
-        <v>6790</v>
+        <v>7618</v>
       </c>
       <c r="E106" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F106" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G106" s="5">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3491,16 +3478,16 @@
         <v>10000</v>
       </c>
       <c r="D108" s="2">
-        <v>9450</v>
+        <v>6350</v>
       </c>
       <c r="E108" s="5">
         <v>4</v>
       </c>
       <c r="F108" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G108" s="5">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3565,16 +3552,16 @@
         <v>10000</v>
       </c>
       <c r="D112" s="2">
-        <v>10110</v>
+        <v>9110</v>
       </c>
       <c r="E112" s="5">
         <v>3</v>
       </c>
       <c r="F112" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G112" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3654,13 +3641,13 @@
         <v>7430</v>
       </c>
       <c r="E116" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F116" s="5">
         <v>8</v>
       </c>
       <c r="G116" s="5">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3674,16 +3661,16 @@
         <v>10000</v>
       </c>
       <c r="D117" s="2">
-        <v>5670</v>
+        <v>6370</v>
       </c>
       <c r="E117" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" s="5">
         <v>7</v>
       </c>
       <c r="G117" s="5">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,13 +3702,13 @@
         <v>10000</v>
       </c>
       <c r="D119" s="2">
-        <v>9270</v>
+        <v>8830</v>
       </c>
       <c r="E119" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="5">
         <v>50</v>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{963CD2F3-5D50-4F6E-801C-F9FACB93DCEB}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52A199C4-6B20-45E9-87F0-6E934536C7CF}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -674,6 +674,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,22 +1028,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H134"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1082,11 +1086,9 @@
       <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1103,7 +1105,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1117,16 +1119,16 @@
         <v>10000</v>
       </c>
       <c r="E4" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -1172,7 +1174,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1235,16 +1237,16 @@
         <v>8775</v>
       </c>
       <c r="E9" s="5">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5">
         <v>45</v>
       </c>
-      <c r="F9" s="5">
-        <v>42</v>
-      </c>
       <c r="G9" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1255,19 +1257,19 @@
         <v>10000</v>
       </c>
       <c r="D10" s="2">
-        <v>10450</v>
+        <v>8830</v>
       </c>
       <c r="E10" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1324,19 +1326,19 @@
         <v>10000</v>
       </c>
       <c r="D13" s="2">
-        <v>10447</v>
+        <v>8447</v>
       </c>
       <c r="E13" s="5">
         <v>5</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -1353,7 +1355,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -1387,19 +1389,19 @@
         <v>10000</v>
       </c>
       <c r="D16" s="2">
-        <v>6544</v>
+        <v>5461</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1416,16 +1418,13 @@
         <v>2</v>
       </c>
       <c r="F17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="5">
-        <v>67</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -1441,7 +1440,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1452,22 +1451,19 @@
         <v>10000</v>
       </c>
       <c r="D19" s="2">
-        <v>8422</v>
+        <v>7795</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="5">
-        <v>37</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -1485,7 +1481,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -1534,7 +1530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1545,19 +1541,22 @@
         <v>10000</v>
       </c>
       <c r="D23" s="2">
-        <v>14433</v>
+        <v>17205</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F23" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -1576,7 +1575,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -1593,7 +1592,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -1699,19 +1698,22 @@
         <v>10000</v>
       </c>
       <c r="D30" s="2">
-        <v>10308</v>
+        <v>10736</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1728,7 +1730,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -1814,19 +1816,19 @@
         <v>10000</v>
       </c>
       <c r="D35" s="2">
-        <v>5620</v>
+        <v>6430</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -1872,7 +1874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -1888,7 +1890,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -1911,7 +1913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -1925,16 +1927,19 @@
         <v>10408</v>
       </c>
       <c r="E40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -1945,19 +1950,22 @@
         <v>10000</v>
       </c>
       <c r="D41" s="2">
-        <v>11635</v>
+        <v>11835</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F41" s="5">
         <v>10</v>
       </c>
       <c r="G41" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -1980,7 +1988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -1991,22 +1999,19 @@
         <v>10000</v>
       </c>
       <c r="D43" s="2">
-        <v>13305</v>
+        <v>13075</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" s="5">
-        <v>67</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -2022,7 +2027,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -2033,22 +2038,22 @@
         <v>10000</v>
       </c>
       <c r="D45" s="2">
-        <v>16770</v>
+        <v>198100</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F45" s="5">
         <v>6</v>
       </c>
       <c r="G45" s="5">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -2059,19 +2064,22 @@
         <v>10000</v>
       </c>
       <c r="D46" s="2">
-        <v>10160</v>
+        <v>10391</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="5">
         <v>3</v>
       </c>
       <c r="G46" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -2087,7 +2095,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -2103,7 +2111,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -2119,7 +2127,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -2176,22 +2184,22 @@
         <v>10000</v>
       </c>
       <c r="D52" s="2">
-        <v>11154</v>
+        <v>9844</v>
       </c>
       <c r="E52" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -2212,7 +2220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -2229,7 +2237,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -2266,19 +2274,19 @@
         <v>10000</v>
       </c>
       <c r="D56" s="2">
-        <v>10457</v>
+        <v>10667</v>
       </c>
       <c r="E56" s="5">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F56" s="5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G56" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -2289,19 +2297,19 @@
         <v>10000</v>
       </c>
       <c r="D57" s="2">
-        <v>14512</v>
+        <v>14764</v>
       </c>
       <c r="E57" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F57" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G57" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -2312,22 +2320,22 @@
         <v>10000</v>
       </c>
       <c r="D58" s="2">
-        <v>11358</v>
+        <v>11546</v>
       </c>
       <c r="E58" s="5">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F58" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G58" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -2350,7 +2358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -2368,7 +2376,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -2379,19 +2387,19 @@
         <v>10000</v>
       </c>
       <c r="D61" s="2">
-        <v>9785</v>
+        <v>9680</v>
       </c>
       <c r="E61" s="5">
         <v>19</v>
       </c>
       <c r="F61" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G61" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -2402,19 +2410,19 @@
         <v>10000</v>
       </c>
       <c r="D62" s="2">
-        <v>7966</v>
+        <v>7038</v>
       </c>
       <c r="E62" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F62" s="5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G62" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -2425,19 +2433,19 @@
         <v>10000</v>
       </c>
       <c r="D63" s="2">
-        <v>10775</v>
+        <v>10425</v>
       </c>
       <c r="E63" s="5">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5">
         <v>9</v>
       </c>
-      <c r="F63" s="5">
-        <v>7</v>
-      </c>
       <c r="G63" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -2448,20 +2456,20 @@
         <v>10000</v>
       </c>
       <c r="D64" s="2">
-        <v>9580</v>
+        <v>10395</v>
       </c>
       <c r="E64" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F64" s="5">
         <v>23</v>
       </c>
       <c r="G64" s="5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -2472,19 +2480,19 @@
         <v>10000</v>
       </c>
       <c r="D65" s="2">
-        <v>6320</v>
+        <v>5320</v>
       </c>
       <c r="E65" s="5">
         <v>5</v>
       </c>
       <c r="F65" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -2495,19 +2503,19 @@
         <v>10000</v>
       </c>
       <c r="D66" s="2">
-        <v>9351</v>
+        <v>8679</v>
       </c>
       <c r="E66" s="5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F66" s="5">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G66" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2530,7 +2538,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -2541,22 +2549,22 @@
         <v>10000</v>
       </c>
       <c r="D68" s="2">
-        <v>13634</v>
+        <v>13784</v>
       </c>
       <c r="E68" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F68" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68" s="5">
         <v>66</v>
       </c>
       <c r="H68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2597,7 +2605,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -2643,7 +2651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2654,19 +2662,19 @@
         <v>10000</v>
       </c>
       <c r="D73" s="2">
-        <v>6735</v>
+        <v>6733</v>
       </c>
       <c r="E73" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F73" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -2677,22 +2685,22 @@
         <v>10000</v>
       </c>
       <c r="D74" s="2">
-        <v>10604</v>
+        <v>10635</v>
       </c>
       <c r="E74" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F74" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G74" s="5">
         <v>64</v>
       </c>
       <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2715,7 +2723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -2726,19 +2734,19 @@
         <v>10000</v>
       </c>
       <c r="D76" s="2">
-        <v>7170</v>
+        <v>6170</v>
       </c>
       <c r="E76" s="5">
         <v>4</v>
       </c>
       <c r="F76" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -2749,19 +2757,19 @@
         <v>10000</v>
       </c>
       <c r="D77" s="2">
-        <v>8072</v>
+        <v>8332</v>
       </c>
       <c r="E77" s="5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F77" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G77" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2772,22 +2780,19 @@
         <v>10000</v>
       </c>
       <c r="D78" s="2">
-        <v>10878</v>
+        <v>7932</v>
       </c>
       <c r="E78" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G78" s="5">
-        <v>63</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -2810,7 +2815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -2824,16 +2829,16 @@
         <v>8281</v>
       </c>
       <c r="E80" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F80" s="5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G80" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -2859,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -2896,19 +2901,19 @@
         <v>10000</v>
       </c>
       <c r="D83" s="2">
-        <v>11246</v>
+        <v>10446</v>
       </c>
       <c r="E83" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F83" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G83" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -2931,7 +2936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2942,20 +2947,20 @@
         <v>10000</v>
       </c>
       <c r="D85" s="2">
-        <v>11950</v>
+        <v>11700</v>
       </c>
       <c r="E85" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F85" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G85" s="5">
         <v>50</v>
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -2992,22 +2997,22 @@
         <v>10000</v>
       </c>
       <c r="D87" s="2">
-        <v>8658</v>
+        <v>9258</v>
       </c>
       <c r="E87" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" s="5">
         <v>6</v>
       </c>
       <c r="G87" s="5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -3024,7 +3029,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -3041,7 +3046,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -3067,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -3078,22 +3083,22 @@
         <v>10000</v>
       </c>
       <c r="D91" s="2">
-        <v>33300</v>
+        <v>37800</v>
       </c>
       <c r="E91" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" s="5">
         <v>7</v>
       </c>
       <c r="G91" s="5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -3116,7 +3121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -3133,7 +3138,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -3144,19 +3149,22 @@
         <v>10000</v>
       </c>
       <c r="D94" s="2">
-        <v>9560</v>
+        <v>10220</v>
       </c>
       <c r="E94" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" s="5">
         <v>2</v>
       </c>
       <c r="G94" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>41</v>
       </c>
@@ -3228,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>42</v>
       </c>
@@ -3239,19 +3247,19 @@
         <v>10000</v>
       </c>
       <c r="D98" s="2">
-        <v>8720</v>
+        <v>7720</v>
       </c>
       <c r="E98" s="5">
         <v>2</v>
       </c>
       <c r="F98" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G98" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -3274,7 +3282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>44</v>
       </c>
@@ -3285,19 +3293,19 @@
         <v>10000</v>
       </c>
       <c r="D100" s="2">
-        <v>8476</v>
+        <v>10230</v>
       </c>
       <c r="E100" s="5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F100" s="5">
         <v>16</v>
       </c>
       <c r="G100" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -3323,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>67</v>
       </c>
@@ -3346,7 +3354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>68</v>
       </c>
@@ -3357,13 +3365,13 @@
         <v>10000</v>
       </c>
       <c r="D103" s="2">
-        <v>11180</v>
+        <v>11195</v>
       </c>
       <c r="E103" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F103" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G103" s="5">
         <v>71</v>
@@ -3372,7 +3380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -3398,7 +3406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -3421,7 +3429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -3432,19 +3440,22 @@
         <v>10000</v>
       </c>
       <c r="D106" s="2">
-        <v>7618</v>
+        <v>8868</v>
       </c>
       <c r="E106" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F106" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G106" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>49</v>
       </c>
@@ -3467,7 +3478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>50</v>
       </c>
@@ -3490,7 +3501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -3507,7 +3518,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -3524,7 +3535,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>53</v>
       </c>
@@ -3541,7 +3552,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>54</v>
       </c>
@@ -3564,7 +3575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>55</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -3604,7 +3615,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -3627,7 +3638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -3650,7 +3661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>59</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -3691,7 +3702,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -3714,7 +3725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -3737,7 +3748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -3760,7 +3771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>69</v>
       </c>
@@ -3783,7 +3794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>70</v>
       </c>
@@ -3809,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>71</v>
       </c>
@@ -3833,7 +3844,7 @@
       </c>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>72</v>
       </c>
@@ -3851,7 +3862,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>75</v>
       </c>
@@ -3877,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -3903,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>77</v>
       </c>
@@ -3927,7 +3938,7 @@
       </c>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>78</v>
       </c>
@@ -3947,7 +3958,7 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>79</v>
       </c>
@@ -3973,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>80</v>
       </c>
@@ -3984,10 +3995,10 @@
         <v>10000</v>
       </c>
       <c r="D131" s="2">
-        <v>10876</v>
+        <v>11530</v>
       </c>
       <c r="E131" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5">
@@ -3997,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -4017,7 +4028,7 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>82</v>
       </c>
@@ -4041,7 +4052,7 @@
       </c>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>83</v>
       </c>
@@ -4073,14 +4084,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4091,7 +4102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4102,7 +4113,7 @@
         <v>-1002297812775</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4113,7 +4124,7 @@
         <v>-1002475543778</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4124,7 +4135,7 @@
         <v>-1002359449640</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -4135,7 +4146,7 @@
         <v>-1002116542537</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -4147,7 +4158,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
   </sheetData>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{870BC502-D640-428E-8BBF-CE058D070D78}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB31E980-94EC-4BA9-8E8F-73EABD8F17F4}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="2760" windowWidth="16515" windowHeight="12345" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -177,310 +177,310 @@
     <t>ProAnalyst</t>
   </si>
   <si>
+    <t>PronosVIP</t>
+  </si>
+  <si>
+    <t>El Mago</t>
+  </si>
+  <si>
+    <t>Loco de las Apuestas</t>
+  </si>
+  <si>
+    <t>Einstein Analistas</t>
+  </si>
+  <si>
+    <t>SITO</t>
+  </si>
+  <si>
+    <t>Rey Analista</t>
+  </si>
+  <si>
+    <t>Tenis 10 VIP</t>
+  </si>
+  <si>
+    <t>Daily4Tips</t>
+  </si>
+  <si>
+    <t>JJAnalistas</t>
+  </si>
+  <si>
+    <t>Inversiones Deportivas</t>
+  </si>
+  <si>
+    <t>Thunder bets</t>
+  </si>
+  <si>
+    <t>Miss Winner</t>
+  </si>
+  <si>
+    <t>Dbets</t>
+  </si>
+  <si>
+    <t>Hassido</t>
+  </si>
+  <si>
+    <t>el profe stakes</t>
+  </si>
+  <si>
+    <t>El profe VIP</t>
+  </si>
+  <si>
+    <t>Winner Apuestas</t>
+  </si>
+  <si>
+    <t>Sports peru</t>
+  </si>
+  <si>
+    <t>Cabezas premium</t>
+  </si>
+  <si>
+    <t>KinPicks</t>
+  </si>
+  <si>
+    <t>Ruben Picks</t>
+  </si>
+  <si>
+    <t>Verdeando Club</t>
+  </si>
+  <si>
+    <t>Doctor Apuesta</t>
+  </si>
+  <si>
+    <t>I. A. Bet</t>
+  </si>
+  <si>
+    <t>P. PR. T.S. Apuestas</t>
+  </si>
+  <si>
+    <t>Stakazo Oro Verde</t>
+  </si>
+  <si>
+    <t>Ex Teenista Profesional</t>
+  </si>
+  <si>
+    <t>Cristian rey mensual</t>
+  </si>
+  <si>
+    <t>Anual cristian rey</t>
+  </si>
+  <si>
+    <t>Cristian Rey APP</t>
+  </si>
+  <si>
+    <t>Marco Rey APP</t>
+  </si>
+  <si>
+    <t>Consejo Abuelo APP</t>
+  </si>
+  <si>
+    <t>Oscar Rey APP</t>
+  </si>
+  <si>
+    <t>Roberto Rey APP</t>
+  </si>
+  <si>
+    <t>Revista Reyes</t>
+  </si>
+  <si>
+    <t>NFL Stats</t>
+  </si>
+  <si>
+    <t>Big Manny</t>
+  </si>
+  <si>
+    <t>Chapito</t>
+  </si>
+  <si>
+    <t>chapito NFL</t>
+  </si>
+  <si>
+    <t>Retos chapito</t>
+  </si>
+  <si>
+    <t>CobraVIP</t>
+  </si>
+  <si>
+    <t>Diego Palafox</t>
+  </si>
+  <si>
+    <t>Garantizado diego palafox</t>
+  </si>
+  <si>
+    <t>Faraon</t>
+  </si>
+  <si>
+    <t>Frosty</t>
+  </si>
+  <si>
+    <t>FrostyParlays</t>
+  </si>
+  <si>
+    <t>FrostyEsports</t>
+  </si>
+  <si>
+    <t>Revista Sharp</t>
+  </si>
+  <si>
+    <t>HugoWx</t>
+  </si>
+  <si>
+    <t>hugo wx garantizado</t>
+  </si>
+  <si>
+    <t>Retos hugowx</t>
+  </si>
+  <si>
+    <t>IanStar</t>
+  </si>
+  <si>
+    <t>Iluminati</t>
+  </si>
+  <si>
+    <t>Garantizado iluminati</t>
+  </si>
+  <si>
+    <t>NFL iluminati</t>
+  </si>
+  <si>
+    <t>Japo</t>
+  </si>
+  <si>
+    <t>Retos japo</t>
+  </si>
+  <si>
+    <t>La mera fiera</t>
+  </si>
+  <si>
+    <t>Asegurado mera fiera</t>
+  </si>
+  <si>
+    <t>Licenciado</t>
+  </si>
+  <si>
+    <t>Los picks del gordo</t>
+  </si>
+  <si>
+    <t>Garantizado los picks del gordo</t>
+  </si>
+  <si>
+    <t>Lucky Masked</t>
+  </si>
+  <si>
+    <t>MarroSportsBet</t>
+  </si>
+  <si>
+    <t>GrandSlam</t>
+  </si>
+  <si>
+    <t>MrServi</t>
+  </si>
+  <si>
+    <t>PirruPicks</t>
+  </si>
+  <si>
+    <t>LMB pirrupicks</t>
+  </si>
+  <si>
+    <t>Picks de polo</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>RevovlerBets</t>
+  </si>
+  <si>
+    <t>Ruy Cepeda</t>
+  </si>
+  <si>
+    <t>Tercer ojo</t>
+  </si>
+  <si>
+    <t>Vikingo Negro</t>
+  </si>
+  <si>
+    <t>Eminite</t>
+  </si>
+  <si>
+    <t>Familia Diamante</t>
+  </si>
+  <si>
+    <t>Rey Apostador</t>
+  </si>
+  <si>
+    <t>GallitoVIP</t>
+  </si>
+  <si>
+    <t>Parlays Exoticos gallitovip</t>
+  </si>
+  <si>
+    <t>bombas gallitovip</t>
+  </si>
+  <si>
+    <t>Werevertumorro</t>
+  </si>
+  <si>
+    <t>Erick Renteria</t>
+  </si>
+  <si>
+    <t>Erick ML</t>
+  </si>
+  <si>
+    <t>Zeus Picks</t>
+  </si>
+  <si>
+    <t>Oscar Marquez</t>
+  </si>
+  <si>
+    <t>ZorritoVIP</t>
+  </si>
+  <si>
+    <t>Nani</t>
+  </si>
+  <si>
+    <t>Dr Apuesta</t>
+  </si>
+  <si>
+    <t>Niño picks</t>
+  </si>
+  <si>
+    <t>Lara Basado</t>
+  </si>
+  <si>
+    <t>Main Play</t>
+  </si>
+  <si>
+    <t>DaniPicks</t>
+  </si>
+  <si>
+    <t>Canal_ID</t>
+  </si>
+  <si>
+    <t>Tipster Nacionales 🇲🇽</t>
+  </si>
+  <si>
+    <t>Tipsters Americanos 🇺🇸</t>
+  </si>
+  <si>
+    <t>Tipsters Europeos eu</t>
+  </si>
+  <si>
+    <t>Los Rey APP</t>
+  </si>
+  <si>
+    <t>Alta Efectividad</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
     <t xml:space="preserve">La suca </t>
   </si>
   <si>
-    <t>PronosVIP</t>
-  </si>
-  <si>
-    <t>El Mago</t>
-  </si>
-  <si>
-    <t>Loco de las Apuestas</t>
-  </si>
-  <si>
-    <t>Einstein Analistas</t>
-  </si>
-  <si>
-    <t>SITO</t>
-  </si>
-  <si>
-    <t>Rey Analista</t>
-  </si>
-  <si>
-    <t>Tenis 10 VIP</t>
-  </si>
-  <si>
-    <t>Daily4Tips</t>
-  </si>
-  <si>
-    <t>JJAnalistas</t>
-  </si>
-  <si>
-    <t>Inversiones Deportivas</t>
-  </si>
-  <si>
-    <t>Thunder bets</t>
-  </si>
-  <si>
-    <t>Miss Winner</t>
-  </si>
-  <si>
-    <t>Dbets</t>
-  </si>
-  <si>
-    <t>Hassido</t>
-  </si>
-  <si>
-    <t>el profe stakes</t>
-  </si>
-  <si>
-    <t>El profe VIP</t>
-  </si>
-  <si>
-    <t>Winner Apuestas</t>
-  </si>
-  <si>
-    <t>Sports peru</t>
-  </si>
-  <si>
-    <t>Cabezas premium</t>
-  </si>
-  <si>
-    <t>KinPicks</t>
-  </si>
-  <si>
-    <t>Ruben Picks</t>
-  </si>
-  <si>
-    <t>Verdeando Club</t>
-  </si>
-  <si>
-    <t>Doctor Apuesta</t>
-  </si>
-  <si>
-    <t>I. A. Bet</t>
-  </si>
-  <si>
-    <t>P. PR. T.S. Apuestas</t>
-  </si>
-  <si>
-    <t>Stakazo Oro Verde</t>
-  </si>
-  <si>
-    <t>Ex Teenista Profesional</t>
-  </si>
-  <si>
     <t>Oro VIP</t>
   </si>
   <si>
     <t>DaniPicks stakes</t>
-  </si>
-  <si>
-    <t>Cristian rey mensual</t>
-  </si>
-  <si>
-    <t>Anual cristian rey</t>
-  </si>
-  <si>
-    <t>Cristian Rey APP</t>
-  </si>
-  <si>
-    <t>Marco Rey APP</t>
-  </si>
-  <si>
-    <t>Consejo Abuelo APP</t>
-  </si>
-  <si>
-    <t>Oscar Rey APP</t>
-  </si>
-  <si>
-    <t>Roberto Rey APP</t>
-  </si>
-  <si>
-    <t>Revista Reyes</t>
-  </si>
-  <si>
-    <t>NFL Stats</t>
-  </si>
-  <si>
-    <t>Big Manny</t>
-  </si>
-  <si>
-    <t>Chapito</t>
-  </si>
-  <si>
-    <t>chapito NFL</t>
-  </si>
-  <si>
-    <t>Retos chapito</t>
-  </si>
-  <si>
-    <t>CobraVIP</t>
-  </si>
-  <si>
-    <t>Diego Palafox</t>
-  </si>
-  <si>
-    <t>Garantizado diego palafox</t>
-  </si>
-  <si>
-    <t>Faraon</t>
-  </si>
-  <si>
-    <t>Frosty</t>
-  </si>
-  <si>
-    <t>FrostyParlays</t>
-  </si>
-  <si>
-    <t>FrostyEsports</t>
-  </si>
-  <si>
-    <t>Revista Sharp</t>
-  </si>
-  <si>
-    <t>HugoWx</t>
-  </si>
-  <si>
-    <t>hugo wx garantizado</t>
-  </si>
-  <si>
-    <t>Retos hugowx</t>
-  </si>
-  <si>
-    <t>IanStar</t>
-  </si>
-  <si>
-    <t>Iluminati</t>
-  </si>
-  <si>
-    <t>Garantizado iluminati</t>
-  </si>
-  <si>
-    <t>NFL iluminati</t>
-  </si>
-  <si>
-    <t>Japo</t>
-  </si>
-  <si>
-    <t>Retos japo</t>
-  </si>
-  <si>
-    <t>La mera fiera</t>
-  </si>
-  <si>
-    <t>Asegurado mera fiera</t>
-  </si>
-  <si>
-    <t>Licenciado</t>
-  </si>
-  <si>
-    <t>Los picks del gordo</t>
-  </si>
-  <si>
-    <t>Garantizado los picks del gordo</t>
-  </si>
-  <si>
-    <t>Lucky Masked</t>
-  </si>
-  <si>
-    <t>MarroSportsBet</t>
-  </si>
-  <si>
-    <t>GrandSlam</t>
-  </si>
-  <si>
-    <t>MrServi</t>
-  </si>
-  <si>
-    <t>PirruPicks</t>
-  </si>
-  <si>
-    <t>LMB pirrupicks</t>
-  </si>
-  <si>
-    <t>Picks de polo</t>
-  </si>
-  <si>
-    <t>Prince</t>
-  </si>
-  <si>
-    <t>RevovlerBets</t>
-  </si>
-  <si>
-    <t>Ruy Cepeda</t>
-  </si>
-  <si>
-    <t>Tercer ojo</t>
-  </si>
-  <si>
-    <t>Vikingo Negro</t>
-  </si>
-  <si>
-    <t>Eminite</t>
-  </si>
-  <si>
-    <t>Familia Diamante</t>
-  </si>
-  <si>
-    <t>Rey Apostador</t>
-  </si>
-  <si>
-    <t>GallitoVIP</t>
-  </si>
-  <si>
-    <t>Parlays Exoticos gallitovip</t>
-  </si>
-  <si>
-    <t>bombas gallitovip</t>
-  </si>
-  <si>
-    <t>Werevertumorro</t>
-  </si>
-  <si>
-    <t>Erick Renteria</t>
-  </si>
-  <si>
-    <t>Erick ML</t>
-  </si>
-  <si>
-    <t>Zeus Picks</t>
-  </si>
-  <si>
-    <t>Oscar Marquez</t>
-  </si>
-  <si>
-    <t>ZorritoVIP</t>
-  </si>
-  <si>
-    <t>Nani</t>
-  </si>
-  <si>
-    <t>Dr Apuesta</t>
-  </si>
-  <si>
-    <t>Niño picks</t>
-  </si>
-  <si>
-    <t>Lara Basado</t>
-  </si>
-  <si>
-    <t>Main Play</t>
-  </si>
-  <si>
-    <t>DaniPicks</t>
-  </si>
-  <si>
-    <t>Canal_ID</t>
-  </si>
-  <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Tipster Nacionales 🇲🇽</t>
-  </si>
-  <si>
-    <t>Tipsters Americanos 🇺🇸</t>
-  </si>
-  <si>
-    <t>Tipsters Europeos eu</t>
-  </si>
-  <si>
-    <t>Los Rey APP</t>
-  </si>
-  <si>
-    <t>Alta Efectividad</t>
   </si>
 </sst>
 </file>
@@ -568,41 +568,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -666,6 +631,42 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
   </dxfs>
@@ -690,13 +691,13 @@
   <autoFilter ref="A1:H134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
-    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="5" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="0" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -707,8 +708,8 @@
   <autoFilter ref="A1:C6" xr:uid="{0107E050-3D9E-4DB3-8FD6-2C5CFE270200}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{62C7305D-5581-4E8C-9221-7F734D5C0270}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{9C5D0D75-4426-4CD4-B342-8F5F3A476DDD}" name="Canal_ID" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FECA5B50-351F-4818-9C90-9226C8DCB41E}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9C5D0D75-4426-4CD4-B342-8F5F3A476DDD}" name="Canal_ID" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F32D0121-EC72-4E47-9C2F-F5475CCACE21}" name="Columna2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1034,7 +1035,7 @@
   <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,10 +1078,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
@@ -1089,15 +1090,17 @@
         <v>10000</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1">
         <v>10000</v>
@@ -1111,10 +1114,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1">
         <v>10000</v>
@@ -1123,21 +1126,24 @@
         <v>10000</v>
       </c>
       <c r="E4" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1">
         <v>10000</v>
@@ -1146,21 +1152,21 @@
         <v>10000</v>
       </c>
       <c r="E5" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1">
         <v>10000</v>
@@ -1169,24 +1175,24 @@
         <v>10000</v>
       </c>
       <c r="E6" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3">
         <v>65</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
@@ -1209,10 +1215,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1">
         <v>10000</v>
@@ -1232,125 +1238,128 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1">
         <v>10000</v>
       </c>
       <c r="D9" s="1">
-        <v>6645</v>
+        <v>8660</v>
       </c>
       <c r="E9" s="3">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="3">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3">
         <v>53</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1">
         <v>10000</v>
       </c>
       <c r="D10" s="1">
-        <v>7830</v>
+        <v>7030</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1">
         <v>10000</v>
       </c>
       <c r="D11" s="1">
-        <v>9118</v>
+        <v>8138</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1">
         <v>10000</v>
       </c>
       <c r="D12" s="1">
-        <v>8390</v>
+        <v>9430</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1">
         <v>10000</v>
       </c>
       <c r="D13" s="1">
-        <v>7447</v>
+        <v>8647</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
         <v>6</v>
       </c>
       <c r="G13" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C14" s="1">
         <v>10000</v>
@@ -1364,33 +1373,33 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1">
         <v>10000</v>
       </c>
       <c r="D15" s="1">
-        <v>7677</v>
+        <v>7411</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G15" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1">
         <v>10000</v>
@@ -1413,10 +1422,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C17" s="1">
         <v>10000</v>
@@ -1436,10 +1445,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1">
         <v>10000</v>
@@ -1452,33 +1461,36 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1">
         <v>10000</v>
       </c>
       <c r="D19" s="1">
-        <v>8224</v>
+        <v>8464</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="3">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1">
         <v>10000</v>
@@ -1493,10 +1505,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1">
         <v>10000</v>
@@ -1519,10 +1531,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1">
         <v>10000</v>
@@ -1542,33 +1554,33 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1">
         <v>10000</v>
       </c>
       <c r="D23" s="1">
-        <v>16103</v>
+        <v>17833</v>
       </c>
       <c r="E23">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1">
         <v>10000</v>
@@ -1584,10 +1596,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C25" s="1">
         <v>10000</v>
@@ -1601,10 +1613,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1">
         <v>10000</v>
@@ -1624,36 +1636,33 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1">
         <v>10000</v>
       </c>
       <c r="D27" s="1">
-        <v>22631</v>
+        <v>19531</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F27" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="3">
-        <v>56</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1">
         <v>10000</v>
@@ -1673,59 +1682,59 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1">
         <v>10000</v>
       </c>
       <c r="D29" s="1">
-        <v>10250</v>
+        <v>9290</v>
       </c>
       <c r="E29" s="3">
         <v>12</v>
       </c>
       <c r="F29" s="3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G29" s="3">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1">
         <v>10000</v>
       </c>
       <c r="D30" s="1">
-        <v>10476</v>
+        <v>10651</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F30" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1">
         <v>10000</v>
@@ -1739,33 +1748,33 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1">
         <v>10000</v>
       </c>
       <c r="D32" s="1">
-        <v>8230</v>
+        <v>9320</v>
       </c>
       <c r="E32">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F32" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G32" s="3">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C33" s="1">
         <v>10000</v>
@@ -1788,10 +1797,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1">
         <v>10000</v>
@@ -1814,33 +1823,36 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1">
         <v>10000</v>
       </c>
       <c r="D35" s="1">
-        <v>8224</v>
+        <v>9994</v>
       </c>
       <c r="E35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F35" s="3">
         <v>23</v>
       </c>
       <c r="G35" s="3">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1">
         <v>10000</v>
@@ -1860,10 +1872,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1">
         <v>10000</v>
@@ -1883,10 +1895,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1">
         <v>10000</v>
@@ -1899,10 +1911,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1">
         <v>10000</v>
@@ -1922,56 +1934,59 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1">
         <v>10000</v>
       </c>
       <c r="D40" s="1">
-        <v>9726</v>
+        <v>10667</v>
       </c>
       <c r="E40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F40" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G40" s="3">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1">
         <v>10000</v>
       </c>
       <c r="D41" s="1">
-        <v>10886</v>
+        <v>11628</v>
       </c>
       <c r="E41">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F41" s="3">
         <v>16</v>
       </c>
       <c r="G41" s="3">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1">
         <v>10000</v>
@@ -1991,33 +2006,33 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1">
         <v>10000</v>
       </c>
       <c r="D43" s="1">
-        <v>101845</v>
+        <v>11628</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="3">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C44" s="1">
         <v>10000</v>
@@ -2030,36 +2045,36 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C45" s="1">
         <v>10000</v>
       </c>
       <c r="D45" s="1">
-        <v>22240</v>
+        <v>22860</v>
       </c>
       <c r="E45">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F45" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1">
         <v>10000</v>
@@ -2082,10 +2097,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1">
         <v>10000</v>
@@ -2098,10 +2113,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1">
         <v>10000</v>
@@ -2114,10 +2129,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1">
         <v>10000</v>
@@ -2130,68 +2145,68 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C50" s="1">
         <v>10000</v>
       </c>
       <c r="D50" s="1">
-        <v>10205</v>
+        <v>9954</v>
       </c>
       <c r="E50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G50" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1">
         <v>10000</v>
       </c>
       <c r="D51" s="1">
-        <v>9375</v>
+        <v>8375</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1">
         <v>10000</v>
       </c>
       <c r="D52" s="1">
-        <v>9526</v>
+        <v>9226</v>
       </c>
       <c r="E52" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G52" s="3">
         <v>55</v>
@@ -2199,10 +2214,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1">
         <v>10000</v>
@@ -2220,10 +2235,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1">
         <v>10000</v>
@@ -2237,10 +2252,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C55" s="1">
         <v>10000</v>
@@ -2248,63 +2263,56 @@
       <c r="D55" s="1">
         <v>7000</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3">
         <v>3</v>
       </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
+      <c r="G55" s="3"/>
       <c r="H55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1">
         <v>10000</v>
       </c>
       <c r="D56" s="1">
-        <v>12962</v>
+        <v>14137</v>
       </c>
       <c r="E56" s="3">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F56" s="3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G56" s="3">
-        <v>57</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1">
         <v>10000</v>
       </c>
       <c r="D57" s="1">
-        <v>14264</v>
+        <v>14424</v>
       </c>
       <c r="E57" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F57" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="3">
         <v>70</v>
@@ -2312,33 +2320,33 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C58" s="1">
         <v>10000</v>
       </c>
       <c r="D58" s="1">
-        <v>11676</v>
+        <v>11654</v>
       </c>
       <c r="E58" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F58" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G58" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1">
         <v>10000</v>
@@ -2350,21 +2358,18 @@
         <v>29</v>
       </c>
       <c r="F59" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" s="3">
-        <v>48</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1">
         <v>10000</v>
@@ -2379,56 +2384,56 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C61" s="1">
         <v>10000</v>
       </c>
       <c r="D61" s="1">
-        <v>9135</v>
+        <v>10005</v>
       </c>
       <c r="E61" s="3">
+        <v>22</v>
+      </c>
+      <c r="F61" s="3">
         <v>19</v>
       </c>
-      <c r="F61" s="3">
-        <v>18</v>
-      </c>
       <c r="G61" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1">
         <v>10000</v>
       </c>
       <c r="D62" s="1">
-        <v>7638</v>
+        <v>7388</v>
       </c>
       <c r="E62" s="3">
         <v>10</v>
       </c>
       <c r="F62" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G62" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1">
         <v>10000</v>
@@ -2448,49 +2453,54 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1">
         <v>10000</v>
       </c>
       <c r="D64" s="1">
-        <v>10399</v>
+        <v>11016</v>
       </c>
       <c r="E64" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F64" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G64" s="3">
-        <v>48</v>
-      </c>
-      <c r="H64" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C65" s="1">
         <v>10000</v>
       </c>
       <c r="D65" s="1">
-        <v>7090</v>
+        <v>7750</v>
       </c>
       <c r="E65" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F65" s="3">
         <v>9</v>
       </c>
       <c r="G65" s="3">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2498,22 +2508,22 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C66" s="1">
         <v>10000</v>
       </c>
       <c r="D66" s="1">
-        <v>8669</v>
+        <v>8941</v>
       </c>
       <c r="E66" s="3">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F66" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G66" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2521,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C67" s="1">
         <v>10000</v>
@@ -2544,22 +2554,22 @@
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C68" s="1">
         <v>10000</v>
       </c>
       <c r="D68" s="1">
-        <v>13572</v>
+        <v>11514</v>
       </c>
       <c r="E68" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F68" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G68" s="3">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2567,7 +2577,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1">
         <v>10000</v>
@@ -2591,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1">
         <v>10000</v>
@@ -2608,7 +2618,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1">
         <v>10000</v>
@@ -2631,22 +2641,22 @@
         <v>14</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C72" s="1">
         <v>10000</v>
       </c>
       <c r="D72" s="1">
-        <v>5800</v>
+        <v>7710</v>
       </c>
       <c r="E72" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F72" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G72" s="3">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2654,22 +2664,22 @@
         <v>15</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1">
         <v>10000</v>
       </c>
       <c r="D73" s="1">
-        <v>6985</v>
+        <v>6585</v>
       </c>
       <c r="E73" s="3">
         <v>18</v>
       </c>
       <c r="F73" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G73" s="3">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2677,25 +2687,22 @@
         <v>16</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C74" s="1">
         <v>10000</v>
       </c>
       <c r="D74" s="1">
-        <v>10725</v>
+        <v>10561</v>
       </c>
       <c r="E74" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F74" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G74" s="3">
-        <v>64</v>
-      </c>
-      <c r="H74">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2703,7 +2710,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C75" s="1">
         <v>10000</v>
@@ -2726,25 +2733,22 @@
         <v>18</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C76" s="1">
         <v>10000</v>
       </c>
       <c r="D76" s="1">
-        <v>8620</v>
+        <v>89980</v>
       </c>
       <c r="E76" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G76" s="3">
-        <v>50</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2752,22 +2756,25 @@
         <v>19</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C77" s="1">
         <v>10000</v>
       </c>
       <c r="D77" s="1">
-        <v>8098</v>
+        <v>8425</v>
       </c>
       <c r="E77" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F77" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" s="3">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2775,19 +2782,19 @@
         <v>21</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C78" s="1">
         <v>10000</v>
       </c>
       <c r="D78" s="1">
-        <v>6448</v>
+        <v>6151</v>
       </c>
       <c r="E78" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F78" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G78" s="3">
         <v>53</v>
@@ -2798,7 +2805,7 @@
         <v>22</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C79" s="1">
         <v>10000</v>
@@ -2821,7 +2828,7 @@
         <v>24</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1">
         <v>10000</v>
@@ -2844,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1">
         <v>10000</v>
@@ -2870,7 +2877,7 @@
         <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C82" s="1">
         <v>10000</v>
@@ -2896,48 +2903,48 @@
         <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1">
         <v>10000</v>
       </c>
       <c r="D83" s="1">
-        <v>10586</v>
+        <v>10623</v>
       </c>
       <c r="E83" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F83" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G83" s="3">
         <v>63</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C84" s="1">
         <v>10000</v>
       </c>
       <c r="D84" s="1">
-        <v>10833</v>
+        <v>12107</v>
       </c>
       <c r="E84" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F84" s="3">
         <v>9</v>
       </c>
       <c r="G84" s="3">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2945,7 +2952,7 @@
         <v>26</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C85" s="1">
         <v>10000</v>
@@ -2969,7 +2976,7 @@
         <v>27</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C86" s="1">
         <v>10000</v>
@@ -2995,25 +3002,25 @@
         <v>28</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C87" s="1">
         <v>10000</v>
       </c>
       <c r="D87" s="1">
-        <v>10618</v>
+        <v>11146</v>
       </c>
       <c r="E87" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" s="3">
         <v>6</v>
       </c>
       <c r="G87" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3021,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C88" s="1">
         <v>10000</v>
@@ -3038,7 +3045,7 @@
         <v>30</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C89" s="1">
         <v>10000</v>
@@ -3052,10 +3059,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C90" s="1">
         <v>10000</v>
@@ -3078,25 +3085,25 @@
         <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C91" s="1">
         <v>10000</v>
       </c>
       <c r="D91" s="1">
-        <v>22650</v>
+        <v>30600</v>
       </c>
       <c r="E91" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F91" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,7 +3111,7 @@
         <v>32</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C92" s="1">
         <v>10000</v>
@@ -3127,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C93" s="1">
         <v>10000</v>
@@ -3144,7 +3151,7 @@
         <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C94" s="1">
         <v>10000</v>
@@ -3170,7 +3177,7 @@
         <v>35</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1">
         <v>10000</v>
@@ -3193,7 +3200,7 @@
         <v>36</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C96" s="1">
         <v>10000</v>
@@ -3219,7 +3226,7 @@
         <v>37</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C97" s="1">
         <v>10000</v>
@@ -3245,19 +3252,19 @@
         <v>38</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="1">
         <v>10000</v>
       </c>
       <c r="D98" s="1">
-        <v>9430</v>
+        <v>9050</v>
       </c>
       <c r="E98" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F98" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G98" s="3">
         <v>50</v>
@@ -3268,22 +3275,22 @@
         <v>39</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="1">
         <v>10000</v>
       </c>
       <c r="D99" s="1">
-        <v>12295</v>
+        <v>10778</v>
       </c>
       <c r="E99" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F99" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G99" s="3">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -3294,25 +3301,22 @@
         <v>40</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C100" s="1">
         <v>10000</v>
       </c>
       <c r="D100" s="1">
-        <v>10201</v>
+        <v>9114</v>
       </c>
       <c r="E100" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F100" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G100" s="3">
-        <v>61</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,74 +3324,71 @@
         <v>41</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C101" s="1">
         <v>10000</v>
       </c>
       <c r="D101" s="1">
-        <v>10210</v>
+        <v>9300</v>
       </c>
       <c r="E101" s="3">
+        <v>12</v>
+      </c>
+      <c r="F101" s="3">
         <v>9</v>
       </c>
-      <c r="F101" s="3">
-        <v>6</v>
-      </c>
       <c r="G101" s="3">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C102" s="1">
         <v>10000</v>
       </c>
       <c r="D102" s="1">
-        <v>10360</v>
+        <v>8360</v>
       </c>
       <c r="E102" s="3">
         <v>2</v>
       </c>
       <c r="F102" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>67</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C103" s="1">
         <v>10000</v>
       </c>
       <c r="D103" s="1">
-        <v>11315</v>
+        <v>11870</v>
       </c>
       <c r="E103" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F103" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G103" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3395,25 +3396,25 @@
         <v>42</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C104" s="1">
         <v>10000</v>
       </c>
       <c r="D104" s="1">
-        <v>15659</v>
+        <v>16664</v>
       </c>
       <c r="E104" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F104" s="3">
         <v>5</v>
       </c>
       <c r="G104" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3421,7 +3422,7 @@
         <v>43</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C105" s="1">
         <v>10000</v>
@@ -3444,7 +3445,7 @@
         <v>44</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C106" s="1">
         <v>10000</v>
@@ -3453,10 +3454,10 @@
         <v>8103</v>
       </c>
       <c r="E106" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F106" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" s="3">
         <v>43</v>
@@ -3467,7 +3468,7 @@
         <v>45</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C107" s="1">
         <v>10000</v>
@@ -3487,33 +3488,33 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C108" s="1">
         <v>10000</v>
       </c>
       <c r="D108" s="1">
-        <v>6150</v>
+        <v>5150</v>
       </c>
       <c r="E108" s="3">
         <v>5</v>
       </c>
       <c r="F108" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G108" s="3">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C109" s="1">
         <v>10000</v>
@@ -3527,10 +3528,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C110" s="1">
         <v>10000</v>
@@ -3544,10 +3545,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C111" s="1">
         <v>10000</v>
@@ -3561,36 +3562,33 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C112" s="1">
         <v>10000</v>
       </c>
       <c r="D112" s="1">
-        <v>9940</v>
+        <v>9770</v>
       </c>
       <c r="E112" s="3">
+        <v>5</v>
+      </c>
+      <c r="F112" s="3">
         <v>4</v>
       </c>
-      <c r="F112" s="3">
-        <v>3</v>
-      </c>
       <c r="G112" s="3">
-        <v>57</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C113" s="1">
         <v>10000</v>
@@ -3610,10 +3608,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C114" s="1">
         <v>10000</v>
@@ -3627,42 +3625,42 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C115" s="1">
         <v>10000</v>
       </c>
       <c r="D115" s="1">
-        <v>9780</v>
+        <v>9280</v>
       </c>
       <c r="E115" s="3">
         <v>4</v>
       </c>
       <c r="F115" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G115" s="3">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C116" s="1">
         <v>10000</v>
       </c>
       <c r="D116" s="1">
-        <v>9040</v>
+        <v>9970</v>
       </c>
       <c r="E116" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F116" s="3">
         <v>9</v>
@@ -3676,36 +3674,36 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C117" s="1">
         <v>10000</v>
       </c>
       <c r="D117" s="1">
-        <v>7860</v>
+        <v>9380</v>
       </c>
       <c r="E117" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F117" s="3">
         <v>6</v>
       </c>
       <c r="G117" s="3">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C118" s="1">
         <v>10000</v>
@@ -3720,10 +3718,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C119" s="1">
         <v>10000</v>
@@ -3743,10 +3741,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C120" s="1">
         <v>10000</v>
@@ -3766,10 +3764,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C121" s="1">
         <v>10000</v>
@@ -3789,33 +3787,33 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C122" s="1">
         <v>10000</v>
       </c>
       <c r="D122" s="1">
-        <v>8810</v>
+        <v>6080</v>
       </c>
       <c r="E122" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F122" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G122" s="3">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C123" s="1">
         <v>10000</v>
@@ -3838,10 +3836,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C124" s="1">
         <v>10000</v>
@@ -3862,10 +3860,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C125" s="1">
         <v>10000</v>
@@ -3880,10 +3878,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C126" s="1">
         <v>10000</v>
@@ -3906,10 +3904,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C127" s="1">
         <v>10000</v>
@@ -3932,10 +3930,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C128" s="1">
         <v>10000</v>
@@ -3956,10 +3954,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C129" s="1">
         <v>10000</v>
@@ -3976,10 +3974,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C130" s="1">
         <v>10000</v>
@@ -4002,10 +4000,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C131" s="1">
         <v>10000</v>
@@ -4026,10 +4024,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C132" s="1">
         <v>10000</v>
@@ -4046,10 +4044,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C133" s="1">
         <v>10000</v>
@@ -4070,22 +4068,22 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C134" s="1">
         <v>10000</v>
       </c>
       <c r="D134" s="1">
-        <v>9890</v>
+        <v>10740</v>
       </c>
       <c r="E134" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F134" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G134" s="3">
         <v>50</v>
@@ -4108,7 +4106,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,48 +4121,48 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="8">
+        <v>-1002297812775</v>
+      </c>
+      <c r="C2" s="8">
         <v>-1002002230427</v>
       </c>
-      <c r="C2" s="8">
-        <v>-1002297812775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B3" s="8">
+        <v>-1002475543778</v>
+      </c>
+      <c r="C3" s="8">
         <v>-1001956367839</v>
-      </c>
-      <c r="C3" s="8">
-        <v>-1002475543778</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B4" s="8">
+        <v>-1002359449640</v>
+      </c>
+      <c r="C4" s="8">
         <v>-1002139886828</v>
-      </c>
-      <c r="C4" s="8">
-        <v>-1002359449640</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B5" s="9">
         <v>-1002116542537</v>
@@ -4175,16 +4173,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B6" s="8">
+        <v>-1002469182222</v>
+      </c>
+      <c r="C6" s="8">
         <v>-1002054332150</v>
       </c>
-      <c r="C6" s="8">
-        <v>-1002469182222</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB31E980-94EC-4BA9-8E8F-73EABD8F17F4}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD88245D-2B37-4014-9505-089C6FB36AC1}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16515" windowHeight="12345" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -569,6 +569,39 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -631,39 +664,6 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
@@ -682,10 +682,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H134" totalsRowShown="0">
   <autoFilter ref="A1:H134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
@@ -693,11 +689,11 @@
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="5" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="2" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -708,8 +704,8 @@
   <autoFilter ref="A1:C6" xr:uid="{0107E050-3D9E-4DB3-8FD6-2C5CFE270200}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{62C7305D-5581-4E8C-9221-7F734D5C0270}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{9C5D0D75-4426-4CD4-B342-8F5F3A476DDD}" name="Canal_ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F32D0121-EC72-4E47-9C2F-F5475CCACE21}" name="Columna2" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9C5D0D75-4426-4CD4-B342-8F5F3A476DDD}" name="Canal_ID" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E368A023-D5A0-46DD-863C-667357734E08}" name="Columna2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1034,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4105,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968FCD4-0E43-448B-A959-704F8BE365F1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,10 +4128,10 @@
         <v>139</v>
       </c>
       <c r="B2" s="8">
+        <v>-1002002230427</v>
+      </c>
+      <c r="C2" s="8">
         <v>-1002297812775</v>
-      </c>
-      <c r="C2" s="8">
-        <v>-1002002230427</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4143,10 +4139,10 @@
         <v>140</v>
       </c>
       <c r="B3" s="8">
+        <v>-1001956367839</v>
+      </c>
+      <c r="C3" s="8">
         <v>-1002475543778</v>
-      </c>
-      <c r="C3" s="8">
-        <v>-1001956367839</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4154,10 +4150,10 @@
         <v>141</v>
       </c>
       <c r="B4" s="8">
+        <v>-1002139886828</v>
+      </c>
+      <c r="C4" s="8">
         <v>-1002359449640</v>
-      </c>
-      <c r="C4" s="8">
-        <v>-1002139886828</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4176,10 +4172,10 @@
         <v>143</v>
       </c>
       <c r="B6" s="8">
+        <v>-1002054332150</v>
+      </c>
+      <c r="C6" s="8">
         <v>-1002469182222</v>
-      </c>
-      <c r="C6" s="8">
-        <v>-1002054332150</v>
       </c>
     </row>
   </sheetData>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD88245D-2B37-4014-9505-089C6FB36AC1}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32802D08-8008-44CC-A151-3FD00E576B27}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16515" windowHeight="12345" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="149">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -387,9 +387,6 @@
     <t>Prince</t>
   </si>
   <si>
-    <t>RevovlerBets</t>
-  </si>
-  <si>
     <t>Ruy Cepeda</t>
   </si>
   <si>
@@ -481,6 +478,12 @@
   </si>
   <si>
     <t>DaniPicks stakes</t>
+  </si>
+  <si>
+    <t>RevolverBets</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -569,39 +572,6 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -664,6 +634,39 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
     </dxf>
     <dxf>
@@ -689,11 +692,11 @@
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="5" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="4" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="0" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,8 +707,8 @@
   <autoFilter ref="A1:C6" xr:uid="{0107E050-3D9E-4DB3-8FD6-2C5CFE270200}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{62C7305D-5581-4E8C-9221-7F734D5C0270}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{9C5D0D75-4426-4CD4-B342-8F5F3A476DDD}" name="Canal_ID" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{E368A023-D5A0-46DD-863C-667357734E08}" name="Columna2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9C5D0D75-4426-4CD4-B342-8F5F3A476DDD}" name="Canal_ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E368A023-D5A0-46DD-863C-667357734E08}" name="Columna2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1030,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1080,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
@@ -1096,7 +1099,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1">
         <v>10000</v>
@@ -1113,7 +1116,7 @@
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1">
         <v>10000</v>
@@ -1139,7 +1142,7 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1">
         <v>10000</v>
@@ -1162,7 +1165,7 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1">
         <v>10000</v>
@@ -1171,13 +1174,13 @@
         <v>10000</v>
       </c>
       <c r="E6" s="3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1188,7 +1191,7 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
@@ -1214,7 +1217,7 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1">
         <v>10000</v>
@@ -1237,7 +1240,7 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1">
         <v>10000</v>
@@ -1260,7 +1263,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1">
         <v>10000</v>
@@ -1272,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,7 +1286,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1">
         <v>10000</v>
@@ -1292,13 +1295,13 @@
         <v>8138</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1306,7 +1309,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1">
         <v>10000</v>
@@ -1315,16 +1318,13 @@
         <v>9430</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1">
         <v>10000</v>
@@ -1344,10 +1344,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1">
         <v>10000</v>
@@ -1372,22 +1372,22 @@
         <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1">
         <v>10000</v>
       </c>
       <c r="D15" s="1">
-        <v>7411</v>
+        <v>8411</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1395,25 +1395,22 @@
         <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1">
         <v>10000</v>
       </c>
       <c r="D16" s="1">
-        <v>7676</v>
+        <v>8676</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
       <c r="F16" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G16" s="3">
-        <v>51</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,22 +1418,22 @@
         <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1">
         <v>10000</v>
       </c>
       <c r="D17" s="1">
-        <v>12250</v>
+        <v>8842</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1444,7 +1441,7 @@
         <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1">
         <v>10000</v>
@@ -1460,7 +1457,7 @@
         <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1">
         <v>10000</v>
@@ -1469,16 +1466,13 @@
         <v>8464</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" s="3">
-        <v>45</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1486,7 +1480,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1">
         <v>10000</v>
@@ -1504,7 +1498,7 @@
         <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1">
         <v>10000</v>
@@ -1513,16 +1507,16 @@
         <v>11371</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,7 +1524,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1">
         <v>10000</v>
@@ -1553,7 +1547,7 @@
         <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1">
         <v>10000</v>
@@ -1562,13 +1556,16 @@
         <v>17833</v>
       </c>
       <c r="E23">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3">
         <v>24</v>
       </c>
       <c r="G23" s="3">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1576,7 +1573,7 @@
         <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1">
         <v>10000</v>
@@ -1595,7 +1592,7 @@
         <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1">
         <v>10000</v>
@@ -1612,7 +1609,7 @@
         <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1">
         <v>10000</v>
@@ -1621,13 +1618,13 @@
         <v>9470</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,22 +1632,22 @@
         <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="1">
         <v>10000</v>
       </c>
       <c r="D27" s="1">
-        <v>19531</v>
+        <v>10531</v>
       </c>
       <c r="E27">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F27" s="3">
         <v>15</v>
       </c>
       <c r="G27" s="3">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1658,22 +1655,22 @@
         <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="1">
         <v>10000</v>
       </c>
       <c r="D28" s="1">
-        <v>10000</v>
+        <v>9132</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
       </c>
       <c r="G28" s="3">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1681,7 +1678,7 @@
         <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1">
         <v>10000</v>
@@ -1690,13 +1687,13 @@
         <v>9290</v>
       </c>
       <c r="E29" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G29" s="3">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1704,7 +1701,7 @@
         <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="1">
         <v>10000</v>
@@ -1713,13 +1710,13 @@
         <v>10651</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F30" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1730,7 +1727,7 @@
         <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="1">
         <v>10000</v>
@@ -1747,7 +1744,7 @@
         <v>103</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1">
         <v>10000</v>
@@ -1756,13 +1753,13 @@
         <v>9320</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F32" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1770,25 +1767,22 @@
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="1">
         <v>10000</v>
       </c>
       <c r="D33" s="1">
-        <v>11430</v>
+        <v>10320</v>
       </c>
       <c r="E33" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G33" s="3">
-        <v>57</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1796,7 +1790,7 @@
         <v>105</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="1">
         <v>10000</v>
@@ -1822,25 +1816,22 @@
         <v>106</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" s="1">
         <v>10000</v>
       </c>
       <c r="D35" s="1">
-        <v>9994</v>
+        <v>8341</v>
       </c>
       <c r="E35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G35" s="3">
-        <v>51</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1848,7 +1839,7 @@
         <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="1">
         <v>10000</v>
@@ -1871,7 +1862,7 @@
         <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1">
         <v>10000</v>
@@ -1894,7 +1885,7 @@
         <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1">
         <v>10000</v>
@@ -1910,7 +1901,7 @@
         <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1">
         <v>10000</v>
@@ -1933,7 +1924,7 @@
         <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1">
         <v>10000</v>
@@ -1942,13 +1933,16 @@
         <v>10667</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F40" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G40" s="3">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1956,7 +1950,7 @@
         <v>112</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1">
         <v>10000</v>
@@ -1965,16 +1959,13 @@
         <v>11628</v>
       </c>
       <c r="E41">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F41" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="3">
-        <v>66</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1982,22 +1973,22 @@
         <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1">
         <v>10000</v>
       </c>
       <c r="D42" s="1">
-        <v>8500</v>
+        <v>8740</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" s="3">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2005,7 +1996,7 @@
         <v>114</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="1">
         <v>10000</v>
@@ -2014,13 +2005,13 @@
         <v>11628</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F43" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2028,23 +2019,28 @@
         <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" s="1">
         <v>10000</v>
       </c>
       <c r="D44" s="1">
-        <v>10000</v>
+        <v>10900</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="1">
         <v>10000</v>
@@ -2056,21 +2052,18 @@
         <v>25</v>
       </c>
       <c r="F45" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G45" s="3">
-        <v>78</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1">
         <v>10000</v>
@@ -2079,13 +2072,13 @@
         <v>10391</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" s="3">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -2093,10 +2086,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="1">
         <v>10000</v>
@@ -2109,10 +2102,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1">
         <v>10000</v>
@@ -2125,10 +2118,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="1">
         <v>10000</v>
@@ -2141,10 +2134,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1">
         <v>10000</v>
@@ -2164,10 +2157,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="1">
         <v>10000</v>
@@ -2187,10 +2180,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" s="1">
         <v>10000</v>
@@ -2210,10 +2203,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="1">
         <v>10000</v>
@@ -2231,10 +2224,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1">
         <v>10000</v>
@@ -2248,10 +2241,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="1">
         <v>10000</v>
@@ -2270,10 +2263,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="1">
         <v>10000</v>
@@ -2282,21 +2275,21 @@
         <v>14137</v>
       </c>
       <c r="E56" s="3">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F56" s="3">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G56" s="3">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1">
         <v>10000</v>
@@ -2305,21 +2298,21 @@
         <v>14424</v>
       </c>
       <c r="E57" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F57" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="1">
         <v>10000</v>
@@ -2328,21 +2321,21 @@
         <v>11654</v>
       </c>
       <c r="E58" s="3">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F58" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G58" s="3">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" s="1">
         <v>10000</v>
@@ -2351,10 +2344,10 @@
         <v>9714</v>
       </c>
       <c r="E59" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F59" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G59" s="3">
         <v>47</v>
@@ -2362,10 +2355,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="1">
         <v>10000</v>
@@ -2380,33 +2373,33 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1">
         <v>10000</v>
       </c>
       <c r="D61" s="1">
-        <v>10005</v>
+        <v>10659</v>
       </c>
       <c r="E61" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F61" s="3">
         <v>19</v>
       </c>
       <c r="G61" s="3">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="1">
         <v>10000</v>
@@ -2426,10 +2419,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="1">
         <v>10000</v>
@@ -2438,47 +2431,45 @@
         <v>10180</v>
       </c>
       <c r="E63" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F63" s="3">
         <v>10</v>
       </c>
       <c r="G63" s="3">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="1">
         <v>10000</v>
       </c>
       <c r="D64" s="1">
-        <v>11016</v>
+        <v>9213</v>
       </c>
       <c r="E64" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F64" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G64" s="3">
-        <v>50</v>
-      </c>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="1">
         <v>10000</v>
@@ -2504,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="1">
         <v>10000</v>
@@ -2513,13 +2504,13 @@
         <v>8941</v>
       </c>
       <c r="E66" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F66" s="3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G66" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2527,22 +2518,22 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1">
         <v>10000</v>
       </c>
       <c r="D67" s="1">
-        <v>10058</v>
+        <v>9746</v>
       </c>
       <c r="E67" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F67" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G67" s="3">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2550,22 +2541,22 @@
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="1">
         <v>10000</v>
       </c>
       <c r="D68" s="1">
-        <v>11514</v>
+        <v>10514</v>
       </c>
       <c r="E68" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F68" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G68" s="3">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2573,7 +2564,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="1">
         <v>10000</v>
@@ -2582,14 +2573,14 @@
         <v>13322</v>
       </c>
       <c r="E69" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3">
         <v>100</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2597,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="1">
         <v>10000</v>
@@ -2614,7 +2605,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="1">
         <v>10000</v>
@@ -2623,13 +2614,13 @@
         <v>8360</v>
       </c>
       <c r="E71" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G71" s="3">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2637,22 +2628,22 @@
         <v>14</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1">
         <v>10000</v>
       </c>
       <c r="D72" s="1">
-        <v>7710</v>
+        <v>8710</v>
       </c>
       <c r="E72" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F72" s="3">
         <v>7</v>
       </c>
       <c r="G72" s="3">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2660,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="1">
         <v>10000</v>
@@ -2669,13 +2660,13 @@
         <v>6585</v>
       </c>
       <c r="E73" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F73" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G73" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2683,7 +2674,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="1">
         <v>10000</v>
@@ -2692,13 +2683,13 @@
         <v>10561</v>
       </c>
       <c r="E74" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G74" s="3">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2706,7 +2697,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="1">
         <v>10000</v>
@@ -2729,19 +2720,19 @@
         <v>18</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="1">
         <v>10000</v>
       </c>
       <c r="D76" s="1">
-        <v>89980</v>
+        <v>9580</v>
       </c>
       <c r="E76" s="3">
         <v>9</v>
       </c>
       <c r="F76" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="3">
         <v>53</v>
@@ -2752,22 +2743,22 @@
         <v>19</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="1">
         <v>10000</v>
       </c>
       <c r="D77" s="1">
-        <v>8425</v>
+        <v>9320</v>
       </c>
       <c r="E77" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F77" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G77" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -2778,7 +2769,7 @@
         <v>21</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="1">
         <v>10000</v>
@@ -2787,13 +2778,13 @@
         <v>6151</v>
       </c>
       <c r="E78" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F78" s="3">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G78" s="3">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2801,7 +2792,7 @@
         <v>22</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1">
         <v>10000</v>
@@ -2810,13 +2801,16 @@
         <v>8612</v>
       </c>
       <c r="E79" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F79" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G79" s="3">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2824,22 +2818,22 @@
         <v>24</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="1">
         <v>10000</v>
       </c>
       <c r="D80" s="1">
-        <v>8241</v>
+        <v>9204</v>
       </c>
       <c r="E80" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F80" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G80" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2847,25 +2841,22 @@
         <v>25</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" s="1">
         <v>10000</v>
       </c>
       <c r="D81" s="1">
-        <v>10763</v>
+        <v>9665</v>
       </c>
       <c r="E81" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
       </c>
       <c r="G81" s="3">
-        <v>67</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2873,7 +2864,7 @@
         <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" s="1">
         <v>10000</v>
@@ -2890,16 +2881,14 @@
       <c r="G82" s="3">
         <v>67</v>
       </c>
-      <c r="H82" s="5">
-        <v>1</v>
-      </c>
+      <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" s="1">
         <v>10000</v>
@@ -2908,39 +2897,36 @@
         <v>10623</v>
       </c>
       <c r="E83" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F83" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G83" s="3">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="1">
         <v>10000</v>
       </c>
       <c r="D84" s="1">
-        <v>12107</v>
+        <v>8753</v>
       </c>
       <c r="E84" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F84" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G84" s="3">
-        <v>44</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2948,22 +2934,22 @@
         <v>26</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="1">
         <v>10000</v>
       </c>
       <c r="D85" s="1">
-        <v>11700</v>
+        <v>10700</v>
       </c>
       <c r="E85" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F85" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G85" s="3">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H85" s="5"/>
     </row>
@@ -2972,7 +2958,7 @@
         <v>27</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="1">
         <v>10000</v>
@@ -2981,16 +2967,13 @@
         <v>17050</v>
       </c>
       <c r="E86" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F86" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G86" s="3">
-        <v>76</v>
-      </c>
-      <c r="H86">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2998,7 +2981,7 @@
         <v>28</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="1">
         <v>10000</v>
@@ -3024,7 +3007,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" s="1">
         <v>10000</v>
@@ -3041,7 +3024,7 @@
         <v>30</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" s="1">
         <v>10000</v>
@@ -3058,22 +3041,22 @@
         <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="1">
         <v>10000</v>
       </c>
       <c r="D90" s="1">
-        <v>8070</v>
+        <v>9070</v>
       </c>
       <c r="E90" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" s="3">
         <v>8</v>
       </c>
       <c r="G90" s="3">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3081,7 +3064,7 @@
         <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" s="1">
         <v>10000</v>
@@ -3107,22 +3090,22 @@
         <v>32</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" s="1">
         <v>10000</v>
       </c>
       <c r="D92" s="1">
-        <v>11789</v>
+        <v>10700</v>
       </c>
       <c r="E92" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F92" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" s="3">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3130,7 +3113,7 @@
         <v>33</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="1">
         <v>10000</v>
@@ -3147,7 +3130,7 @@
         <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" s="1">
         <v>10000</v>
@@ -3173,22 +3156,20 @@
         <v>35</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="1">
         <v>10000</v>
       </c>
       <c r="D95" s="1">
-        <v>10290</v>
+        <v>12700</v>
       </c>
       <c r="E95" s="3">
-        <v>2</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F95" s="3"/>
       <c r="G95" s="3">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3196,7 +3177,7 @@
         <v>36</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C96" s="1">
         <v>10000</v>
@@ -3205,13 +3186,13 @@
         <v>11599</v>
       </c>
       <c r="E96" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F96" s="3">
         <v>6</v>
       </c>
       <c r="G96" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -3222,22 +3203,22 @@
         <v>37</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" s="1">
         <v>10000</v>
       </c>
       <c r="D97" s="1">
-        <v>12302</v>
+        <v>10800</v>
       </c>
       <c r="E97" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
       </c>
       <c r="G97" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -3248,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="1">
         <v>10000</v>
@@ -3257,13 +3238,13 @@
         <v>9050</v>
       </c>
       <c r="E98" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" s="3">
         <v>6</v>
       </c>
       <c r="G98" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3271,7 +3252,7 @@
         <v>39</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="1">
         <v>10000</v>
@@ -3280,13 +3261,13 @@
         <v>10778</v>
       </c>
       <c r="E99" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F99" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G99" s="3">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -3297,22 +3278,22 @@
         <v>40</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" s="1">
         <v>10000</v>
       </c>
       <c r="D100" s="1">
-        <v>9114</v>
+        <v>10220</v>
       </c>
       <c r="E100" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F100" s="3">
         <v>23</v>
       </c>
       <c r="G100" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,7 +3301,7 @@
         <v>41</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C101" s="1">
         <v>10000</v>
@@ -3329,13 +3310,16 @@
         <v>9300</v>
       </c>
       <c r="E101" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F101" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101" s="3">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3343,7 +3327,7 @@
         <v>60</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C102" s="1">
         <v>10000</v>
@@ -3366,7 +3350,7 @@
         <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C103" s="1">
         <v>10000</v>
@@ -3375,13 +3359,13 @@
         <v>11870</v>
       </c>
       <c r="E103" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F103" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G103" s="3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H103">
         <v>5</v>
@@ -3392,7 +3376,7 @@
         <v>42</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" s="1">
         <v>10000</v>
@@ -3401,16 +3385,13 @@
         <v>16664</v>
       </c>
       <c r="E104" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F104" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G104" s="3">
-        <v>78</v>
-      </c>
-      <c r="H104">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3418,7 +3399,7 @@
         <v>43</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" s="1">
         <v>10000</v>
@@ -3427,10 +3408,10 @@
         <v>8810</v>
       </c>
       <c r="E105" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F105" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" s="3">
         <v>50</v>
@@ -3441,7 +3422,7 @@
         <v>44</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" s="1">
         <v>10000</v>
@@ -3450,13 +3431,13 @@
         <v>8103</v>
       </c>
       <c r="E106" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F106" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G106" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3464,45 +3445,45 @@
         <v>45</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" s="1">
         <v>10000</v>
       </c>
       <c r="D107" s="1">
-        <v>8540</v>
+        <v>7540</v>
       </c>
       <c r="E107" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G107" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" s="1">
         <v>10000</v>
       </c>
       <c r="D108" s="1">
-        <v>5150</v>
+        <v>7150</v>
       </c>
       <c r="E108" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F108" s="3">
         <v>8</v>
       </c>
       <c r="G108" s="3">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3510,7 +3491,7 @@
         <v>46</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="1">
         <v>10000</v>
@@ -3527,7 +3508,7 @@
         <v>47</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="1">
         <v>10000</v>
@@ -3544,7 +3525,7 @@
         <v>48</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="1">
         <v>10000</v>
@@ -3561,7 +3542,7 @@
         <v>49</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" s="1">
         <v>10000</v>
@@ -3573,10 +3554,10 @@
         <v>5</v>
       </c>
       <c r="F112" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G112" s="3">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3584,7 +3565,7 @@
         <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C113" s="1">
         <v>10000</v>
@@ -3607,7 +3588,7 @@
         <v>51</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C114" s="1">
         <v>10000</v>
@@ -3624,22 +3605,22 @@
         <v>52</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" s="1">
         <v>10000</v>
       </c>
       <c r="D115" s="1">
-        <v>9280</v>
+        <v>8780</v>
       </c>
       <c r="E115" s="3">
         <v>4</v>
       </c>
       <c r="F115" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G115" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3647,7 +3628,7 @@
         <v>53</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" s="1">
         <v>10000</v>
@@ -3662,10 +3643,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="3">
-        <v>44</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3673,7 +3651,7 @@
         <v>54</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" s="1">
         <v>10000</v>
@@ -3699,7 +3677,7 @@
         <v>55</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C118" s="1">
         <v>10000</v>
@@ -3717,7 +3695,7 @@
         <v>56</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C119" s="1">
         <v>10000</v>
@@ -3726,13 +3704,13 @@
         <v>6370</v>
       </c>
       <c r="E119" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G119" s="3">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3740,7 +3718,7 @@
         <v>57</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C120" s="1">
         <v>10000</v>
@@ -3763,22 +3741,22 @@
         <v>58</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" s="1">
         <v>10000</v>
       </c>
       <c r="D121" s="1">
-        <v>9923</v>
+        <v>9325</v>
       </c>
       <c r="E121" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F121" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G121" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,22 +3764,22 @@
         <v>62</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122" s="1">
         <v>10000</v>
       </c>
       <c r="D122" s="1">
-        <v>6080</v>
+        <v>9874</v>
       </c>
       <c r="E122" s="3">
+        <v>10</v>
+      </c>
+      <c r="F122" s="3">
         <v>8</v>
       </c>
-      <c r="F122" s="3">
-        <v>9</v>
-      </c>
       <c r="G122" s="3">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -3809,7 +3787,7 @@
         <v>63</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C123" s="1">
         <v>10000</v>
@@ -3818,16 +3796,16 @@
         <v>10365</v>
       </c>
       <c r="E123" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
       </c>
       <c r="G123" s="3">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3835,22 +3813,22 @@
         <v>64</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124" s="1">
         <v>10000</v>
       </c>
       <c r="D124" s="1">
-        <v>9764</v>
+        <v>8740</v>
       </c>
       <c r="E124" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F124" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G124" s="3">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H124" s="5"/>
     </row>
@@ -3859,17 +3837,23 @@
         <v>65</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" s="1">
         <v>10000</v>
       </c>
       <c r="D125" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+        <v>13000</v>
+      </c>
+      <c r="E125" s="3">
+        <v>10</v>
+      </c>
+      <c r="F125" s="3">
+        <v>6</v>
+      </c>
+      <c r="G125" s="3">
+        <v>63</v>
+      </c>
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -3877,33 +3861,31 @@
         <v>66</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C126" s="1">
         <v>10000</v>
       </c>
       <c r="D126" s="1">
-        <v>8830</v>
+        <v>6830</v>
       </c>
       <c r="E126" s="3">
         <v>1</v>
       </c>
       <c r="F126" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G126" s="3">
-        <v>20</v>
-      </c>
-      <c r="H126" s="3">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>67</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C127" s="1">
         <v>10000</v>
@@ -3912,13 +3894,13 @@
         <v>11476</v>
       </c>
       <c r="E127" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F127" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G127" s="3">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -3929,7 +3911,7 @@
         <v>68</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="1">
         <v>10000</v>
@@ -3938,13 +3920,13 @@
         <v>8485</v>
       </c>
       <c r="E128" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F128" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G128" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H128" s="3"/>
     </row>
@@ -3953,27 +3935,31 @@
         <v>69</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" s="1">
         <v>10000</v>
       </c>
       <c r="D129" s="1">
-        <v>11400</v>
+        <v>13200</v>
       </c>
       <c r="E129" s="3">
+        <v>4</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3">
+        <v>100</v>
+      </c>
+      <c r="H129" s="3">
         <v>2</v>
       </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>70</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" s="1">
         <v>10000</v>
@@ -3999,7 +3985,7 @@
         <v>71</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C131" s="1">
         <v>10000</v>
@@ -4023,7 +4009,7 @@
         <v>72</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C132" s="1">
         <v>10000</v>
@@ -4040,10 +4026,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C133" s="1">
         <v>10000</v>
@@ -4052,41 +4038,39 @@
         <v>9650</v>
       </c>
       <c r="E133" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F133" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G133" s="3">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134" s="1">
         <v>10000</v>
       </c>
       <c r="D134" s="1">
-        <v>10740</v>
+        <v>9500</v>
       </c>
       <c r="E134" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F134" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G134" s="3">
         <v>50</v>
       </c>
-      <c r="H134" s="6">
-        <v>1</v>
-      </c>
+      <c r="H134" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4101,7 +4085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968FCD4-0E43-448B-A959-704F8BE365F1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4117,15 +4101,15 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="8">
         <v>-1002002230427</v>
@@ -4136,7 +4120,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="8">
         <v>-1001956367839</v>
@@ -4147,7 +4131,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="8">
         <v>-1002139886828</v>
@@ -4158,7 +4142,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="9">
         <v>-1002116542537</v>
@@ -4169,7 +4153,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="8">
         <v>-1002054332150</v>

--- a/TipstersBet/excel tipstersbets.xlsx
+++ b/TipstersBet/excel tipstersbets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32802D08-8008-44CC-A151-3FD00E576B27}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{00F7517E-9DF2-4547-816C-26497E732348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F37825-932F-4C3F-9020-E7F8686B80DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -459,12 +459,6 @@
     <t>Tipsters Americanos 🇺🇸</t>
   </si>
   <si>
-    <t>Tipsters Europeos eu</t>
-  </si>
-  <si>
-    <t>Los Rey APP</t>
-  </si>
-  <si>
     <t>Alta Efectividad</t>
   </si>
   <si>
@@ -483,7 +477,16 @@
     <t>RevolverBets</t>
   </si>
   <si>
-    <t>g</t>
+    <t>Daniel Tipster</t>
+  </si>
+  <si>
+    <t>El profe colombiano</t>
+  </si>
+  <si>
+    <t>Tipsters Europeos🇪🇺</t>
+  </si>
+  <si>
+    <t>Los Rey APP👑</t>
   </si>
 </sst>
 </file>
@@ -686,8 +689,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H134" totalsRowShown="0">
-  <autoFilter ref="A1:H134" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:H136" totalsRowShown="0">
+  <autoFilter ref="A1:H136" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="8"/>
@@ -1031,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H134"/>
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1119,7 @@
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1">
         <v>10000</v>
@@ -1125,16 +1128,13 @@
         <v>10000</v>
       </c>
       <c r="E4" s="3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3">
-        <v>57</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1">
         <v>10000</v>
@@ -1165,7 +1165,7 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1">
         <v>10000</v>
@@ -1174,16 +1174,13 @@
         <v>10000</v>
       </c>
       <c r="E6" s="3">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3">
-        <v>61</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,7 +1188,7 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
@@ -1217,7 +1214,7 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1">
         <v>10000</v>
@@ -1240,7 +1237,7 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1">
         <v>10000</v>
@@ -1249,13 +1246,13 @@
         <v>8660</v>
       </c>
       <c r="E9" s="3">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G9" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1272,13 +1269,13 @@
         <v>7030</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1295,13 +1292,13 @@
         <v>8138</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1315,16 +1312,16 @@
         <v>10000</v>
       </c>
       <c r="D12" s="1">
-        <v>9430</v>
+        <v>9853</v>
       </c>
       <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3">
         <v>19</v>
       </c>
-      <c r="F12" s="3">
-        <v>16</v>
-      </c>
       <c r="G12" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1341,13 +1338,13 @@
         <v>8647</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1381,13 +1378,13 @@
         <v>8411</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3">
         <v>23</v>
       </c>
       <c r="G15" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,13 +1401,13 @@
         <v>8676</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,7 +1424,7 @@
         <v>8842</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>5</v>
@@ -1466,10 +1463,10 @@
         <v>8464</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G19" s="3">
         <v>42</v>
@@ -1507,16 +1504,16 @@
         <v>11371</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1553,19 +1550,16 @@
         <v>10000</v>
       </c>
       <c r="D23" s="1">
-        <v>17833</v>
+        <v>23021</v>
       </c>
       <c r="E23">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G23" s="3">
-        <v>61</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,13 +1635,13 @@
         <v>10531</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F27" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,13 +1681,13 @@
         <v>9290</v>
       </c>
       <c r="E29" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F29" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G29" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1707,19 +1701,16 @@
         <v>10000</v>
       </c>
       <c r="D30" s="1">
-        <v>10651</v>
+        <v>10546</v>
       </c>
       <c r="E30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F30" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G30" s="3">
-        <v>63</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,13 +1744,13 @@
         <v>9320</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G32" s="3">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1825,13 +1816,13 @@
         <v>8341</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G35" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1871,10 +1862,10 @@
         <v>10205</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G37" s="3">
         <v>62</v>
@@ -1930,19 +1921,16 @@
         <v>10000</v>
       </c>
       <c r="D40" s="1">
-        <v>10667</v>
+        <v>10557</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F40" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G40" s="3">
-        <v>69</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1959,13 +1947,13 @@
         <v>11628</v>
       </c>
       <c r="E41">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F41" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G41" s="3">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2002,16 +1990,16 @@
         <v>10000</v>
       </c>
       <c r="D43" s="1">
-        <v>11628</v>
+        <v>11085</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F43" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,7 +2025,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>138</v>
@@ -2046,16 +2034,16 @@
         <v>10000</v>
       </c>
       <c r="D45" s="1">
-        <v>22860</v>
+        <v>25900</v>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F45" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G45" s="3">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,19 +2057,19 @@
         <v>10000</v>
       </c>
       <c r="D46" s="1">
-        <v>10391</v>
+        <v>11052</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F46" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2169,13 +2157,13 @@
         <v>8375</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3">
         <v>3</v>
       </c>
       <c r="G51" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2192,13 +2180,13 @@
         <v>9226</v>
       </c>
       <c r="E52" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F52" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G52" s="3">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2275,10 +2263,10 @@
         <v>14137</v>
       </c>
       <c r="E56" s="3">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F56" s="3">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G56" s="3">
         <v>48</v>
@@ -2295,16 +2283,19 @@
         <v>10000</v>
       </c>
       <c r="D57" s="1">
-        <v>14424</v>
+        <v>15845</v>
       </c>
       <c r="E57" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F57" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G57" s="3">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,16 +2309,16 @@
         <v>10000</v>
       </c>
       <c r="D58" s="1">
-        <v>11654</v>
+        <v>11634</v>
       </c>
       <c r="E58" s="3">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F58" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G58" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2344,13 +2335,13 @@
         <v>9714</v>
       </c>
       <c r="E59" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F59" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2382,16 +2373,16 @@
         <v>10000</v>
       </c>
       <c r="D61" s="1">
-        <v>10659</v>
+        <v>10635</v>
       </c>
       <c r="E61" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F61" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G61" s="3">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2431,13 +2422,13 @@
         <v>10180</v>
       </c>
       <c r="E63" s="3">
+        <v>14</v>
+      </c>
+      <c r="F63" s="3">
         <v>13</v>
       </c>
-      <c r="F63" s="3">
-        <v>10</v>
-      </c>
       <c r="G63" s="3">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2451,16 +2442,16 @@
         <v>10000</v>
       </c>
       <c r="D64" s="1">
-        <v>9213</v>
+        <v>10302</v>
       </c>
       <c r="E64" s="3">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F64" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G64" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H64" s="3"/>
     </row>
@@ -2475,19 +2466,16 @@
         <v>10000</v>
       </c>
       <c r="D65" s="1">
-        <v>7750</v>
+        <v>8920</v>
       </c>
       <c r="E65" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65" s="3">
         <v>47</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2504,13 +2492,13 @@
         <v>8941</v>
       </c>
       <c r="E66" s="3">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F66" s="3">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G66" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2550,10 +2538,10 @@
         <v>10514</v>
       </c>
       <c r="E68" s="3">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F68" s="3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G68" s="3">
         <v>52</v>
@@ -2570,17 +2558,16 @@
         <v>10000</v>
       </c>
       <c r="D69" s="1">
-        <v>13322</v>
+        <v>12322</v>
       </c>
       <c r="E69" s="3">
         <v>6</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
       <c r="G69" s="3">
-        <v>100</v>
-      </c>
-      <c r="H69">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2611,16 +2598,16 @@
         <v>10000</v>
       </c>
       <c r="D71" s="1">
-        <v>8360</v>
+        <v>9103</v>
       </c>
       <c r="E71" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F71" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G71" s="3">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2634,16 +2621,16 @@
         <v>10000</v>
       </c>
       <c r="D72" s="1">
-        <v>8710</v>
+        <v>9220</v>
       </c>
       <c r="E72" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F72" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2660,13 +2647,13 @@
         <v>6585</v>
       </c>
       <c r="E73" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F73" s="3">
         <v>24</v>
       </c>
       <c r="G73" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2683,13 +2670,16 @@
         <v>10561</v>
       </c>
       <c r="E74" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F74" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G74" s="3">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2729,13 +2719,13 @@
         <v>9580</v>
       </c>
       <c r="E76" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" s="3">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2752,16 +2742,13 @@
         <v>9320</v>
       </c>
       <c r="E77" s="3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F77" s="3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G77" s="3">
         <v>51</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2775,16 +2762,16 @@
         <v>10000</v>
       </c>
       <c r="D78" s="1">
-        <v>6151</v>
+        <v>8950</v>
       </c>
       <c r="E78" s="3">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F78" s="3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G78" s="3">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2809,9 +2796,6 @@
       <c r="G79" s="3">
         <v>37</v>
       </c>
-      <c r="H79" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2827,13 +2811,13 @@
         <v>9204</v>
       </c>
       <c r="E80" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F80" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G80" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2850,13 +2834,13 @@
         <v>9665</v>
       </c>
       <c r="E81" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2864,31 +2848,33 @@
         <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C82" s="1">
         <v>10000</v>
       </c>
       <c r="D82" s="1">
-        <v>10425</v>
+        <v>16170</v>
       </c>
       <c r="E82" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F82" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" s="3">
-        <v>67</v>
-      </c>
-      <c r="H82" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C83" s="1">
         <v>10000</v>
@@ -2897,13 +2883,13 @@
         <v>10623</v>
       </c>
       <c r="E83" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F83" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G83" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2911,7 +2897,7 @@
         <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C84" s="1">
         <v>10000</v>
@@ -2920,13 +2906,13 @@
         <v>8753</v>
       </c>
       <c r="E84" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" s="3">
         <v>8</v>
       </c>
       <c r="G84" s="3">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2934,7 +2920,7 @@
         <v>26</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C85" s="1">
         <v>10000</v>
@@ -2958,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C86" s="1">
         <v>10000</v>
@@ -2981,7 +2967,7 @@
         <v>28</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C87" s="1">
         <v>10000</v>
@@ -3007,7 +2993,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1">
         <v>10000</v>
@@ -3024,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C89" s="1">
         <v>10000</v>
@@ -3041,7 +3027,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C90" s="1">
         <v>10000</v>
@@ -3064,25 +3050,22 @@
         <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1">
         <v>10000</v>
       </c>
       <c r="D91" s="1">
-        <v>30600</v>
+        <v>30100</v>
       </c>
       <c r="E91" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F91" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G91" s="3">
-        <v>65</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,7 +3073,7 @@
         <v>32</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C92" s="1">
         <v>10000</v>
@@ -3099,13 +3082,13 @@
         <v>10700</v>
       </c>
       <c r="E92" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F92" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G92" s="3">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3113,7 +3096,7 @@
         <v>33</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C93" s="1">
         <v>10000</v>
@@ -3130,7 +3113,7 @@
         <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C94" s="1">
         <v>10000</v>
@@ -3156,7 +3139,7 @@
         <v>35</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C95" s="1">
         <v>10000</v>
@@ -3167,9 +3150,11 @@
       <c r="E95" s="3">
         <v>3</v>
       </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
       <c r="G95" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3177,7 +3162,7 @@
         <v>36</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C96" s="1">
         <v>10000</v>
@@ -3186,16 +3171,16 @@
         <v>11599</v>
       </c>
       <c r="E96" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F96" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G96" s="3">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3203,7 +3188,7 @@
         <v>37</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C97" s="1">
         <v>10000</v>
@@ -3229,22 +3214,22 @@
         <v>38</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C98" s="1">
         <v>10000</v>
       </c>
       <c r="D98" s="1">
-        <v>9050</v>
+        <v>10809</v>
       </c>
       <c r="E98" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F98" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G98" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3252,25 +3237,22 @@
         <v>39</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C99" s="1">
         <v>10000</v>
       </c>
       <c r="D99" s="1">
-        <v>10778</v>
+        <v>11025</v>
       </c>
       <c r="E99" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F99" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G99" s="3">
-        <v>61</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3278,7 +3260,7 @@
         <v>40</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C100" s="1">
         <v>10000</v>
@@ -3287,13 +3269,13 @@
         <v>10220</v>
       </c>
       <c r="E100" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F100" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G100" s="3">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3301,25 +3283,25 @@
         <v>41</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1">
         <v>10000</v>
       </c>
       <c r="D101" s="1">
-        <v>9300</v>
+        <v>12849</v>
       </c>
       <c r="E101" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F101" s="3">
         <v>8</v>
       </c>
       <c r="G101" s="3">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3327,16 +3309,16 @@
         <v>60</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C102" s="1">
         <v>10000</v>
       </c>
       <c r="D102" s="1">
-        <v>8360</v>
+        <v>10032</v>
       </c>
       <c r="E102" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" s="3">
         <v>3</v>
@@ -3350,25 +3332,25 @@
         <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C103" s="1">
         <v>10000</v>
       </c>
       <c r="D103" s="1">
-        <v>11870</v>
+        <v>12160</v>
       </c>
       <c r="E103" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F103" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G103" s="3">
         <v>76</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3376,7 +3358,7 @@
         <v>42</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C104" s="1">
         <v>10000</v>
@@ -3385,13 +3367,16 @@
         <v>16664</v>
       </c>
       <c r="E104" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F104" s="3">
         <v>7</v>
       </c>
       <c r="G104" s="3">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3399,7 +3384,7 @@
         <v>43</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C105" s="1">
         <v>10000</v>
@@ -3408,13 +3393,13 @@
         <v>8810</v>
       </c>
       <c r="E105" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G105" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3422,22 +3407,22 @@
         <v>44</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C106" s="1">
         <v>10000</v>
       </c>
       <c r="D106" s="1">
-        <v>8103</v>
+        <v>9853</v>
       </c>
       <c r="E106" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F106" s="3">
         <v>20</v>
       </c>
       <c r="G106" s="3">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3445,7 +3430,7 @@
         <v>45</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C107" s="1">
         <v>10000</v>
@@ -3453,7 +3438,7 @@
       <c r="D107" s="1">
         <v>7540</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="6">
         <v>3</v>
       </c>
       <c r="F107" s="3">
@@ -3465,10 +3450,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C108" s="1">
         <v>10000</v>
@@ -3491,7 +3476,7 @@
         <v>46</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C109" s="1">
         <v>10000</v>
@@ -3508,16 +3493,18 @@
         <v>47</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C110" s="1">
         <v>10000</v>
       </c>
       <c r="D110" s="1">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3525,7 +3512,7 @@
         <v>48</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C111" s="1">
         <v>10000</v>
@@ -3542,7 +3529,7 @@
         <v>49</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C112" s="1">
         <v>10000</v>
@@ -3565,7 +3552,7 @@
         <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C113" s="1">
         <v>10000</v>
@@ -3588,7 +3575,7 @@
         <v>51</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C114" s="1">
         <v>10000</v>
@@ -3605,22 +3592,22 @@
         <v>52</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C115" s="1">
         <v>10000</v>
       </c>
       <c r="D115" s="1">
-        <v>8780</v>
+        <v>7780</v>
       </c>
       <c r="E115" s="3">
         <v>4</v>
       </c>
       <c r="F115" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G115" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3628,7 +3615,7 @@
         <v>53</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C116" s="1">
         <v>10000</v>
@@ -3637,13 +3624,13 @@
         <v>9970</v>
       </c>
       <c r="E116" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G116" s="3">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3651,7 +3638,7 @@
         <v>54</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C117" s="1">
         <v>10000</v>
@@ -3677,7 +3664,7 @@
         <v>55</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C118" s="1">
         <v>10000</v>
@@ -3695,7 +3682,7 @@
         <v>56</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C119" s="1">
         <v>10000</v>
@@ -3718,7 +3705,7 @@
         <v>57</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C120" s="1">
         <v>10000</v>
@@ -3741,7 +3728,7 @@
         <v>58</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C121" s="1">
         <v>10000</v>
@@ -3764,7 +3751,7 @@
         <v>62</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C122" s="1">
         <v>10000</v>
@@ -3773,10 +3760,10 @@
         <v>9874</v>
       </c>
       <c r="E122" s="3">
+        <v>11</v>
+      </c>
+      <c r="F122" s="3">
         <v>10</v>
-      </c>
-      <c r="F122" s="3">
-        <v>8</v>
       </c>
       <c r="G122" s="3">
         <v>56</v>
@@ -3787,7 +3774,7 @@
         <v>63</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C123" s="1">
         <v>10000</v>
@@ -3813,7 +3800,7 @@
         <v>64</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C124" s="1">
         <v>10000</v>
@@ -3837,7 +3824,7 @@
         <v>65</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C125" s="1">
         <v>10000</v>
@@ -3861,7 +3848,7 @@
         <v>66</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C126" s="1">
         <v>10000</v>
@@ -3884,8 +3871,8 @@
       <c r="A127" t="s">
         <v>67</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>138</v>
+      <c r="B127" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C127" s="1">
         <v>10000</v>
@@ -3894,16 +3881,16 @@
         <v>11476</v>
       </c>
       <c r="E127" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F127" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G127" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H127" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3911,7 +3898,7 @@
         <v>68</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C128" s="1">
         <v>10000</v>
@@ -3920,13 +3907,13 @@
         <v>8485</v>
       </c>
       <c r="E128" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F128" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G128" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H128" s="3"/>
     </row>
@@ -3935,7 +3922,7 @@
         <v>69</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C129" s="1">
         <v>10000</v>
@@ -3959,7 +3946,7 @@
         <v>70</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C130" s="1">
         <v>10000</v>
@@ -3985,7 +3972,7 @@
         <v>71</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C131" s="1">
         <v>10000</v>
@@ -4009,7 +3996,7 @@
         <v>72</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C132" s="1">
         <v>10000</v>
@@ -4026,10 +4013,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C133" s="1">
         <v>10000</v>
@@ -4050,10 +4037,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C134" s="1">
         <v>10000</v>
@@ -4071,6 +4058,34 @@
         <v>50</v>
       </c>
       <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4086,7 +4101,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,7 +4119,7 @@
         <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,7 +4146,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B4" s="8">
         <v>-1002139886828</v>
@@ -4142,7 +4157,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B5" s="9">
         <v>-1002116542537</v>
@@ -4153,7 +4168,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="8">
         <v>-1002054332150</v>
